--- a/Kingdom Hearts II Final Mix.xlsx
+++ b/Kingdom Hearts II Final Mix.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="622">
   <si>
     <t xml:space="preserve">World ID</t>
   </si>
@@ -109,6 +109,123 @@
   </si>
   <si>
     <t xml:space="preserve">On the title screen…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SunsetStation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunset Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SunsetTerrace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunset Terrace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunnelway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SunsetHill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunset Hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StationPlaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station Plaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StationHeights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Street: Station Heights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackAlley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back Alley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UsualSpot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Usual Spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandlot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TramCommon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Street: Tram Common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Woods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoxasRoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roxas’s Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courtyard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansion: Courtyard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansion: Foyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WhiteRoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansion: The White Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansion: Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ComputerRoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansion: Computer Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BasementHall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansion: Basement Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BasementHallAxel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BasementCorridor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansion: Basement Corridor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PodRoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansion: Pod Room</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -1792,7 +1909,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1814,7 +1930,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1903,7 +2018,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
@@ -2198,7 +2313,7 @@
   <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2237,7 +2352,7 @@
       </c>
       <c r="I1" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(G2:G1007)</f>
-        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2266,237 +2381,546 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <f aca="false">B3+C3*256</f>
+        <v>523</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G3" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A3,": { ""worldId"": ",C3,", ""name"": """,D3,""", ""display"": """,E3,""", ""areaId"": ",B3,", ""hideWorld"": ",F3,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <f aca="false">B4+C4*256</f>
+        <v>522</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G4" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A4,": { ""worldId"": ",C4,", ""name"": """,D4,""", ""display"": """,E4,""", ""areaId"": ",B4,", ""hideWorld"": ",F4,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <f aca="false">B5+C5*256</f>
+        <v>548</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G5" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A5,": { ""worldId"": ",C5,", ""name"": """,D5,""", ""display"": """,E5,""", ""areaId"": ",B5,", ""hideWorld"": ",F5,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <f aca="false">B6+C6*256</f>
+        <v>524</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G6" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A6,": { ""worldId"": ",C6,", ""name"": """,D6,""", ""display"": """,E6,""", ""areaId"": ",B6,", ""hideWorld"": ",F6,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <f aca="false">B7+C7*256</f>
+        <v>520</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G7" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A7,": { ""worldId"": ",C7,", ""name"": """,D7,""", ""display"": """,E7,""", ""areaId"": ",B7,", ""hideWorld"": ",F7,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <f aca="false">B8+C8*256</f>
+        <v>518</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A8,": { ""worldId"": ",C8,", ""name"": """,D8,""", ""display"": """,E8,""", ""areaId"": ",B8,", ""hideWorld"": ",F8,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <f aca="false">B9+C9*256</f>
+        <v>515</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A9,": { ""worldId"": ",C9,", ""name"": """,D9,""", ""display"": """,E9,""", ""areaId"": ",B9,", ""hideWorld"": ",F9,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <f aca="false">B10+C10*256</f>
+        <v>514</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G10" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A10,": { ""worldId"": ",C10,", ""name"": """,D10,""", ""display"": """,E10,""", ""areaId"": ",B10,", ""hideWorld"": ",F10,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <f aca="false">B11+C11*256</f>
+        <v>516</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A11,": { ""worldId"": ",C11,", ""name"": """,D11,""", ""display"": """,E11,""", ""areaId"": ",B11,", ""hideWorld"": ",F11,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <f aca="false">B12+C12*256</f>
+        <v>519</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A12,": { ""worldId"": ",C12,", ""name"": """,D12,""", ""display"": """,E12,""", ""areaId"": ",B12,", ""hideWorld"": ",F12,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <f aca="false">B13+C13*256</f>
+        <v>525</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G13" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A13,": { ""worldId"": ",C13,", ""name"": """,D13,""", ""display"": """,E13,""", ""areaId"": ",B13,", ""hideWorld"": ",F13,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <f aca="false">B14+C14*256</f>
+        <v>513</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G14" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A14,": { ""worldId"": ",C14,", ""name"": """,D14,""", ""display"": """,E14,""", ""areaId"": ",B14,", ""hideWorld"": ",F14,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <f aca="false">B15+C15*256</f>
+        <v>526</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G15" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A15,": { ""worldId"": ",C15,", ""name"": """,D15,""", ""display"": """,E15,""", ""areaId"": ",B15,", ""hideWorld"": ",F15,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <f aca="false">B16+C16*256</f>
+        <v>527</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G16" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A16,": { ""worldId"": ",C16,", ""name"": """,D16,""", ""display"": """,E16,""", ""areaId"": ",B16,", ""hideWorld"": ",F16,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <f aca="false">B17+C17*256</f>
+        <v>530</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G17" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A17,": { ""worldId"": ",C17,", ""name"": """,D17,""", ""display"": """,E17,""", ""areaId"": ",B17,", ""hideWorld"": ",F17,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <f aca="false">B18+C18*256</f>
+        <v>529</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G18" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A18,": { ""worldId"": ",C18,", ""name"": """,D18,""", ""display"": """,E18,""", ""areaId"": ",B18,", ""hideWorld"": ",F18,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <f aca="false">B19+C19*256</f>
+        <v>533</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G19" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A19,": { ""worldId"": ",C19,", ""name"": """,D19,""", ""display"": """,E19,""", ""areaId"": ",B19,", ""hideWorld"": ",F19,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <f aca="false">B20+C20*256</f>
+        <v>531</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G20" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A20,": { ""worldId"": ",C20,", ""name"": """,D20,""", ""display"": """,E20,""", ""areaId"": ",B20,", ""hideWorld"": ",F20,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <f aca="false">B21+C21*256</f>
+        <v>532</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G21" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A21,": { ""worldId"": ",C21,", ""name"": """,D21,""", ""display"": """,E21,""", ""areaId"": ",B21,", ""hideWorld"": ",F21,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <f aca="false">B22+C22*256</f>
+        <v>534</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G22" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A22,": { ""worldId"": ",C22,", ""name"": """,D22,""", ""display"": """,E22,""", ""areaId"": ",B22,", ""hideWorld"": ",F22,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <f aca="false">B23+C23*256</f>
+        <v>535</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="G23" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A23,": { ""worldId"": ",C23,", ""name"": """,D23,""", ""display"": """,E23,""", ""areaId"": ",B23,", ""hideWorld"": ",F23,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+        <v>535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G24" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A24,": { ""worldId"": ",C24,", ""name"": """,D24,""", ""display"": """,E24,""", ""areaId"": ",B24,", ""hideWorld"": ",F24,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+      <c r="A24" s="0" t="n">
+        <f aca="false">B24+C24*256</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A25,": { ""worldId"": ",C25,", ""name"": """,D25,""", ""display"": """,E25,""", ""areaId"": ",B25,", ""hideWorld"": ",F25,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+      <c r="A25" s="0" t="n">
+        <f aca="false">B25+C25*256</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A26,": { ""worldId"": ",C26,", ""name"": """,D26,""", ""display"": """,E26,""", ""areaId"": ",B26,", ""hideWorld"": ",F26,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G27" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A27,": { ""worldId"": ",C27,", ""name"": """,D27,""", ""display"": """,E27,""", ""areaId"": ",B27,", ""hideWorld"": ",F27,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G28" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A28,": { ""worldId"": ",C28,", ""name"": """,D28,""", ""display"": """,E28,""", ""areaId"": ",B28,", ""hideWorld"": ",F28,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G29" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A29,": { ""worldId"": ",C29,", ""name"": """,D29,""", ""display"": """,E29,""", ""areaId"": ",B29,", ""hideWorld"": ",F29,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G30" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A30,": { ""worldId"": ",C30,", ""name"": """,D30,""", ""display"": """,E30,""", ""areaId"": ",B30,", ""hideWorld"": ",F30,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G31" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A31,": { ""worldId"": ",C31,", ""name"": """,D31,""", ""display"": """,E31,""", ""areaId"": ",B31,", ""hideWorld"": ",F31,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G32" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A32,": { ""worldId"": ",C32,", ""name"": """,D32,""", ""display"": """,E32,""", ""areaId"": ",B32,", ""hideWorld"": ",F32,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G33" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A33,": { ""worldId"": ",C33,", ""name"": """,D33,""", ""display"": """,E33,""", ""areaId"": ",B33,", ""hideWorld"": ",F33,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G34" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A34,": { ""worldId"": ",C34,", ""name"": """,D34,""", ""display"": """,E34,""", ""areaId"": ",B34,", ""hideWorld"": ",F34,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A35,": { ""worldId"": ",C35,", ""name"": """,D35,""", ""display"": """,E35,""", ""areaId"": ",B35,", ""hideWorld"": ",F35,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A36,": { ""worldId"": ",C36,", ""name"": """,D36,""", ""display"": """,E36,""", ""areaId"": ",B36,", ""hideWorld"": ",F36,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A37,": { ""worldId"": ",C37,", ""name"": """,D37,""", ""display"": """,E37,""", ""areaId"": ",B37,", ""hideWorld"": ",F37,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G38" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A38,": { ""worldId"": ",C38,", ""name"": """,D38,""", ""display"": """,E38,""", ""areaId"": ",B38,", ""hideWorld"": ",F38,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G39" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A39,": { ""worldId"": ",C39,", ""name"": """,D39,""", ""display"": """,E39,""", ""areaId"": ",B39,", ""hideWorld"": ",F39,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G40" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A40,": { ""worldId"": ",C40,", ""name"": """,D40,""", ""display"": """,E40,""", ""areaId"": ",B40,", ""hideWorld"": ",F40,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G41" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT( ,A41,": { ""worldId"": ",C41,", ""name"": """,D41,""", ""display"": """,E41,""", ""areaId"": ",B41,", ""hideWorld"": ",F41,", },")</f>
-        <v>: { "worldId": , "name": "", "display": "", "areaId": , "hideWorld": , },</v>
+      <c r="A26" s="0" t="n">
+        <f aca="false">B26+C26*256</f>
+        <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2543,37 +2967,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2588,28 +3012,28 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
@@ -2627,25 +3051,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
@@ -2666,25 +3090,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
@@ -2705,25 +3129,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
@@ -2744,25 +3168,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
@@ -2783,25 +3207,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
@@ -2822,25 +3246,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -2861,25 +3285,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -2900,25 +3324,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -2939,25 +3363,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -2978,25 +3402,25 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -3017,25 +3441,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -3056,25 +3480,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -3095,25 +3519,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -3134,25 +3558,25 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
@@ -3173,25 +3597,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -3212,25 +3636,25 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -3251,25 +3675,25 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -3290,25 +3714,25 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -3329,25 +3753,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="D21" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
@@ -3368,25 +3792,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>0</v>
@@ -3407,25 +3831,25 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0</v>
@@ -3446,25 +3870,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
@@ -3485,25 +3909,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
@@ -3524,25 +3948,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
@@ -3563,25 +3987,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
@@ -3602,25 +4026,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
@@ -3641,25 +4065,25 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0</v>
@@ -3680,25 +4104,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0</v>
@@ -3719,25 +4143,25 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
@@ -3758,25 +4182,25 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0</v>
@@ -3797,25 +4221,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
@@ -3836,25 +4260,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
@@ -3875,25 +4299,25 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
@@ -3914,25 +4338,25 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
@@ -3953,25 +4377,25 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1</v>
@@ -3992,25 +4416,25 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>0</v>
@@ -4031,25 +4455,25 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1</v>
@@ -4070,25 +4494,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
@@ -4109,25 +4533,25 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
@@ -4148,25 +4572,25 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>0</v>
@@ -4187,25 +4611,25 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
@@ -4226,25 +4650,25 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0</v>
@@ -4265,25 +4689,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
@@ -4304,25 +4728,25 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="B46" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="G46" s="0" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0</v>
@@ -4343,25 +4767,25 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
@@ -4382,25 +4806,25 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
@@ -4421,25 +4845,25 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
@@ -4460,25 +4884,25 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
@@ -4499,25 +4923,25 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>1</v>
@@ -4538,25 +4962,25 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>111</v>
-      </c>
       <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1</v>
@@ -4577,25 +5001,25 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1</v>
@@ -4616,25 +5040,25 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="D54" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>0</v>
@@ -4655,25 +5079,25 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>0</v>
@@ -4694,25 +5118,25 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>0</v>
@@ -4733,25 +5157,25 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
@@ -4772,25 +5196,25 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0</v>
@@ -4811,25 +5235,25 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>0</v>
@@ -4850,25 +5274,25 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>0</v>
@@ -4889,25 +5313,25 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>0</v>
@@ -4928,25 +5352,25 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0</v>
@@ -4967,25 +5391,25 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>0</v>
@@ -5006,25 +5430,25 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>0</v>
@@ -5045,25 +5469,25 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>0</v>
@@ -5084,25 +5508,25 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>0</v>
@@ -5123,25 +5547,25 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>0</v>
@@ -5162,25 +5586,25 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>0</v>
@@ -5201,25 +5625,25 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>0</v>
@@ -5240,25 +5664,25 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>0</v>
@@ -5279,25 +5703,25 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>0</v>
@@ -5318,25 +5742,25 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>0</v>
@@ -5357,25 +5781,25 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>0</v>
@@ -5396,25 +5820,25 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>0</v>
@@ -5435,25 +5859,25 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>1</v>
@@ -5474,25 +5898,25 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>1</v>
@@ -5513,25 +5937,25 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>1</v>
@@ -5552,25 +5976,25 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>1</v>
@@ -5591,25 +6015,25 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>1</v>
@@ -5630,25 +6054,25 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>1</v>
@@ -5669,25 +6093,25 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>1</v>
@@ -5708,25 +6132,25 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>1</v>
@@ -5747,25 +6171,25 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>1</v>
@@ -5786,25 +6210,25 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>1</v>
@@ -5825,25 +6249,25 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>1</v>
@@ -5864,25 +6288,25 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>1</v>
@@ -5903,25 +6327,25 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>1</v>
@@ -5942,25 +6366,25 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>1</v>
@@ -5981,25 +6405,25 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>1</v>
@@ -6020,25 +6444,25 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>1</v>
@@ -6059,25 +6483,25 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>1</v>
@@ -6098,25 +6522,25 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>1</v>
@@ -6137,25 +6561,25 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>1</v>
@@ -6176,25 +6600,25 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>0</v>
@@ -6215,25 +6639,25 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D95" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>202</v>
-      </c>
       <c r="E95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>0</v>
@@ -6254,25 +6678,25 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>0</v>
@@ -6293,25 +6717,25 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>1</v>
@@ -6332,25 +6756,25 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>1</v>
@@ -6371,25 +6795,25 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>1</v>
@@ -6410,25 +6834,25 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>1</v>
@@ -6449,25 +6873,25 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>1</v>
@@ -6488,25 +6912,25 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>1</v>
@@ -6527,25 +6951,25 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>0</v>
@@ -6566,25 +6990,25 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>0</v>
@@ -6605,25 +7029,25 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>0</v>
@@ -6644,25 +7068,25 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>1</v>
@@ -6683,25 +7107,25 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>1</v>
@@ -6722,25 +7146,25 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>1</v>
@@ -6761,25 +7185,25 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I109" s="0" t="n">
         <v>0</v>
@@ -6797,25 +7221,25 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I110" s="0" t="n">
         <v>0</v>
@@ -6833,25 +7257,25 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I111" s="0" t="n">
         <v>0</v>
@@ -6869,25 +7293,25 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I112" s="0" t="n">
         <v>0</v>
@@ -6905,25 +7329,25 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I113" s="0" t="n">
         <v>0</v>
@@ -6941,25 +7365,25 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I114" s="0" t="n">
         <v>3</v>
@@ -6977,25 +7401,25 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I115" s="0" t="n">
         <v>0</v>
@@ -7013,25 +7437,25 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I116" s="0" t="n">
         <v>0</v>
@@ -7049,25 +7473,25 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I117" s="0" t="n">
         <v>0</v>
@@ -7085,25 +7509,25 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="I118" s="0" t="n">
         <v>0</v>
@@ -7121,25 +7545,25 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I119" s="0" t="n">
         <v>0</v>
@@ -7157,25 +7581,25 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="I120" s="0" t="n">
         <v>0</v>
@@ -7193,25 +7617,25 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="I121" s="0" t="n">
         <v>1</v>
@@ -7229,25 +7653,25 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="I122" s="0" t="n">
         <v>1</v>
@@ -7265,25 +7689,25 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="I123" s="0" t="n">
         <v>1</v>
@@ -7301,25 +7725,25 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="I124" s="0" t="n">
         <v>1</v>
@@ -7337,25 +7761,25 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="I125" s="0" t="n">
         <v>1</v>
@@ -7373,25 +7797,25 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="I126" s="0" t="n">
         <v>1</v>
@@ -7409,25 +7833,25 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="I127" s="0" t="n">
         <v>1</v>
@@ -7445,25 +7869,25 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="I128" s="0" t="n">
         <v>1</v>
@@ -7481,25 +7905,25 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="I129" s="0" t="n">
         <v>2</v>
@@ -7517,25 +7941,25 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="I130" s="0" t="n">
         <v>3</v>
@@ -7553,25 +7977,25 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="I131" s="0" t="n">
         <v>1</v>
@@ -7589,25 +8013,25 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I132" s="0" t="n">
         <v>0</v>
@@ -7625,25 +8049,25 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I133" s="0" t="n">
         <v>0</v>
@@ -7661,25 +8085,25 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I134" s="0" t="n">
         <v>0</v>
@@ -7697,25 +8121,25 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I135" s="0" t="n">
         <v>0</v>
@@ -7733,25 +8157,25 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I136" s="0" t="n">
         <v>0</v>
@@ -7769,25 +8193,25 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I137" s="0" t="n">
         <v>0</v>
@@ -7805,25 +8229,25 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I138" s="0" t="n">
         <v>0</v>
@@ -7841,25 +8265,25 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I139" s="0" t="n">
         <v>0</v>
@@ -7877,25 +8301,25 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I140" s="0" t="n">
         <v>0</v>
@@ -7913,25 +8337,25 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I141" s="0" t="n">
         <v>0</v>
@@ -7949,25 +8373,25 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I142" s="0" t="n">
         <v>0</v>
@@ -7985,25 +8409,25 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I143" s="0" t="n">
         <v>0</v>
@@ -8021,25 +8445,25 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I144" s="0" t="n">
         <v>0</v>
@@ -8057,25 +8481,25 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I145" s="0" t="n">
         <v>0</v>
@@ -8093,25 +8517,25 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I146" s="0" t="n">
         <v>0</v>
@@ -8129,25 +8553,25 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I147" s="0" t="n">
         <v>0</v>
@@ -8165,25 +8589,25 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I148" s="0" t="n">
         <v>0</v>
@@ -8201,25 +8625,25 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I149" s="0" t="n">
         <v>0</v>
@@ -8237,25 +8661,25 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I150" s="0" t="n">
         <v>0</v>
@@ -8273,25 +8697,25 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I151" s="0" t="n">
         <v>0</v>
@@ -8309,25 +8733,25 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C152" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="B152" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="C152" s="0" t="s">
-        <v>319</v>
-      </c>
       <c r="D152" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I152" s="0" t="n">
         <v>0</v>
@@ -8345,25 +8769,25 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I153" s="0" t="n">
         <v>0</v>
@@ -8381,25 +8805,25 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I154" s="0" t="n">
         <v>0</v>
@@ -8417,25 +8841,25 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="I155" s="0" t="n">
         <v>1</v>
@@ -8453,25 +8877,25 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="I156" s="0" t="n">
         <v>2</v>
@@ -8489,25 +8913,25 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="I157" s="0" t="n">
         <v>3</v>
@@ -8525,25 +8949,25 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="I158" s="0" t="n">
         <v>1</v>
@@ -8561,25 +8985,25 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I159" s="0" t="n">
         <v>0</v>
@@ -8597,25 +9021,25 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I160" s="0" t="n">
         <v>0</v>
@@ -8633,25 +9057,25 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I161" s="0" t="n">
         <v>0</v>
@@ -8669,25 +9093,25 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I162" s="0" t="n">
         <v>0</v>
@@ -8705,25 +9129,25 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I163" s="0" t="n">
         <v>0</v>
@@ -8741,25 +9165,25 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I164" s="0" t="n">
         <v>0</v>
@@ -8777,25 +9201,25 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I165" s="0" t="n">
         <v>0</v>
@@ -8813,25 +9237,25 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I166" s="0" t="n">
         <v>0</v>
@@ -8849,25 +9273,25 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I167" s="0" t="n">
         <v>0</v>
@@ -8885,25 +9309,25 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I168" s="0" t="n">
         <v>0</v>
@@ -8921,25 +9345,25 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I169" s="0" t="n">
         <v>0</v>
@@ -8957,25 +9381,25 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I170" s="0" t="n">
         <v>0</v>
@@ -8993,25 +9417,25 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I171" s="0" t="n">
         <v>0</v>
@@ -9029,25 +9453,25 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I172" s="0" t="n">
         <v>0</v>
@@ -9065,25 +9489,25 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>403</v>
+        <v>442</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I173" s="0" t="n">
         <v>0</v>
@@ -9101,25 +9525,25 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I174" s="0" t="n">
         <v>0</v>
@@ -9137,25 +9561,25 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I175" s="0" t="n">
         <v>0</v>
@@ -9173,25 +9597,25 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I176" s="0" t="n">
         <v>0</v>
@@ -9209,25 +9633,25 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I177" s="0" t="n">
         <v>0</v>
@@ -9245,25 +9669,25 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I178" s="0" t="n">
         <v>0</v>
@@ -9281,25 +9705,25 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I179" s="0" t="n">
         <v>0</v>
@@ -9317,25 +9741,25 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I180" s="0" t="n">
         <v>0</v>
@@ -9353,25 +9777,25 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I181" s="0" t="n">
         <v>0</v>
@@ -9389,25 +9813,25 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I182" s="0" t="n">
         <v>0</v>
@@ -9425,25 +9849,25 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I183" s="0" t="n">
         <v>0</v>
@@ -9461,25 +9885,25 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I184" s="0" t="n">
         <v>0</v>
@@ -9497,25 +9921,25 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I185" s="0" t="n">
         <v>0</v>
@@ -9533,25 +9957,25 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I186" s="0" t="n">
         <v>0</v>
@@ -9569,25 +9993,25 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I187" s="0" t="n">
         <v>0</v>
@@ -9605,25 +10029,25 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I188" s="0" t="n">
         <v>0</v>
@@ -9641,25 +10065,25 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I189" s="0" t="n">
         <v>0</v>
@@ -9677,25 +10101,25 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I190" s="0" t="n">
         <v>0</v>
@@ -9713,25 +10137,25 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I191" s="0" t="n">
         <v>0</v>
@@ -9749,25 +10173,25 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I192" s="0" t="n">
         <v>0</v>
@@ -9785,25 +10209,25 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I193" s="0" t="n">
         <v>0</v>
@@ -9821,25 +10245,25 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I194" s="0" t="n">
         <v>0</v>
@@ -9857,25 +10281,25 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I195" s="0" t="n">
         <v>0</v>
@@ -9893,25 +10317,25 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I196" s="0" t="n">
         <v>0</v>
@@ -9929,25 +10353,25 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I197" s="0" t="n">
         <v>0</v>
@@ -9965,25 +10389,25 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I198" s="0" t="n">
         <v>0</v>
@@ -10001,25 +10425,25 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I199" s="0" t="n">
         <v>0</v>
@@ -10037,25 +10461,25 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I200" s="0" t="n">
         <v>0</v>
@@ -10073,25 +10497,25 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I201" s="0" t="n">
         <v>0</v>
@@ -10109,25 +10533,25 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I202" s="0" t="n">
         <v>0</v>
@@ -10145,25 +10569,25 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I203" s="0" t="n">
         <v>0</v>
@@ -10181,25 +10605,25 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I204" s="0" t="n">
         <v>0</v>
@@ -10217,25 +10641,25 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I205" s="0" t="n">
         <v>0</v>
@@ -10253,25 +10677,25 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I206" s="0" t="n">
         <v>0</v>
@@ -10289,25 +10713,25 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I207" s="0" t="n">
         <v>0</v>
@@ -10325,25 +10749,25 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E208" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I208" s="0" t="n">
         <v>0</v>
@@ -10361,25 +10785,25 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I209" s="0" t="n">
         <v>0</v>
@@ -10397,25 +10821,25 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I210" s="0" t="n">
         <v>0</v>
@@ -10433,25 +10857,25 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I211" s="0" t="n">
         <v>0</v>
@@ -10469,25 +10893,25 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I212" s="0" t="n">
         <v>0</v>
@@ -10505,25 +10929,25 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="E213" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I213" s="0" t="n">
         <v>0</v>
@@ -10541,25 +10965,25 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="E214" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I214" s="0" t="n">
         <v>0</v>
@@ -10577,25 +11001,25 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="E215" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I215" s="0" t="n">
         <v>0</v>
@@ -10613,25 +11037,25 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="E216" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I216" s="0" t="n">
         <v>0</v>
@@ -10649,25 +11073,25 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>491</v>
+        <v>530</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="E217" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I217" s="0" t="n">
         <v>0</v>
@@ -10685,25 +11109,25 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>494</v>
+        <v>533</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="E218" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I218" s="0" t="n">
         <v>0</v>
@@ -10721,25 +11145,25 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="E219" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I219" s="0" t="n">
         <v>0</v>
@@ -10757,25 +11181,25 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="E220" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I220" s="0" t="n">
         <v>0</v>
@@ -10793,25 +11217,25 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="E221" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I221" s="0" t="n">
         <v>0</v>
@@ -10829,25 +11253,25 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="E222" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G222" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I222" s="0" t="n">
         <v>0</v>
@@ -10865,25 +11289,25 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>504</v>
+        <v>543</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>505</v>
+        <v>544</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="E223" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G223" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I223" s="0" t="n">
         <v>0</v>
@@ -10901,25 +11325,25 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="E224" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I224" s="0" t="n">
         <v>0</v>
@@ -10937,25 +11361,25 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>508</v>
+        <v>547</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>509</v>
+        <v>548</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="E225" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G225" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I225" s="0" t="n">
         <v>0</v>
@@ -10973,25 +11397,25 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>510</v>
+        <v>549</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>511</v>
+        <v>550</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="E226" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G226" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I226" s="0" t="n">
         <v>0</v>
@@ -11009,25 +11433,25 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>512</v>
+        <v>551</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="E227" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G227" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I227" s="0" t="n">
         <v>0</v>
@@ -11045,25 +11469,25 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>514</v>
+        <v>553</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E228" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>516</v>
+        <v>555</v>
       </c>
       <c r="I228" s="0" t="n">
         <v>0</v>
@@ -11081,25 +11505,25 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>518</v>
+        <v>557</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E229" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G229" s="0" t="s">
-        <v>516</v>
+        <v>555</v>
       </c>
       <c r="I229" s="0" t="n">
         <v>0</v>
@@ -11117,25 +11541,25 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>519</v>
+        <v>558</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E230" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>516</v>
+        <v>555</v>
       </c>
       <c r="I230" s="0" t="n">
         <v>0</v>
@@ -11153,25 +11577,25 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E231" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>516</v>
+        <v>555</v>
       </c>
       <c r="I231" s="0" t="n">
         <v>0</v>
@@ -11189,25 +11613,25 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>523</v>
+        <v>562</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>524</v>
+        <v>563</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E232" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>516</v>
+        <v>555</v>
       </c>
       <c r="I232" s="0" t="n">
         <v>0</v>
@@ -11225,25 +11649,25 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>525</v>
+        <v>564</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>526</v>
+        <v>565</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E233" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>526</v>
+        <v>565</v>
       </c>
       <c r="I233" s="0" t="n">
         <v>0</v>
@@ -11261,25 +11685,25 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>527</v>
+        <v>566</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>528</v>
+        <v>567</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E234" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>526</v>
+        <v>565</v>
       </c>
       <c r="I234" s="0" t="n">
         <v>0</v>
@@ -11297,25 +11721,25 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>529</v>
+        <v>568</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E235" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>526</v>
+        <v>565</v>
       </c>
       <c r="I235" s="0" t="n">
         <v>0</v>
@@ -11333,25 +11757,25 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>531</v>
+        <v>570</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>532</v>
+        <v>571</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E236" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>526</v>
+        <v>565</v>
       </c>
       <c r="I236" s="0" t="n">
         <v>0</v>
@@ -11369,25 +11793,25 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>533</v>
+        <v>572</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>534</v>
+        <v>573</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E237" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>526</v>
+        <v>565</v>
       </c>
       <c r="I237" s="0" t="n">
         <v>0</v>
@@ -11405,25 +11829,25 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>536</v>
+        <v>575</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E238" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="I238" s="0" t="n">
         <v>0</v>
@@ -11441,25 +11865,25 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>538</v>
+        <v>577</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E239" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="I239" s="0" t="n">
         <v>0</v>
@@ -11477,25 +11901,25 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E240" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="I240" s="0" t="n">
         <v>0</v>
@@ -11513,25 +11937,25 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>543</v>
+        <v>582</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E241" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="I241" s="0" t="n">
         <v>0</v>
@@ -11549,25 +11973,25 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>544</v>
+        <v>583</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E242" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I242" s="0" t="n">
         <v>0</v>
@@ -11585,25 +12009,25 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E243" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>526</v>
+        <v>565</v>
       </c>
       <c r="I243" s="0" t="n">
         <v>0</v>
@@ -11621,25 +12045,25 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>548</v>
+        <v>587</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>549</v>
+        <v>588</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E244" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c r="I244" s="0" t="n">
         <v>0</v>
@@ -11657,25 +12081,25 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>551</v>
+        <v>590</v>
       </c>
       <c r="B245" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="C245" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="C245" s="0" t="s">
-        <v>513</v>
-      </c>
       <c r="D245" s="0" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E245" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c r="I245" s="0" t="n">
         <v>0</v>
@@ -11693,25 +12117,25 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>553</v>
+        <v>592</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>554</v>
+        <v>593</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="E246" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H246" s="0" t="n">
         <v>0</v>
@@ -11732,25 +12156,25 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>556</v>
+        <v>595</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>557</v>
+        <v>596</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="E247" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H247" s="0" t="n">
         <v>0</v>
@@ -11771,25 +12195,25 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>558</v>
+        <v>597</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>559</v>
+        <v>598</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="E248" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H248" s="0" t="n">
         <v>1</v>
@@ -11810,25 +12234,25 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>560</v>
+        <v>599</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="E249" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H249" s="0" t="n">
         <v>0</v>
@@ -11849,25 +12273,25 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="E250" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H250" s="0" t="n">
         <v>0</v>
@@ -11888,25 +12312,25 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>564</v>
+        <v>603</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>565</v>
+        <v>604</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="E251" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H251" s="0" t="n">
         <v>0</v>
@@ -11927,25 +12351,25 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>566</v>
+        <v>605</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>567</v>
+        <v>606</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="E252" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G252" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H252" s="0" t="n">
         <v>0</v>
@@ -11966,25 +12390,25 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>568</v>
+        <v>607</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>569</v>
+        <v>608</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="E253" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G253" s="0" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H253" s="0" t="n">
         <v>0</v>
@@ -12027,7 +12451,7 @@
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
@@ -12041,25 +12465,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>571</v>
+        <v>610</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>572</v>
+        <v>611</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>573</v>
+        <v>612</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>574</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12113,13 +12537,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>575</v>
+        <v>614</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>576</v>
+        <v>615</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>577</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12176,16 +12600,16 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>578</v>
+        <v>617</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>579</v>
+        <v>618</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>580</v>
+        <v>619</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>581</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12244,7 +12668,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>582</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Kingdom Hearts II Final Mix.xlsx
+++ b/Kingdom Hearts II Final Mix.xlsx
@@ -14,8 +14,8 @@
     <sheet name="Stats - Terra" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$D$1:$D$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$1:$C$127</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$1:$C$127</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$D$1:$D$253</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Commands!$C$1:$C$127</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="624">
   <si>
     <t xml:space="preserve">World ID</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t xml:space="preserve">Mansion: Pod Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OldMansionOutside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Old Mansion</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -1909,6 +1915,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1930,6 +1937,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2018,7 +2026,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
@@ -2313,10 +2321,10 @@
   <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.76"/>
@@ -2352,7 +2360,7 @@
       </c>
       <c r="I1" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(G2:G1007)</f>
-        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },</v>
+        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },526: { "worldId": 2, "name": "OldMansionOutside", "display": "The Old Mansion", "areaId": 14, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,7 +2916,26 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <f aca="false">B24+C24*256</f>
-        <v>0</v>
+        <v>526</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A24,": { ""worldId"": ",C24,", ""name"": """,D24,""", ""display"": """,E24,""", ""areaId"": ",B24,", ""hideWorld"": ",F24,", },")</f>
+        <v>526: { "worldId": 2, "name": "OldMansionOutside", "display": "The Old Mansion", "areaId": 14, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,7 +2977,7 @@
       <selection pane="bottomLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.77"/>
@@ -2967,37 +2994,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3012,28 +3039,28 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
@@ -3051,25 +3078,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
@@ -3090,25 +3117,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
@@ -3129,25 +3156,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
@@ -3168,25 +3195,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
@@ -3207,25 +3234,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
@@ -3246,25 +3273,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -3285,25 +3312,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -3324,25 +3351,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -3363,25 +3390,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -3402,25 +3429,25 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -3441,25 +3468,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -3480,25 +3507,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -3519,25 +3546,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -3558,25 +3585,25 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
@@ -3597,25 +3624,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -3636,25 +3663,25 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -3675,25 +3702,25 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -3714,25 +3741,25 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -3753,25 +3780,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
@@ -3792,25 +3819,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>0</v>
@@ -3831,25 +3858,25 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0</v>
@@ -3870,25 +3897,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
@@ -3909,25 +3936,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
@@ -3948,25 +3975,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
@@ -3987,25 +4014,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
@@ -4026,25 +4053,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
@@ -4065,25 +4092,25 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0</v>
@@ -4104,25 +4131,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0</v>
@@ -4143,25 +4170,25 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
@@ -4182,25 +4209,25 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0</v>
@@ -4221,25 +4248,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
@@ -4260,25 +4287,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
@@ -4299,25 +4326,25 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
@@ -4338,25 +4365,25 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>151</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
@@ -4377,25 +4404,25 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1</v>
@@ -4416,25 +4443,25 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>157</v>
-      </c>
       <c r="D38" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>0</v>
@@ -4455,25 +4482,25 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1</v>
@@ -4494,25 +4521,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
@@ -4533,25 +4560,25 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B41" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>164</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
@@ -4572,25 +4599,25 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>0</v>
@@ -4611,25 +4638,25 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
@@ -4650,25 +4677,25 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0</v>
@@ -4689,25 +4716,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
@@ -4728,25 +4755,25 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B46" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0</v>
@@ -4767,25 +4794,25 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
@@ -4806,25 +4833,25 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
@@ -4845,25 +4872,25 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
@@ -4884,25 +4911,25 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
@@ -4923,25 +4950,25 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>1</v>
@@ -4962,25 +4989,25 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1</v>
@@ -5001,25 +5028,25 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1</v>
@@ -5040,25 +5067,25 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>0</v>
@@ -5079,25 +5106,25 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>0</v>
@@ -5118,25 +5145,25 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>0</v>
@@ -5157,25 +5184,25 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
@@ -5196,25 +5223,25 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B58" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>202</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0</v>
@@ -5235,25 +5262,25 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>0</v>
@@ -5274,25 +5301,25 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>0</v>
@@ -5313,25 +5340,25 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>0</v>
@@ -5352,25 +5379,25 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0</v>
@@ -5391,25 +5418,25 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B63" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G63" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>213</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>0</v>
@@ -5430,25 +5457,25 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>0</v>
@@ -5469,25 +5496,25 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>0</v>
@@ -5508,25 +5535,25 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>0</v>
@@ -5547,25 +5574,25 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>0</v>
@@ -5586,25 +5613,25 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>0</v>
@@ -5625,25 +5652,25 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>0</v>
@@ -5664,25 +5691,25 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>0</v>
@@ -5703,25 +5730,25 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>0</v>
@@ -5742,25 +5769,25 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>0</v>
@@ -5781,25 +5808,25 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>0</v>
@@ -5820,25 +5847,25 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>0</v>
@@ -5859,25 +5886,25 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>1</v>
@@ -5898,25 +5925,25 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B76" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>1</v>
@@ -5937,25 +5964,25 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>1</v>
@@ -5976,25 +6003,25 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>1</v>
@@ -6015,25 +6042,25 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>1</v>
@@ -6054,25 +6081,25 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>1</v>
@@ -6093,25 +6120,25 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>1</v>
@@ -6132,25 +6159,25 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>1</v>
@@ -6171,25 +6198,25 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>1</v>
@@ -6210,25 +6237,25 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>1</v>
@@ -6249,25 +6276,25 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>1</v>
@@ -6288,25 +6315,25 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>1</v>
@@ -6327,25 +6354,25 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>1</v>
@@ -6366,25 +6393,25 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>1</v>
@@ -6405,25 +6432,25 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>1</v>
@@ -6444,25 +6471,25 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>1</v>
@@ -6483,25 +6510,25 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B91" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G91" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E91" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="G91" s="0" t="s">
-        <v>269</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>1</v>
@@ -6522,25 +6549,25 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>1</v>
@@ -6561,25 +6588,25 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>1</v>
@@ -6600,25 +6627,25 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>0</v>
@@ -6639,25 +6666,25 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="D95" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G95" s="0" t="s">
         <v>281</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E95" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G95" s="0" t="s">
-        <v>279</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>0</v>
@@ -6678,25 +6705,25 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>0</v>
@@ -6717,25 +6744,25 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>1</v>
@@ -6756,25 +6783,25 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B98" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G98" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E98" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G98" s="0" t="s">
-        <v>285</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>1</v>
@@ -6795,25 +6822,25 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>1</v>
@@ -6834,25 +6861,25 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>1</v>
@@ -6873,25 +6900,25 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B101" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G101" s="0" t="s">
         <v>293</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E101" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G101" s="0" t="s">
-        <v>291</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>1</v>
@@ -6912,25 +6939,25 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>1</v>
@@ -6951,25 +6978,25 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>0</v>
@@ -6990,25 +7017,25 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>0</v>
@@ -7029,25 +7056,25 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>0</v>
@@ -7068,25 +7095,25 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>1</v>
@@ -7107,25 +7134,25 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B107" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G107" s="0" t="s">
         <v>305</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E107" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F107" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G107" s="0" t="s">
-        <v>303</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>1</v>
@@ -7146,25 +7173,25 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>1</v>
@@ -7185,25 +7212,25 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I109" s="0" t="n">
         <v>0</v>
@@ -7221,25 +7248,25 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I110" s="0" t="n">
         <v>0</v>
@@ -7257,25 +7284,25 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I111" s="0" t="n">
         <v>0</v>
@@ -7293,25 +7320,25 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I112" s="0" t="n">
         <v>0</v>
@@ -7329,25 +7356,25 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I113" s="0" t="n">
         <v>0</v>
@@ -7365,25 +7392,25 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I114" s="0" t="n">
         <v>3</v>
@@ -7401,25 +7428,25 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I115" s="0" t="n">
         <v>0</v>
@@ -7437,25 +7464,25 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I116" s="0" t="n">
         <v>0</v>
@@ -7473,25 +7500,25 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I117" s="0" t="n">
         <v>0</v>
@@ -7509,25 +7536,25 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I118" s="0" t="n">
         <v>0</v>
@@ -7545,25 +7572,25 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I119" s="0" t="n">
         <v>0</v>
@@ -7581,25 +7608,25 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I120" s="0" t="n">
         <v>0</v>
@@ -7617,25 +7644,25 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I121" s="0" t="n">
         <v>1</v>
@@ -7653,25 +7680,25 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="D122" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G122" s="0" t="s">
         <v>337</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E122" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>335</v>
       </c>
       <c r="I122" s="0" t="n">
         <v>1</v>
@@ -7689,25 +7716,25 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I123" s="0" t="n">
         <v>1</v>
@@ -7725,25 +7752,25 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I124" s="0" t="n">
         <v>1</v>
@@ -7761,25 +7788,25 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I125" s="0" t="n">
         <v>1</v>
@@ -7797,25 +7824,25 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I126" s="0" t="n">
         <v>1</v>
@@ -7833,25 +7860,25 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I127" s="0" t="n">
         <v>1</v>
@@ -7869,25 +7896,25 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I128" s="0" t="n">
         <v>1</v>
@@ -7905,25 +7932,25 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I129" s="0" t="n">
         <v>2</v>
@@ -7941,25 +7968,25 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I130" s="0" t="n">
         <v>3</v>
@@ -7977,25 +8004,25 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I131" s="0" t="n">
         <v>1</v>
@@ -8013,25 +8040,25 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I132" s="0" t="n">
         <v>0</v>
@@ -8049,25 +8076,25 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B133" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C133" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="C133" s="0" t="s">
-        <v>358</v>
-      </c>
       <c r="D133" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I133" s="0" t="n">
         <v>0</v>
@@ -8085,25 +8112,25 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I134" s="0" t="n">
         <v>0</v>
@@ -8121,25 +8148,25 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I135" s="0" t="n">
         <v>0</v>
@@ -8157,25 +8184,25 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I136" s="0" t="n">
         <v>0</v>
@@ -8193,25 +8220,25 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I137" s="0" t="n">
         <v>0</v>
@@ -8229,25 +8256,25 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I138" s="0" t="n">
         <v>0</v>
@@ -8265,25 +8292,25 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I139" s="0" t="n">
         <v>0</v>
@@ -8301,25 +8328,25 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I140" s="0" t="n">
         <v>0</v>
@@ -8337,25 +8364,25 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I141" s="0" t="n">
         <v>0</v>
@@ -8373,25 +8400,25 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I142" s="0" t="n">
         <v>0</v>
@@ -8409,25 +8436,25 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I143" s="0" t="n">
         <v>0</v>
@@ -8445,25 +8472,25 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I144" s="0" t="n">
         <v>0</v>
@@ -8481,25 +8508,25 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I145" s="0" t="n">
         <v>0</v>
@@ -8517,25 +8544,25 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I146" s="0" t="n">
         <v>0</v>
@@ -8553,25 +8580,25 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I147" s="0" t="n">
         <v>0</v>
@@ -8589,25 +8616,25 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I148" s="0" t="n">
         <v>0</v>
@@ -8625,25 +8652,25 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I149" s="0" t="n">
         <v>0</v>
@@ -8661,25 +8688,25 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I150" s="0" t="n">
         <v>0</v>
@@ -8697,25 +8724,25 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I151" s="0" t="n">
         <v>0</v>
@@ -8733,25 +8760,25 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I152" s="0" t="n">
         <v>0</v>
@@ -8769,25 +8796,25 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I153" s="0" t="n">
         <v>0</v>
@@ -8805,25 +8832,25 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I154" s="0" t="n">
         <v>0</v>
@@ -8841,25 +8868,25 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I155" s="0" t="n">
         <v>1</v>
@@ -8877,25 +8904,25 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B156" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D156" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="C156" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D156" s="0" t="s">
-        <v>405</v>
-      </c>
       <c r="E156" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I156" s="0" t="n">
         <v>2</v>
@@ -8913,25 +8940,25 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I157" s="0" t="n">
         <v>3</v>
@@ -8949,25 +8976,25 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I158" s="0" t="n">
         <v>1</v>
@@ -8985,25 +9012,25 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I159" s="0" t="n">
         <v>0</v>
@@ -9021,25 +9048,25 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I160" s="0" t="n">
         <v>0</v>
@@ -9057,25 +9084,25 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I161" s="0" t="n">
         <v>0</v>
@@ -9093,25 +9120,25 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I162" s="0" t="n">
         <v>0</v>
@@ -9129,25 +9156,25 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I163" s="0" t="n">
         <v>0</v>
@@ -9165,25 +9192,25 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I164" s="0" t="n">
         <v>0</v>
@@ -9201,25 +9228,25 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I165" s="0" t="n">
         <v>0</v>
@@ -9237,25 +9264,25 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I166" s="0" t="n">
         <v>0</v>
@@ -9273,25 +9300,25 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I167" s="0" t="n">
         <v>0</v>
@@ -9309,25 +9336,25 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I168" s="0" t="n">
         <v>0</v>
@@ -9345,25 +9372,25 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B169" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C169" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="C169" s="0" t="s">
-        <v>432</v>
-      </c>
       <c r="D169" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I169" s="0" t="n">
         <v>0</v>
@@ -9381,25 +9408,25 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I170" s="0" t="n">
         <v>0</v>
@@ -9417,25 +9444,25 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I171" s="0" t="n">
         <v>0</v>
@@ -9453,25 +9480,25 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I172" s="0" t="n">
         <v>0</v>
@@ -9489,25 +9516,25 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I173" s="0" t="n">
         <v>0</v>
@@ -9525,25 +9552,25 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B174" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C174" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="C174" s="0" t="s">
-        <v>443</v>
-      </c>
       <c r="D174" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I174" s="0" t="n">
         <v>0</v>
@@ -9561,25 +9588,25 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I175" s="0" t="n">
         <v>0</v>
@@ -9597,25 +9624,25 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I176" s="0" t="n">
         <v>0</v>
@@ -9633,25 +9660,25 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I177" s="0" t="n">
         <v>0</v>
@@ -9669,25 +9696,25 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I178" s="0" t="n">
         <v>0</v>
@@ -9705,25 +9732,25 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I179" s="0" t="n">
         <v>0</v>
@@ -9741,25 +9768,25 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I180" s="0" t="n">
         <v>0</v>
@@ -9777,25 +9804,25 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I181" s="0" t="n">
         <v>0</v>
@@ -9813,25 +9840,25 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I182" s="0" t="n">
         <v>0</v>
@@ -9849,25 +9876,25 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I183" s="0" t="n">
         <v>0</v>
@@ -9885,25 +9912,25 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I184" s="0" t="n">
         <v>0</v>
@@ -9921,25 +9948,25 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I185" s="0" t="n">
         <v>0</v>
@@ -9957,25 +9984,25 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I186" s="0" t="n">
         <v>0</v>
@@ -9993,25 +10020,25 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I187" s="0" t="n">
         <v>0</v>
@@ -10029,25 +10056,25 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I188" s="0" t="n">
         <v>0</v>
@@ -10065,25 +10092,25 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I189" s="0" t="n">
         <v>0</v>
@@ -10101,25 +10128,25 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I190" s="0" t="n">
         <v>0</v>
@@ -10137,25 +10164,25 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I191" s="0" t="n">
         <v>0</v>
@@ -10173,25 +10200,25 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I192" s="0" t="n">
         <v>0</v>
@@ -10209,25 +10236,25 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I193" s="0" t="n">
         <v>0</v>
@@ -10245,25 +10272,25 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="C194" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="B194" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="C194" s="0" t="s">
-        <v>481</v>
-      </c>
       <c r="D194" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I194" s="0" t="n">
         <v>0</v>
@@ -10281,25 +10308,25 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I195" s="0" t="n">
         <v>0</v>
@@ -10317,25 +10344,25 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I196" s="0" t="n">
         <v>0</v>
@@ -10353,25 +10380,25 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I197" s="0" t="n">
         <v>0</v>
@@ -10389,25 +10416,25 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I198" s="0" t="n">
         <v>0</v>
@@ -10425,25 +10452,25 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I199" s="0" t="n">
         <v>0</v>
@@ -10461,25 +10488,25 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I200" s="0" t="n">
         <v>0</v>
@@ -10497,25 +10524,25 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I201" s="0" t="n">
         <v>0</v>
@@ -10533,25 +10560,25 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I202" s="0" t="n">
         <v>0</v>
@@ -10569,25 +10596,25 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I203" s="0" t="n">
         <v>0</v>
@@ -10605,25 +10632,25 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I204" s="0" t="n">
         <v>0</v>
@@ -10641,25 +10668,25 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I205" s="0" t="n">
         <v>0</v>
@@ -10677,25 +10704,25 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I206" s="0" t="n">
         <v>0</v>
@@ -10713,25 +10740,25 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I207" s="0" t="n">
         <v>0</v>
@@ -10749,25 +10776,25 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E208" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I208" s="0" t="n">
         <v>0</v>
@@ -10785,25 +10812,25 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I209" s="0" t="n">
         <v>0</v>
@@ -10821,25 +10848,25 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B210" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="C210" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="C210" s="0" t="s">
-        <v>515</v>
-      </c>
       <c r="D210" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I210" s="0" t="n">
         <v>0</v>
@@ -10857,25 +10884,25 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I211" s="0" t="n">
         <v>0</v>
@@ -10893,25 +10920,25 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I212" s="0" t="n">
         <v>0</v>
@@ -10929,25 +10956,25 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E213" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I213" s="0" t="n">
         <v>0</v>
@@ -10965,25 +10992,25 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E214" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I214" s="0" t="n">
         <v>0</v>
@@ -11001,25 +11028,25 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E215" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I215" s="0" t="n">
         <v>0</v>
@@ -11037,25 +11064,25 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E216" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I216" s="0" t="n">
         <v>0</v>
@@ -11073,25 +11100,25 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E217" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I217" s="0" t="n">
         <v>0</v>
@@ -11109,25 +11136,25 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E218" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I218" s="0" t="n">
         <v>0</v>
@@ -11145,25 +11172,25 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E219" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I219" s="0" t="n">
         <v>0</v>
@@ -11181,25 +11208,25 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B220" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="C220" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="C220" s="0" t="s">
-        <v>536</v>
-      </c>
       <c r="D220" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E220" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I220" s="0" t="n">
         <v>0</v>
@@ -11217,25 +11244,25 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E221" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I221" s="0" t="n">
         <v>0</v>
@@ -11253,25 +11280,25 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E222" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G222" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I222" s="0" t="n">
         <v>0</v>
@@ -11289,25 +11316,25 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E223" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G223" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I223" s="0" t="n">
         <v>0</v>
@@ -11325,25 +11352,25 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E224" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I224" s="0" t="n">
         <v>0</v>
@@ -11361,25 +11388,25 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E225" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G225" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I225" s="0" t="n">
         <v>0</v>
@@ -11397,25 +11424,25 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E226" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G226" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I226" s="0" t="n">
         <v>0</v>
@@ -11433,25 +11460,25 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E227" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G227" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I227" s="0" t="n">
         <v>0</v>
@@ -11469,25 +11496,25 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B228" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="C228" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="C228" s="0" t="s">
-        <v>552</v>
-      </c>
       <c r="D228" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E228" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="I228" s="0" t="n">
         <v>0</v>
@@ -11505,25 +11532,25 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B229" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="E229" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G229" s="0" t="s">
         <v>557</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="D229" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="E229" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F229" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="G229" s="0" t="s">
-        <v>555</v>
       </c>
       <c r="I229" s="0" t="n">
         <v>0</v>
@@ -11541,25 +11568,25 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E230" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="I230" s="0" t="n">
         <v>0</v>
@@ -11577,25 +11604,25 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E231" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="I231" s="0" t="n">
         <v>0</v>
@@ -11613,25 +11640,25 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E232" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="I232" s="0" t="n">
         <v>0</v>
@@ -11649,25 +11676,25 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E233" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I233" s="0" t="n">
         <v>0</v>
@@ -11685,25 +11712,25 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B234" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="D234" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="E234" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F234" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G234" s="0" t="s">
         <v>567</v>
-      </c>
-      <c r="C234" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="D234" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="E234" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F234" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="G234" s="0" t="s">
-        <v>565</v>
       </c>
       <c r="I234" s="0" t="n">
         <v>0</v>
@@ -11721,25 +11748,25 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E235" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I235" s="0" t="n">
         <v>0</v>
@@ -11757,25 +11784,25 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E236" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I236" s="0" t="n">
         <v>0</v>
@@ -11793,25 +11820,25 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E237" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I237" s="0" t="n">
         <v>0</v>
@@ -11829,25 +11856,25 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E238" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="I238" s="0" t="n">
         <v>0</v>
@@ -11865,25 +11892,25 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B239" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="E239" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F239" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G239" s="0" t="s">
         <v>578</v>
-      </c>
-      <c r="C239" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="D239" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="E239" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F239" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="G239" s="0" t="s">
-        <v>576</v>
       </c>
       <c r="I239" s="0" t="n">
         <v>0</v>
@@ -11901,25 +11928,25 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E240" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="I240" s="0" t="n">
         <v>0</v>
@@ -11937,25 +11964,25 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E241" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="I241" s="0" t="n">
         <v>0</v>
@@ -11973,25 +12000,25 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E242" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I242" s="0" t="n">
         <v>0</v>
@@ -12009,25 +12036,25 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E243" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I243" s="0" t="n">
         <v>0</v>
@@ -12045,25 +12072,25 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E244" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="I244" s="0" t="n">
         <v>0</v>
@@ -12081,25 +12108,25 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B245" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="D245" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="E245" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G245" s="0" t="s">
         <v>591</v>
-      </c>
-      <c r="C245" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="D245" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="E245" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F245" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G245" s="0" t="s">
-        <v>589</v>
       </c>
       <c r="I245" s="0" t="n">
         <v>0</v>
@@ -12117,25 +12144,25 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E246" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H246" s="0" t="n">
         <v>0</v>
@@ -12156,25 +12183,25 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B247" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="C247" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="C247" s="0" t="s">
-        <v>594</v>
-      </c>
       <c r="D247" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E247" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H247" s="0" t="n">
         <v>0</v>
@@ -12195,25 +12222,25 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E248" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H248" s="0" t="n">
         <v>1</v>
@@ -12234,25 +12261,25 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E249" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H249" s="0" t="n">
         <v>0</v>
@@ -12273,25 +12300,25 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E250" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H250" s="0" t="n">
         <v>0</v>
@@ -12312,25 +12339,25 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E251" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H251" s="0" t="n">
         <v>0</v>
@@ -12351,25 +12378,25 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E252" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G252" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H252" s="0" t="n">
         <v>0</v>
@@ -12390,25 +12417,25 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E253" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G253" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H253" s="0" t="n">
         <v>0</v>
@@ -12428,7 +12455,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D253"/>
+  <autoFilter ref="A1:C127"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -12451,7 +12478,7 @@
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
@@ -12465,25 +12492,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12537,13 +12564,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12600,16 +12627,16 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12668,7 +12695,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Kingdom Hearts II Final Mix.xlsx
+++ b/Kingdom Hearts II Final Mix.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Worlds" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Locations" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Commands" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Stats - Terra" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Animations" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Commands" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Stats - Terra" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$1:$C$127</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$D$1:$D$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Commands!$C$1:$C$127</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$D$1:$D$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$1:$C$127</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Commands!$C$1:$C$127</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="638">
   <si>
     <t xml:space="preserve">World ID</t>
   </si>
@@ -228,15 +229,81 @@
     <t xml:space="preserve">Mansion: Pod Room</t>
   </si>
   <si>
-    <t xml:space="preserve">OldMansionOutside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Old Mansion</t>
+    <t xml:space="preserve">StationOfSerenity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station of Serenity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StationOfCalling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station of Calling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StationOfAwakening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station of Awakening</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
+    <t xml:space="preserve">0x0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0xfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key Counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0xfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suspended by Twilight Thorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0xff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suspended by Twilight Thorn 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunarsault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falling before Break Raid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break Raid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struggling while suspended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grabbed by Twilight Thorn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Category</t>
   </si>
   <si>
@@ -1503,49 +1570,25 @@
     <t xml:space="preserve">Thunder Roll</t>
   </si>
   <si>
-    <t xml:space="preserve">0xfd</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cartwheel</t>
   </si>
   <si>
-    <t xml:space="preserve">0xfe</t>
-  </si>
-  <si>
     <t xml:space="preserve">Firewheel</t>
   </si>
   <si>
-    <t xml:space="preserve">0xff</t>
-  </si>
-  <si>
     <t xml:space="preserve">Air Slide</t>
   </si>
   <si>
-    <t xml:space="preserve">0x100</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ice Slide</t>
   </si>
   <si>
-    <t xml:space="preserve">0x101</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reversal</t>
   </si>
   <si>
-    <t xml:space="preserve">0x102</t>
-  </si>
-  <si>
     <t xml:space="preserve">Glide</t>
   </si>
   <si>
-    <t xml:space="preserve">0x103</t>
-  </si>
-  <si>
     <t xml:space="preserve">Superglide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x104</t>
   </si>
   <si>
     <t xml:space="preserve">Fire Glide</t>
@@ -2026,7 +2069,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
@@ -2318,13 +2361,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.76"/>
@@ -2359,8 +2402,8 @@
         <v>24</v>
       </c>
       <c r="I1" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(G2:G1007)</f>
-        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },526: { "worldId": 2, "name": "OldMansionOutside", "display": "The Old Mansion", "areaId": 14, "hideWorld": 0, },</v>
+        <f aca="false">_xlfn.CONCAT(G2:G1006)</f>
+        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },544: { "worldId": 2, "name": "StationOfSerenity", "display": "Station of Serenity", "areaId": 32, "hideWorld": 1, },545: { "worldId": 2, "name": "StationOfCalling", "display": "Station of Calling", "areaId": 33, "hideWorld": 1, },546: { "worldId": 2, "name": "StationOfAwakening", "display": "Station of Awakening", "areaId": 34, "hideWorld": 1, },</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,10 +2959,10 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <f aca="false">B24+C24*256</f>
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2</v>
@@ -2931,27 +2974,137 @@
         <v>67</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A24,": { ""worldId"": ",C24,", ""name"": """,D24,""", ""display"": """,E24,""", ""areaId"": ",B24,", ""hideWorld"": ",F24,", },")</f>
-        <v>526: { "worldId": 2, "name": "OldMansionOutside", "display": "The Old Mansion", "areaId": 14, "hideWorld": 0, },</v>
+        <v>544: { "worldId": 2, "name": "StationOfSerenity", "display": "Station of Serenity", "areaId": 32, "hideWorld": 1, },</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <f aca="false">B25+C25*256</f>
-        <v>0</v>
+        <v>545</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A25,": { ""worldId"": ",C25,", ""name"": """,D25,""", ""display"": """,E25,""", ""areaId"": ",B25,", ""hideWorld"": ",F25,", },")</f>
+        <v>545: { "worldId": 2, "name": "StationOfCalling", "display": "Station of Calling", "areaId": 33, "hideWorld": 1, },</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <f aca="false">B26+C26*256</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D136" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A26,": { ""worldId"": ",C26,", ""name"": """,D26,""", ""display"": """,E26,""", ""areaId"": ",B26,", ""hideWorld"": ",F26,", },")</f>
+        <v>546: { "worldId": 2, "name": "StationOfAwakening", "display": "Station of Awakening", "areaId": 34, "hideWorld": 1, },</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <f aca="false">B27+C27*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <f aca="false">B28+C28*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <f aca="false">B29+C29*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <f aca="false">B30+C30*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <f aca="false">B31+C31*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <f aca="false">B32+C32*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <f aca="false">B33+C33*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <f aca="false">B34+C34*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <f aca="false">B35+C35*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <f aca="false">B36+C36*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <f aca="false">B37+C37*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <f aca="false">B38+C38*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D135" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2969,15 +3122,213 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(C2:C1043)</f>
+        <v>0x0: { "id": 0x0, "name": "Idle" },0xfe: { "id": 0xfe, "name": "Key Counter" },0xfd: { "id": 0xfd, "name": "Suspended by Twilight Thorn" },0xff: { "id": 0xff, "name": "Suspended by Twilight Thorn 2" },0x100: { "id": 0x100, "name": "Lunarsault" },0x101: { "id": 0x101, "name": "Falling before Break Raid" },0x102: { "id": 0x102, "name": "Break Raid" },0x103: { "id": 0x103, "name": "Struggling while suspended" },0x104: { "id": 0x104, "name": "Grabbed by Twilight Thorn" },: { "id": , "name": "" },: { "id": , "name": "" },: { "id": , "name": "" },: { "id": , "name": "" },: { "id": , "name": "" },: { "id": , "name": "" },: { "id": , "name": "" },</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A2,": { ""id"": ",A2,", ""name"": """,B2,""" },")</f>
+        <v>0x0: { "id": 0x0, "name": "Idle" },</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A3,": { ""id"": ",A3,", ""name"": """,B3,""" },")</f>
+        <v>0xfe: { "id": 0xfe, "name": "Key Counter" },</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A4,": { ""id"": ",A4,", ""name"": """,B4,""" },")</f>
+        <v>0xfd: { "id": 0xfd, "name": "Suspended by Twilight Thorn" },</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A5,": { ""id"": ",A5,", ""name"": """,B5,""" },")</f>
+        <v>0xff: { "id": 0xff, "name": "Suspended by Twilight Thorn 2" },</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A6,": { ""id"": ",A6,", ""name"": """,B6,""" },")</f>
+        <v>0x100: { "id": 0x100, "name": "Lunarsault" },</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A7,": { ""id"": ",A7,", ""name"": """,B7,""" },")</f>
+        <v>0x101: { "id": 0x101, "name": "Falling before Break Raid" },</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A8,": { ""id"": ",A8,", ""name"": """,B8,""" },")</f>
+        <v>0x102: { "id": 0x102, "name": "Break Raid" },</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A9,": { ""id"": ",A9,", ""name"": """,B9,""" },")</f>
+        <v>0x103: { "id": 0x103, "name": "Struggling while suspended" },</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A10,": { ""id"": ",A10,", ""name"": """,B10,""" },")</f>
+        <v>0x104: { "id": 0x104, "name": "Grabbed by Twilight Thorn" },</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A11,": { ""id"": ",A11,", ""name"": """,B11,""" },")</f>
+        <v>: { "id": , "name": "" },</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A12,": { ""id"": ",A12,", ""name"": """,B12,""" },")</f>
+        <v>: { "id": , "name": "" },</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A13,": { ""id"": ",A13,", ""name"": """,B13,""" },")</f>
+        <v>: { "id": , "name": "" },</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A14,": { ""id"": ",A14,", ""name"": """,B14,""" },")</f>
+        <v>: { "id": , "name": "" },</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A15,": { ""id"": ",A15,", ""name"": """,B15,""" },")</f>
+        <v>: { "id": , "name": "" },</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A16,": { ""id"": ",A16,", ""name"": """,B16,""" },")</f>
+        <v>: { "id": , "name": "" },</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A17,": { ""id"": ",A17,", ""name"": """,B17,""" },")</f>
+        <v>: { "id": , "name": "" },</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:N253"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.77"/>
@@ -2994,37 +3345,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3039,28 +3390,28 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
@@ -3078,25 +3429,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
@@ -3117,25 +3468,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
@@ -3156,25 +3507,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
@@ -3195,25 +3546,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
@@ -3234,25 +3585,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
@@ -3273,25 +3624,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -3312,25 +3663,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -3351,25 +3702,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -3390,25 +3741,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -3429,25 +3780,25 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -3468,25 +3819,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -3507,25 +3858,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -3546,25 +3897,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -3585,25 +3936,25 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
@@ -3624,25 +3975,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -3663,25 +4014,25 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -3702,25 +4053,25 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -3741,25 +4092,25 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -3780,25 +4131,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
@@ -3819,25 +4170,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>0</v>
@@ -3858,25 +4209,25 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0</v>
@@ -3897,25 +4248,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
@@ -3936,25 +4287,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
@@ -3975,25 +4326,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
@@ -4014,25 +4365,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
@@ -4053,25 +4404,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
@@ -4092,25 +4443,25 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0</v>
@@ -4131,25 +4482,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0</v>
@@ -4170,25 +4521,25 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
@@ -4209,25 +4560,25 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0</v>
@@ -4248,25 +4599,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
@@ -4287,25 +4638,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
@@ -4326,25 +4677,25 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
@@ -4365,25 +4716,25 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
@@ -4404,25 +4755,25 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1</v>
@@ -4443,25 +4794,25 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>0</v>
@@ -4482,25 +4833,25 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1</v>
@@ -4521,25 +4872,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
@@ -4560,25 +4911,25 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
@@ -4599,25 +4950,25 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>0</v>
@@ -4638,25 +4989,25 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
@@ -4677,25 +5028,25 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>152</v>
-      </c>
       <c r="E44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0</v>
@@ -4716,25 +5067,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
@@ -4755,25 +5106,25 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0</v>
@@ -4794,25 +5145,25 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="D47" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
@@ -4833,25 +5184,25 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
@@ -4872,25 +5223,25 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
@@ -4911,25 +5262,25 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
@@ -4950,25 +5301,25 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>1</v>
@@ -4989,25 +5340,25 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1</v>
@@ -5028,25 +5379,25 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1</v>
@@ -5067,25 +5418,25 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>0</v>
@@ -5106,25 +5457,25 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>0</v>
@@ -5145,25 +5496,25 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>0</v>
@@ -5184,25 +5535,25 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
@@ -5223,25 +5574,25 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0</v>
@@ -5262,25 +5613,25 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>0</v>
@@ -5301,25 +5652,25 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>0</v>
@@ -5340,25 +5691,25 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>0</v>
@@ -5379,25 +5730,25 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0</v>
@@ -5418,25 +5769,25 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>0</v>
@@ -5457,25 +5808,25 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>0</v>
@@ -5496,25 +5847,25 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>0</v>
@@ -5535,25 +5886,25 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>0</v>
@@ -5574,25 +5925,25 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>0</v>
@@ -5613,25 +5964,25 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>0</v>
@@ -5652,25 +6003,25 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>0</v>
@@ -5691,25 +6042,25 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>0</v>
@@ -5730,25 +6081,25 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>0</v>
@@ -5769,25 +6120,25 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>0</v>
@@ -5808,25 +6159,25 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>0</v>
@@ -5847,25 +6198,25 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>0</v>
@@ -5886,25 +6237,25 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>1</v>
@@ -5925,25 +6276,25 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>1</v>
@@ -5964,25 +6315,25 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>1</v>
@@ -6003,25 +6354,25 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>1</v>
@@ -6042,25 +6393,25 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>1</v>
@@ -6081,25 +6432,25 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>1</v>
@@ -6120,25 +6471,25 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>1</v>
@@ -6159,25 +6510,25 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>1</v>
@@ -6198,25 +6549,25 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>1</v>
@@ -6237,25 +6588,25 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>1</v>
@@ -6276,25 +6627,25 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>1</v>
@@ -6315,25 +6666,25 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>1</v>
@@ -6354,25 +6705,25 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="B87" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="C87" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>243</v>
-      </c>
       <c r="E87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>1</v>
@@ -6393,25 +6744,25 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>1</v>
@@ -6432,25 +6783,25 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>1</v>
@@ -6471,25 +6822,25 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>1</v>
@@ -6510,25 +6861,25 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>1</v>
@@ -6549,25 +6900,25 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>1</v>
@@ -6588,25 +6939,25 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>1</v>
@@ -6627,25 +6978,25 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>0</v>
@@ -6666,25 +7017,25 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>0</v>
@@ -6705,25 +7056,25 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>0</v>
@@ -6744,25 +7095,25 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>1</v>
@@ -6783,25 +7134,25 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>1</v>
@@ -6822,25 +7173,25 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>1</v>
@@ -6861,25 +7212,25 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>1</v>
@@ -6900,25 +7251,25 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>1</v>
@@ -6939,25 +7290,25 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>1</v>
@@ -6978,25 +7329,25 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>0</v>
@@ -7017,25 +7368,25 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>0</v>
@@ -7056,25 +7407,25 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>0</v>
@@ -7095,25 +7446,25 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>1</v>
@@ -7134,25 +7485,25 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>1</v>
@@ -7173,25 +7524,25 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>1</v>
@@ -7212,25 +7563,25 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I109" s="0" t="n">
         <v>0</v>
@@ -7248,25 +7599,25 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I110" s="0" t="n">
         <v>0</v>
@@ -7284,25 +7635,25 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I111" s="0" t="n">
         <v>0</v>
@@ -7320,25 +7671,25 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I112" s="0" t="n">
         <v>0</v>
@@ -7356,25 +7707,25 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I113" s="0" t="n">
         <v>0</v>
@@ -7392,25 +7743,25 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I114" s="0" t="n">
         <v>3</v>
@@ -7428,25 +7779,25 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I115" s="0" t="n">
         <v>0</v>
@@ -7464,25 +7815,25 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I116" s="0" t="n">
         <v>0</v>
@@ -7500,25 +7851,25 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I117" s="0" t="n">
         <v>0</v>
@@ -7536,25 +7887,25 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="I118" s="0" t="n">
         <v>0</v>
@@ -7572,25 +7923,25 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I119" s="0" t="n">
         <v>0</v>
@@ -7608,25 +7959,25 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="I120" s="0" t="n">
         <v>0</v>
@@ -7644,25 +7995,25 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="I121" s="0" t="n">
         <v>1</v>
@@ -7680,25 +8031,25 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="I122" s="0" t="n">
         <v>1</v>
@@ -7716,25 +8067,25 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="I123" s="0" t="n">
         <v>1</v>
@@ -7752,25 +8103,25 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="I124" s="0" t="n">
         <v>1</v>
@@ -7788,25 +8139,25 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="I125" s="0" t="n">
         <v>1</v>
@@ -7824,25 +8175,25 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="I126" s="0" t="n">
         <v>1</v>
@@ -7860,25 +8211,25 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="I127" s="0" t="n">
         <v>1</v>
@@ -7896,25 +8247,25 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="I128" s="0" t="n">
         <v>1</v>
@@ -7932,25 +8283,25 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="I129" s="0" t="n">
         <v>2</v>
@@ -7968,25 +8319,25 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="I130" s="0" t="n">
         <v>3</v>
@@ -8004,25 +8355,25 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="I131" s="0" t="n">
         <v>1</v>
@@ -8040,25 +8391,25 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I132" s="0" t="n">
         <v>0</v>
@@ -8076,25 +8427,25 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I133" s="0" t="n">
         <v>0</v>
@@ -8112,25 +8463,25 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I134" s="0" t="n">
         <v>0</v>
@@ -8148,25 +8499,25 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I135" s="0" t="n">
         <v>0</v>
@@ -8184,25 +8535,25 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I136" s="0" t="n">
         <v>0</v>
@@ -8220,25 +8571,25 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I137" s="0" t="n">
         <v>0</v>
@@ -8256,25 +8607,25 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I138" s="0" t="n">
         <v>0</v>
@@ -8292,25 +8643,25 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I139" s="0" t="n">
         <v>0</v>
@@ -8328,25 +8679,25 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I140" s="0" t="n">
         <v>0</v>
@@ -8364,25 +8715,25 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I141" s="0" t="n">
         <v>0</v>
@@ -8400,25 +8751,25 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I142" s="0" t="n">
         <v>0</v>
@@ -8436,25 +8787,25 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="B143" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C143" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="C143" s="0" t="s">
-        <v>360</v>
-      </c>
       <c r="D143" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I143" s="0" t="n">
         <v>0</v>
@@ -8472,25 +8823,25 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I144" s="0" t="n">
         <v>0</v>
@@ -8508,25 +8859,25 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I145" s="0" t="n">
         <v>0</v>
@@ -8544,25 +8895,25 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I146" s="0" t="n">
         <v>0</v>
@@ -8580,25 +8931,25 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I147" s="0" t="n">
         <v>0</v>
@@ -8616,25 +8967,25 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I148" s="0" t="n">
         <v>0</v>
@@ -8652,25 +9003,25 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I149" s="0" t="n">
         <v>0</v>
@@ -8688,25 +9039,25 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I150" s="0" t="n">
         <v>0</v>
@@ -8724,25 +9075,25 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I151" s="0" t="n">
         <v>0</v>
@@ -8760,25 +9111,25 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I152" s="0" t="n">
         <v>0</v>
@@ -8796,25 +9147,25 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I153" s="0" t="n">
         <v>0</v>
@@ -8832,25 +9183,25 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I154" s="0" t="n">
         <v>0</v>
@@ -8868,25 +9219,25 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="I155" s="0" t="n">
         <v>1</v>
@@ -8904,25 +9255,25 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="I156" s="0" t="n">
         <v>2</v>
@@ -8940,25 +9291,25 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="I157" s="0" t="n">
         <v>3</v>
@@ -8976,25 +9327,25 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="I158" s="0" t="n">
         <v>1</v>
@@ -9012,25 +9363,25 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I159" s="0" t="n">
         <v>0</v>
@@ -9048,25 +9399,25 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I160" s="0" t="n">
         <v>0</v>
@@ -9084,25 +9435,25 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I161" s="0" t="n">
         <v>0</v>
@@ -9120,25 +9471,25 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I162" s="0" t="n">
         <v>0</v>
@@ -9156,25 +9507,25 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I163" s="0" t="n">
         <v>0</v>
@@ -9192,25 +9543,25 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I164" s="0" t="n">
         <v>0</v>
@@ -9228,25 +9579,25 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I165" s="0" t="n">
         <v>0</v>
@@ -9264,25 +9615,25 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="B166" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D166" s="0" t="s">
         <v>429</v>
-      </c>
-      <c r="C166" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D166" s="0" t="s">
-        <v>407</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I166" s="0" t="n">
         <v>0</v>
@@ -9300,25 +9651,25 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I167" s="0" t="n">
         <v>0</v>
@@ -9336,25 +9687,25 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I168" s="0" t="n">
         <v>0</v>
@@ -9372,25 +9723,25 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I169" s="0" t="n">
         <v>0</v>
@@ -9408,25 +9759,25 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I170" s="0" t="n">
         <v>0</v>
@@ -9444,25 +9795,25 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I171" s="0" t="n">
         <v>0</v>
@@ -9480,25 +9831,25 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I172" s="0" t="n">
         <v>0</v>
@@ -9516,25 +9867,25 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I173" s="0" t="n">
         <v>0</v>
@@ -9552,25 +9903,25 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I174" s="0" t="n">
         <v>0</v>
@@ -9588,25 +9939,25 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I175" s="0" t="n">
         <v>0</v>
@@ -9624,25 +9975,25 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I176" s="0" t="n">
         <v>0</v>
@@ -9660,25 +10011,25 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I177" s="0" t="n">
         <v>0</v>
@@ -9696,25 +10047,25 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I178" s="0" t="n">
         <v>0</v>
@@ -9732,25 +10083,25 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I179" s="0" t="n">
         <v>0</v>
@@ -9768,25 +10119,25 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I180" s="0" t="n">
         <v>0</v>
@@ -9804,25 +10155,25 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I181" s="0" t="n">
         <v>0</v>
@@ -9840,25 +10191,25 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I182" s="0" t="n">
         <v>0</v>
@@ -9876,25 +10227,25 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I183" s="0" t="n">
         <v>0</v>
@@ -9912,25 +10263,25 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="B184" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="C184" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="C184" s="0" t="s">
-        <v>445</v>
-      </c>
       <c r="D184" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I184" s="0" t="n">
         <v>0</v>
@@ -9948,25 +10299,25 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I185" s="0" t="n">
         <v>0</v>
@@ -9984,25 +10335,25 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I186" s="0" t="n">
         <v>0</v>
@@ -10020,25 +10371,25 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I187" s="0" t="n">
         <v>0</v>
@@ -10056,25 +10407,25 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I188" s="0" t="n">
         <v>0</v>
@@ -10092,25 +10443,25 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I189" s="0" t="n">
         <v>0</v>
@@ -10128,25 +10479,25 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I190" s="0" t="n">
         <v>0</v>
@@ -10164,25 +10515,25 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I191" s="0" t="n">
         <v>0</v>
@@ -10200,25 +10551,25 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I192" s="0" t="n">
         <v>0</v>
@@ -10236,25 +10587,25 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I193" s="0" t="n">
         <v>0</v>
@@ -10272,25 +10623,25 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I194" s="0" t="n">
         <v>0</v>
@@ -10308,25 +10659,25 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I195" s="0" t="n">
         <v>0</v>
@@ -10344,25 +10695,25 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I196" s="0" t="n">
         <v>0</v>
@@ -10380,25 +10731,25 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>491</v>
+        <v>77</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I197" s="0" t="n">
         <v>0</v>
@@ -10416,25 +10767,25 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>493</v>
+        <v>75</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I198" s="0" t="n">
         <v>0</v>
@@ -10452,25 +10803,25 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I199" s="0" t="n">
         <v>0</v>
@@ -10488,25 +10839,25 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>497</v>
+        <v>81</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I200" s="0" t="n">
         <v>0</v>
@@ -10524,25 +10875,25 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>499</v>
+        <v>83</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I201" s="0" t="n">
         <v>0</v>
@@ -10560,25 +10911,25 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>501</v>
+        <v>85</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I202" s="0" t="n">
         <v>0</v>
@@ -10596,25 +10947,25 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>503</v>
+        <v>87</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I203" s="0" t="n">
         <v>0</v>
@@ -10632,25 +10983,25 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="C204" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="B204" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="C204" s="0" t="s">
-        <v>483</v>
-      </c>
       <c r="D204" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I204" s="0" t="n">
         <v>0</v>
@@ -10668,25 +11019,25 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I205" s="0" t="n">
         <v>0</v>
@@ -10704,25 +11055,25 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I206" s="0" t="n">
         <v>0</v>
@@ -10740,25 +11091,25 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I207" s="0" t="n">
         <v>0</v>
@@ -10776,25 +11127,25 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="E208" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I208" s="0" t="n">
         <v>0</v>
@@ -10812,25 +11163,25 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I209" s="0" t="n">
         <v>0</v>
@@ -10848,25 +11199,25 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I210" s="0" t="n">
         <v>0</v>
@@ -10884,25 +11235,25 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I211" s="0" t="n">
         <v>0</v>
@@ -10920,25 +11271,25 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I212" s="0" t="n">
         <v>0</v>
@@ -10956,25 +11307,25 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="E213" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I213" s="0" t="n">
         <v>0</v>
@@ -10992,25 +11343,25 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="E214" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I214" s="0" t="n">
         <v>0</v>
@@ -11028,25 +11379,25 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="E215" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I215" s="0" t="n">
         <v>0</v>
@@ -11064,25 +11415,25 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="B216" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="C216" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="C216" s="0" t="s">
-        <v>517</v>
-      </c>
       <c r="D216" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="E216" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I216" s="0" t="n">
         <v>0</v>
@@ -11100,25 +11451,25 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="E217" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I217" s="0" t="n">
         <v>0</v>
@@ -11136,25 +11487,25 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="E218" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I218" s="0" t="n">
         <v>0</v>
@@ -11172,25 +11523,25 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="E219" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I219" s="0" t="n">
         <v>0</v>
@@ -11208,25 +11559,25 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="E220" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I220" s="0" t="n">
         <v>0</v>
@@ -11244,25 +11595,25 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="E221" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I221" s="0" t="n">
         <v>0</v>
@@ -11280,25 +11631,25 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="E222" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G222" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I222" s="0" t="n">
         <v>0</v>
@@ -11316,25 +11667,25 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="E223" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G223" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I223" s="0" t="n">
         <v>0</v>
@@ -11352,25 +11703,25 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="E224" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I224" s="0" t="n">
         <v>0</v>
@@ -11388,25 +11739,25 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="E225" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G225" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I225" s="0" t="n">
         <v>0</v>
@@ -11424,25 +11775,25 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="B226" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="C226" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="C226" s="0" t="s">
-        <v>538</v>
-      </c>
       <c r="D226" s="0" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="E226" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G226" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I226" s="0" t="n">
         <v>0</v>
@@ -11460,25 +11811,25 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="E227" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G227" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I227" s="0" t="n">
         <v>0</v>
@@ -11496,25 +11847,25 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E228" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="I228" s="0" t="n">
         <v>0</v>
@@ -11532,25 +11883,25 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E229" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G229" s="0" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="I229" s="0" t="n">
         <v>0</v>
@@ -11568,25 +11919,25 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E230" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="I230" s="0" t="n">
         <v>0</v>
@@ -11604,25 +11955,25 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E231" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="I231" s="0" t="n">
         <v>0</v>
@@ -11640,25 +11991,25 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E232" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="I232" s="0" t="n">
         <v>0</v>
@@ -11676,25 +12027,25 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E233" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="I233" s="0" t="n">
         <v>0</v>
@@ -11712,25 +12063,25 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="C234" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="B234" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="C234" s="0" t="s">
-        <v>554</v>
-      </c>
       <c r="D234" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E234" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="I234" s="0" t="n">
         <v>0</v>
@@ -11748,25 +12099,25 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E235" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="I235" s="0" t="n">
         <v>0</v>
@@ -11784,25 +12135,25 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E236" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="I236" s="0" t="n">
         <v>0</v>
@@ -11820,25 +12171,25 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E237" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="I237" s="0" t="n">
         <v>0</v>
@@ -11856,25 +12207,25 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E238" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="I238" s="0" t="n">
         <v>0</v>
@@ -11892,25 +12243,25 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E239" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="I239" s="0" t="n">
         <v>0</v>
@@ -11928,25 +12279,25 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E240" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="I240" s="0" t="n">
         <v>0</v>
@@ -11964,25 +12315,25 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E241" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="I241" s="0" t="n">
         <v>0</v>
@@ -12000,25 +12351,25 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E242" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I242" s="0" t="n">
         <v>0</v>
@@ -12036,25 +12387,25 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E243" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="I243" s="0" t="n">
         <v>0</v>
@@ -12072,25 +12423,25 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E244" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="I244" s="0" t="n">
         <v>0</v>
@@ -12108,25 +12459,25 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E245" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="I245" s="0" t="n">
         <v>0</v>
@@ -12144,25 +12495,25 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="E246" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H246" s="0" t="n">
         <v>0</v>
@@ -12183,25 +12534,25 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="E247" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H247" s="0" t="n">
         <v>0</v>
@@ -12222,25 +12573,25 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="E248" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H248" s="0" t="n">
         <v>1</v>
@@ -12261,25 +12612,25 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="E249" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H249" s="0" t="n">
         <v>0</v>
@@ -12300,25 +12651,25 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="E250" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H250" s="0" t="n">
         <v>0</v>
@@ -12339,25 +12690,25 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="E251" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H251" s="0" t="n">
         <v>0</v>
@@ -12378,25 +12729,25 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="E252" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G252" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H252" s="0" t="n">
         <v>0</v>
@@ -12417,25 +12768,25 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="B253" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="C253" s="0" t="s">
         <v>610</v>
       </c>
-      <c r="C253" s="0" t="s">
-        <v>596</v>
-      </c>
       <c r="D253" s="0" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="E253" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G253" s="0" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H253" s="0" t="n">
         <v>0</v>
@@ -12455,7 +12806,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C127"/>
+  <autoFilter ref="D1:D253"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -12467,7 +12818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -12478,7 +12829,7 @@
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
@@ -12492,25 +12843,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12564,13 +12915,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12627,16 +12978,16 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12695,7 +13046,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Kingdom Hearts II Final Mix.xlsx
+++ b/Kingdom Hearts II Final Mix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Worlds" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="680">
   <si>
     <t xml:space="preserve">World ID</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Agrabah</t>
   </si>
   <si>
-    <t xml:space="preserve">Land of Dragons</t>
+    <t xml:space="preserve">The Land of Dragons</t>
   </si>
   <si>
     <t xml:space="preserve">100-Acre Wood</t>
@@ -247,6 +247,126 @@
     <t xml:space="preserve">Station of Awakening</t>
   </si>
   <si>
+    <t xml:space="preserve">SandlotBattlefield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CentralStation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StarChamber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower: Star Chamber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WaywardStairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower: Wayward Stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WaywardStairs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MoonChamber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower: Moon Chamber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WaywardStairs3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SorcererLoft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower: Sorcerer’s Loft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wardrobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower: Wardrobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WorldMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VillainVale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villain’s Vale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merlin’s House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BambooGrove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamboo Grove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encampment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Village</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MountainTrail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountain Trail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VillageCave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Village Cave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RuinedVillage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImperialSquare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperial Square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PalaceGate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palace Gate</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -256,12 +376,21 @@
     <t xml:space="preserve">Idle</t>
   </si>
   <si>
+    <t xml:space="preserve">0xfc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burst Frontier</t>
+  </si>
+  <si>
     <t xml:space="preserve">0xfe</t>
   </si>
   <si>
     <t xml:space="preserve">Key Counter</t>
   </si>
   <si>
+    <t xml:space="preserve">Overtaker</t>
+  </si>
+  <si>
     <t xml:space="preserve">0xfd</t>
   </si>
   <si>
@@ -1562,9 +1691,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dodge Roll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0xfc</t>
   </si>
   <si>
     <t xml:space="preserve">Thunder Roll</t>
@@ -2066,10 +2192,10 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
@@ -2180,7 +2306,7 @@
       </c>
       <c r="C9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A9,": """,B9,""",")</f>
-        <v>8: "Land of Dragons",</v>
+        <v>8: "The Land of Dragons",</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,16 +2489,18 @@
   </sheetPr>
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="6" style="0" width="12.76"/>
   </cols>
   <sheetData>
@@ -2403,7 +2531,7 @@
       </c>
       <c r="I1" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(G2:G1006)</f>
-        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },544: { "worldId": 2, "name": "StationOfSerenity", "display": "Station of Serenity", "areaId": 32, "hideWorld": 1, },545: { "worldId": 2, "name": "StationOfCalling", "display": "Station of Calling", "areaId": 33, "hideWorld": 1, },546: { "worldId": 2, "name": "StationOfAwakening", "display": "Station of Awakening", "areaId": 34, "hideWorld": 1, },</v>
+        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },544: { "worldId": 2, "name": "StationOfSerenity", "display": "Station of Serenity", "areaId": 32, "hideWorld": 1, },545: { "worldId": 2, "name": "StationOfCalling", "display": "Station of Calling", "areaId": 33, "hideWorld": 1, },546: { "worldId": 2, "name": "StationOfAwakening", "display": "Station of Awakening", "areaId": 34, "hideWorld": 1, },517: { "worldId": 2, "name": "SandlotBattlefield", "display": "Sandlot", "areaId": 5, "hideWorld": 0, },521: { "worldId": 2, "name": "CentralStation", "display": "Central Station", "areaId": 9, "hideWorld": 0, },537: { "worldId": 2, "name": "Tower", "display": "The Tower", "areaId": 25, "hideWorld": 1, },541: { "worldId": 2, "name": "StarChamber", "display": "Tower: Star Chamber", "areaId": 29, "hideWorld": 1, },543: { "worldId": 2, "name": "WaywardStairs", "display": "Tower: Wayward Stairs", "areaId": 31, "hideWorld": 1, },550: { "worldId": 2, "name": "WaywardStairs2", "display": "Tower: Wayward Stairs", "areaId": 38, "hideWorld": 1, },542: { "worldId": 2, "name": "MoonChamber", "display": "Tower: Moon Chamber", "areaId": 30, "hideWorld": 1, },551: { "worldId": 2, "name": "WaywardStairs3", "display": "Tower: Wayward Stairs", "areaId": 39, "hideWorld": 1, },539: { "worldId": 2, "name": "SorcererLoft", "display": "Tower: Sorcerer’s Loft", "areaId": 27, "hideWorld": 1, },540: { "worldId": 2, "name": "Wardrobe", "display": "Tower: Wardrobe", "areaId": 28, "hideWorld": 1, },3840: { "worldId": 15, "name": "WorldMap", "display": "World Map", "areaId": 0, "hideWorld": 1, },1024: { "worldId": 4, "name": "VillainVale", "display": "Villain’s Vale", "areaId": 0, "hideWorld": 0, },1034: { "worldId": 4, "name": "Marketplace", "display": "Marketplace", "areaId": 10, "hideWorld": 0, },1033: { "worldId": 4, "name": "Borough", "display": "Borough", "areaId": 9, "hideWorld": 0, },1037: { "worldId": 4, "name": "Merlin", "display": "Merlin’s House", "areaId": 13, "hideWorld": 0, },2048: { "worldId": 8, "name": "BambooGrove", "display": "Bamboo Grove", "areaId": 0, "hideWorld": 0, },2049: { "worldId": 8, "name": "Encampment", "display": "Encampment", "areaId": 1, "hideWorld": 0, },2050: { "worldId": 8, "name": "Checkpoint", "display": "Checkpoint", "areaId": 2, "hideWorld": 0, },2052: { "worldId": 8, "name": "Village", "display": "Village", "areaId": 4, "hideWorld": 0, },2051: { "worldId": 8, "name": "MountainTrail", "display": "Mountain Trail", "areaId": 3, "hideWorld": 0, },2053: { "worldId": 8, "name": "VillageCave", "display": "Village Cave", "areaId": 5, "hideWorld": 0, },2060: { "worldId": 8, "name": "RuinedVillage", "display": "Village", "areaId": 12, "hideWorld": 0, },2054: { "worldId": 8, "name": "Ridge", "display": "Ridge", "areaId": 6, "hideWorld": 0, },2055: { "worldId": 8, "name": "Summit", "display": "Summit", "areaId": 7, "hideWorld": 0, },2056: { "worldId": 8, "name": "ImperialSquare", "display": "Imperial Square", "areaId": 8, "hideWorld": 0, },2057: { "worldId": 8, "name": "PalaceGate", "display": "Palace Gate", "areaId": 9, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3034,72 +3162,746 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <f aca="false">B27+C27*256</f>
-        <v>0</v>
+        <v>517</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A27,": { ""worldId"": ",C27,", ""name"": """,D27,""", ""display"": """,E27,""", ""areaId"": ",B27,", ""hideWorld"": ",F27,", },")</f>
+        <v>517: { "worldId": 2, "name": "SandlotBattlefield", "display": "Sandlot", "areaId": 5, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <f aca="false">B28+C28*256</f>
-        <v>0</v>
+        <v>521</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A28,": { ""worldId"": ",C28,", ""name"": """,D28,""", ""display"": """,E28,""", ""areaId"": ",B28,", ""hideWorld"": ",F28,", },")</f>
+        <v>521: { "worldId": 2, "name": "CentralStation", "display": "Central Station", "areaId": 9, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <f aca="false">B29+C29*256</f>
-        <v>0</v>
+        <v>537</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A29,": { ""worldId"": ",C29,", ""name"": """,D29,""", ""display"": """,E29,""", ""areaId"": ",B29,", ""hideWorld"": ",F29,", },")</f>
+        <v>537: { "worldId": 2, "name": "Tower", "display": "The Tower", "areaId": 25, "hideWorld": 1, },</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <f aca="false">B30+C30*256</f>
-        <v>0</v>
+        <v>541</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A30,": { ""worldId"": ",C30,", ""name"": """,D30,""", ""display"": """,E30,""", ""areaId"": ",B30,", ""hideWorld"": ",F30,", },")</f>
+        <v>541: { "worldId": 2, "name": "StarChamber", "display": "Tower: Star Chamber", "areaId": 29, "hideWorld": 1, },</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <f aca="false">B31+C31*256</f>
-        <v>0</v>
+        <v>543</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A31,": { ""worldId"": ",C31,", ""name"": """,D31,""", ""display"": """,E31,""", ""areaId"": ",B31,", ""hideWorld"": ",F31,", },")</f>
+        <v>543: { "worldId": 2, "name": "WaywardStairs", "display": "Tower: Wayward Stairs", "areaId": 31, "hideWorld": 1, },</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <f aca="false">B32+C32*256</f>
-        <v>0</v>
+        <v>550</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A32,": { ""worldId"": ",C32,", ""name"": """,D32,""", ""display"": """,E32,""", ""areaId"": ",B32,", ""hideWorld"": ",F32,", },")</f>
+        <v>550: { "worldId": 2, "name": "WaywardStairs2", "display": "Tower: Wayward Stairs", "areaId": 38, "hideWorld": 1, },</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <f aca="false">B33+C33*256</f>
-        <v>0</v>
+        <v>542</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A33,": { ""worldId"": ",C33,", ""name"": """,D33,""", ""display"": """,E33,""", ""areaId"": ",B33,", ""hideWorld"": ",F33,", },")</f>
+        <v>542: { "worldId": 2, "name": "MoonChamber", "display": "Tower: Moon Chamber", "areaId": 30, "hideWorld": 1, },</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <f aca="false">B34+C34*256</f>
-        <v>0</v>
+        <v>551</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A34,": { ""worldId"": ",C34,", ""name"": """,D34,""", ""display"": """,E34,""", ""areaId"": ",B34,", ""hideWorld"": ",F34,", },")</f>
+        <v>551: { "worldId": 2, "name": "WaywardStairs3", "display": "Tower: Wayward Stairs", "areaId": 39, "hideWorld": 1, },</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <f aca="false">B35+C35*256</f>
-        <v>0</v>
+        <v>539</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A35,": { ""worldId"": ",C35,", ""name"": """,D35,""", ""display"": """,E35,""", ""areaId"": ",B35,", ""hideWorld"": ",F35,", },")</f>
+        <v>539: { "worldId": 2, "name": "SorcererLoft", "display": "Tower: Sorcerer’s Loft", "areaId": 27, "hideWorld": 1, },</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <f aca="false">B36+C36*256</f>
-        <v>0</v>
+        <v>540</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A36,": { ""worldId"": ",C36,", ""name"": """,D36,""", ""display"": """,E36,""", ""areaId"": ",B36,", ""hideWorld"": ",F36,", },")</f>
+        <v>540: { "worldId": 2, "name": "Wardrobe", "display": "Tower: Wardrobe", "areaId": 28, "hideWorld": 1, },</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <f aca="false">B37+C37*256</f>
-        <v>0</v>
+        <v>3840</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A37,": { ""worldId"": ",C37,", ""name"": """,D37,""", ""display"": """,E37,""", ""areaId"": ",B37,", ""hideWorld"": ",F37,", },")</f>
+        <v>3840: { "worldId": 15, "name": "WorldMap", "display": "World Map", "areaId": 0, "hideWorld": 1, },</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <f aca="false">B38+C38*256</f>
+        <v>1024</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A38,": { ""worldId"": ",C38,", ""name"": """,D38,""", ""display"": """,E38,""", ""areaId"": ",B38,", ""hideWorld"": ",F38,", },")</f>
+        <v>1024: { "worldId": 4, "name": "VillainVale", "display": "Villain’s Vale", "areaId": 0, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <f aca="false">B39+C39*256</f>
+        <v>1034</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A39,": { ""worldId"": ",C39,", ""name"": """,D39,""", ""display"": """,E39,""", ""areaId"": ",B39,", ""hideWorld"": ",F39,", },")</f>
+        <v>1034: { "worldId": 4, "name": "Marketplace", "display": "Marketplace", "areaId": 10, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <f aca="false">B40+C40*256</f>
+        <v>1033</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A40,": { ""worldId"": ",C40,", ""name"": """,D40,""", ""display"": """,E40,""", ""areaId"": ",B40,", ""hideWorld"": ",F40,", },")</f>
+        <v>1033: { "worldId": 4, "name": "Borough", "display": "Borough", "areaId": 9, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <f aca="false">B41+C41*256</f>
+        <v>1037</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A41,": { ""worldId"": ",C41,", ""name"": """,D41,""", ""display"": """,E41,""", ""areaId"": ",B41,", ""hideWorld"": ",F41,", },")</f>
+        <v>1037: { "worldId": 4, "name": "Merlin", "display": "Merlin’s House", "areaId": 13, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <f aca="false">B42+C42*256</f>
+        <v>2048</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A42,": { ""worldId"": ",C42,", ""name"": """,D42,""", ""display"": """,E42,""", ""areaId"": ",B42,", ""hideWorld"": ",F42,", },")</f>
+        <v>2048: { "worldId": 8, "name": "BambooGrove", "display": "Bamboo Grove", "areaId": 0, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <f aca="false">B43+C43*256</f>
+        <v>2049</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A43,": { ""worldId"": ",C43,", ""name"": """,D43,""", ""display"": """,E43,""", ""areaId"": ",B43,", ""hideWorld"": ",F43,", },")</f>
+        <v>2049: { "worldId": 8, "name": "Encampment", "display": "Encampment", "areaId": 1, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <f aca="false">B44+C44*256</f>
+        <v>2050</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A44,": { ""worldId"": ",C44,", ""name"": """,D44,""", ""display"": """,E44,""", ""areaId"": ",B44,", ""hideWorld"": ",F44,", },")</f>
+        <v>2050: { "worldId": 8, "name": "Checkpoint", "display": "Checkpoint", "areaId": 2, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <f aca="false">B45+C45*256</f>
+        <v>2052</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A45,": { ""worldId"": ",C45,", ""name"": """,D45,""", ""display"": """,E45,""", ""areaId"": ",B45,", ""hideWorld"": ",F45,", },")</f>
+        <v>2052: { "worldId": 8, "name": "Village", "display": "Village", "areaId": 4, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <f aca="false">B46+C46*256</f>
+        <v>2051</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A46,": { ""worldId"": ",C46,", ""name"": """,D46,""", ""display"": """,E46,""", ""areaId"": ",B46,", ""hideWorld"": ",F46,", },")</f>
+        <v>2051: { "worldId": 8, "name": "MountainTrail", "display": "Mountain Trail", "areaId": 3, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <f aca="false">B47+C47*256</f>
+        <v>2053</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A47,": { ""worldId"": ",C47,", ""name"": """,D47,""", ""display"": """,E47,""", ""areaId"": ",B47,", ""hideWorld"": ",F47,", },")</f>
+        <v>2053: { "worldId": 8, "name": "VillageCave", "display": "Village Cave", "areaId": 5, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <f aca="false">B48+C48*256</f>
+        <v>2060</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A48,": { ""worldId"": ",C48,", ""name"": """,D48,""", ""display"": """,E48,""", ""areaId"": ",B48,", ""hideWorld"": ",F48,", },")</f>
+        <v>2060: { "worldId": 8, "name": "RuinedVillage", "display": "Village", "areaId": 12, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <f aca="false">B49+C49*256</f>
+        <v>2054</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A49,": { ""worldId"": ",C49,", ""name"": """,D49,""", ""display"": """,E49,""", ""areaId"": ",B49,", ""hideWorld"": ",F49,", },")</f>
+        <v>2054: { "worldId": 8, "name": "Ridge", "display": "Ridge", "areaId": 6, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <f aca="false">B50+C50*256</f>
+        <v>2055</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A50,": { ""worldId"": ",C50,", ""name"": """,D50,""", ""display"": """,E50,""", ""areaId"": ",B50,", ""hideWorld"": ",F50,", },")</f>
+        <v>2055: { "worldId": 8, "name": "Summit", "display": "Summit", "areaId": 7, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <f aca="false">B51+C51*256</f>
+        <v>2056</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A51,": { ""worldId"": ",C51,", ""name"": """,D51,""", ""display"": """,E51,""", ""areaId"": ",B51,", ""hideWorld"": ",F51,", },")</f>
+        <v>2056: { "worldId": 8, "name": "ImperialSquare", "display": "Imperial Square", "areaId": 8, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <f aca="false">B52+C52*256</f>
+        <v>2057</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A52,": { ""worldId"": ",C52,", ""name"": """,D52,""", ""display"": """,E52,""", ""areaId"": ",B52,", ""hideWorld"": ",F52,", },")</f>
+        <v>2057: { "worldId": 8, "name": "PalaceGate", "display": "Palace Gate", "areaId": 9, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <f aca="false">B53+C53*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <f aca="false">B54+C54*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <f aca="false">B55+C55*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <f aca="false">B56+C56*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <f aca="false">B57+C57*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <f aca="false">B58+C58*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <f aca="false">B59+C59*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <f aca="false">B60+C60*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <f aca="false">B61+C61*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <f aca="false">B62+C62*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <f aca="false">B63+C63*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <f aca="false">B64+C64*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <f aca="false">B65+C65*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <f aca="false">B66+C66*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <f aca="false">B67+C67*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <f aca="false">B68+C68*256</f>
         <v>0</v>
       </c>
     </row>
@@ -3122,17 +3924,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.36"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3144,8 +3949,8 @@
         <v>24</v>
       </c>
       <c r="E1" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(C2:C1043)</f>
-        <v>0x0: { "id": 0x0, "name": "Idle" },0xfe: { "id": 0xfe, "name": "Key Counter" },0xfd: { "id": 0xfd, "name": "Suspended by Twilight Thorn" },0xff: { "id": 0xff, "name": "Suspended by Twilight Thorn 2" },0x100: { "id": 0x100, "name": "Lunarsault" },0x101: { "id": 0x101, "name": "Falling before Break Raid" },0x102: { "id": 0x102, "name": "Break Raid" },0x103: { "id": 0x103, "name": "Struggling while suspended" },0x104: { "id": 0x104, "name": "Grabbed by Twilight Thorn" },: { "id": , "name": "" },: { "id": , "name": "" },: { "id": , "name": "" },: { "id": , "name": "" },: { "id": , "name": "" },: { "id": , "name": "" },: { "id": , "name": "" },</v>
+        <f aca="false">_xlfn.CONCAT(C2:C1045)</f>
+        <v>0x0: { "id": 0x0, "name": "Idle" },0xfc: { "id": 0xfc, "name": "Burst Frontier" },0xfe: { "id": 0xfe, "name": "Key Counter" },0xfe: { "id": 0xfe, "name": "Overtaker" },0xfd: { "id": 0xfd, "name": "Suspended by Twilight Thorn" },0xff: { "id": 0xff, "name": "Suspended by Twilight Thorn 2" },0x100: { "id": 0x100, "name": "Lunarsault" },0x101: { "id": 0x101, "name": "Falling before Break Raid" },0x102: { "id": 0x102, "name": "Break Raid" },0x103: { "id": 0x103, "name": "Struggling while suspended" },0x104: { "id": 0x104, "name": "Grabbed by Twilight Thorn" },: { "id": , "name": "" },: { "id": , "name": "" },: { "id": , "name": "" },: { "id": , "name": "" },: { "id": , "name": "" },: { "id": , "name": "" },: { "id": , "name": "" },</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3156,10 +3961,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A2,": { ""id"": ",A2,", ""name"": """,B2,""" },")</f>
@@ -3168,110 +3973,122 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A3,": { ""id"": ",A3,", ""name"": """,B3,""" },")</f>
-        <v>0xfe: { "id": 0xfe, "name": "Key Counter" },</v>
+        <v>0xfc: { "id": 0xfc, "name": "Burst Frontier" },</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>78</v>
+        <v>117</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A4,": { ""id"": ",A4,", ""name"": """,B4,""" },")</f>
-        <v>0xfd: { "id": 0xfd, "name": "Suspended by Twilight Thorn" },</v>
+        <v>0xfe: { "id": 0xfe, "name": "Key Counter" },</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>80</v>
+        <v>117</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C5" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A5,": { ""id"": ",A5,", ""name"": """,B5,""" },")</f>
-        <v>0xff: { "id": 0xff, "name": "Suspended by Twilight Thorn 2" },</v>
+        <v>0xfe: { "id": 0xfe, "name": "Overtaker" },</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>120</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="C6" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A6,": { ""id"": ",A6,", ""name"": """,B6,""" },")</f>
-        <v>0x100: { "id": 0x100, "name": "Lunarsault" },</v>
+        <v>0xfd: { "id": 0xfd, "name": "Suspended by Twilight Thorn" },</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>122</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="C7" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A7,": { ""id"": ",A7,", ""name"": """,B7,""" },")</f>
-        <v>0x101: { "id": 0x101, "name": "Falling before Break Raid" },</v>
+        <v>0xff: { "id": 0xff, "name": "Suspended by Twilight Thorn 2" },</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C8" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A8,": { ""id"": ",A8,", ""name"": """,B8,""" },")</f>
-        <v>0x102: { "id": 0x102, "name": "Break Raid" },</v>
+        <v>0x100: { "id": 0x100, "name": "Lunarsault" },</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>88</v>
+        <v>126</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A9,": { ""id"": ",A9,", ""name"": """,B9,""" },")</f>
-        <v>0x103: { "id": 0x103, "name": "Struggling while suspended" },</v>
+        <v>0x101: { "id": 0x101, "name": "Falling before Break Raid" },</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>90</v>
+        <v>128</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C10" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A10,": { ""id"": ",A10,", ""name"": """,B10,""" },")</f>
-        <v>0x104: { "id": 0x104, "name": "Grabbed by Twilight Thorn" },</v>
+        <v>0x102: { "id": 0x102, "name": "Break Raid" },</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>131</v>
+      </c>
       <c r="C11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A11,": { ""id"": ",A11,", ""name"": """,B11,""" },")</f>
-        <v>: { "id": , "name": "" },</v>
+        <v>0x103: { "id": 0x103, "name": "Struggling while suspended" },</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>133</v>
+      </c>
       <c r="C12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A12,": { ""id"": ",A12,", ""name"": """,B12,""" },")</f>
-        <v>: { "id": , "name": "" },</v>
+        <v>0x104: { "id": 0x104, "name": "Grabbed by Twilight Thorn" },</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,6 +4118,18 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A17,": { ""id"": ",A17,", ""name"": """,B17,""" },")</f>
+        <v>: { "id": , "name": "" },</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A18,": { ""id"": ",A18,", ""name"": """,B18,""" },")</f>
+        <v>: { "id": , "name": "" },</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A19,": { ""id"": ",A19,", ""name"": """,B19,""" },")</f>
         <v>: { "id": , "name": "" },</v>
       </c>
     </row>
@@ -3328,7 +4157,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.77"/>
@@ -3345,37 +4174,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3390,28 +4219,28 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
@@ -3429,25 +4258,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
@@ -3468,25 +4297,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
@@ -3507,25 +4336,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
@@ -3546,25 +4375,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
@@ -3585,25 +4414,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
@@ -3624,25 +4453,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -3663,25 +4492,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -3702,25 +4531,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -3741,25 +4570,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -3780,25 +4609,25 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -3819,25 +4648,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -3858,25 +4687,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -3897,25 +4726,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -3936,25 +4765,25 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
@@ -3975,25 +4804,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -4014,25 +4843,25 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -4053,25 +4882,25 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -4092,25 +4921,25 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -4131,25 +4960,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
@@ -4170,25 +4999,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>0</v>
@@ -4209,25 +5038,25 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="D23" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0</v>
@@ -4248,25 +5077,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
@@ -4287,25 +5116,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
@@ -4326,25 +5155,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
@@ -4365,25 +5194,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
@@ -4404,25 +5233,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
@@ -4443,25 +5272,25 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0</v>
@@ -4482,25 +5311,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0</v>
@@ -4521,25 +5350,25 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
@@ -4560,25 +5389,25 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0</v>
@@ -4599,25 +5428,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
@@ -4638,25 +5467,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
@@ -4677,25 +5506,25 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
@@ -4716,25 +5545,25 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
@@ -4755,25 +5584,25 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1</v>
@@ -4794,25 +5623,25 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>0</v>
@@ -4833,25 +5662,25 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1</v>
@@ -4872,25 +5701,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
@@ -4911,25 +5740,25 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
@@ -4950,25 +5779,25 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>0</v>
@@ -4989,25 +5818,25 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
@@ -5028,25 +5857,25 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0</v>
@@ -5067,25 +5896,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
@@ -5106,25 +5935,25 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0</v>
@@ -5145,25 +5974,25 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
@@ -5184,25 +6013,25 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
@@ -5223,25 +6052,25 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
@@ -5262,25 +6091,25 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
@@ -5301,25 +6130,25 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>1</v>
@@ -5340,25 +6169,25 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1</v>
@@ -5379,25 +6208,25 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1</v>
@@ -5418,25 +6247,25 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>174</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>0</v>
@@ -5457,25 +6286,25 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="B55" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>178</v>
-      </c>
       <c r="D55" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>0</v>
@@ -5496,25 +6325,25 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>0</v>
@@ -5535,25 +6364,25 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
@@ -5574,25 +6403,25 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0</v>
@@ -5613,25 +6442,25 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>0</v>
@@ -5652,25 +6481,25 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>0</v>
@@ -5691,25 +6520,25 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>0</v>
@@ -5730,25 +6559,25 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0</v>
@@ -5769,25 +6598,25 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>0</v>
@@ -5808,25 +6637,25 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>0</v>
@@ -5847,25 +6676,25 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>0</v>
@@ -5886,25 +6715,25 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>0</v>
@@ -5925,25 +6754,25 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>0</v>
@@ -5964,25 +6793,25 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>0</v>
@@ -6003,25 +6832,25 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>0</v>
@@ -6042,25 +6871,25 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>0</v>
@@ -6081,25 +6910,25 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>0</v>
@@ -6120,25 +6949,25 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>0</v>
@@ -6159,25 +6988,25 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>0</v>
@@ -6198,25 +7027,25 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>0</v>
@@ -6237,25 +7066,25 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>1</v>
@@ -6276,25 +7105,25 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>1</v>
@@ -6315,25 +7144,25 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>1</v>
@@ -6354,25 +7183,25 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>1</v>
@@ -6393,25 +7222,25 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>1</v>
@@ -6432,25 +7261,25 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>1</v>
@@ -6471,25 +7300,25 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>1</v>
@@ -6510,25 +7339,25 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>1</v>
@@ -6549,25 +7378,25 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>1</v>
@@ -6588,25 +7417,25 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>1</v>
@@ -6627,25 +7456,25 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>1</v>
@@ -6666,25 +7495,25 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>1</v>
@@ -6705,25 +7534,25 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>1</v>
@@ -6744,25 +7573,25 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>1</v>
@@ -6783,25 +7612,25 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>1</v>
@@ -6822,25 +7651,25 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>1</v>
@@ -6861,25 +7690,25 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>1</v>
@@ -6900,25 +7729,25 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>1</v>
@@ -6939,25 +7768,25 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>1</v>
@@ -6978,25 +7807,25 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>0</v>
@@ -7017,25 +7846,25 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>0</v>
@@ -7056,25 +7885,25 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>0</v>
@@ -7095,25 +7924,25 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D97" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>265</v>
-      </c>
       <c r="E97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>1</v>
@@ -7134,25 +7963,25 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>1</v>
@@ -7173,25 +8002,25 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>1</v>
@@ -7212,25 +8041,25 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>1</v>
@@ -7251,25 +8080,25 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>1</v>
@@ -7290,25 +8119,25 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>1</v>
@@ -7329,25 +8158,25 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>0</v>
@@ -7368,25 +8197,25 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>0</v>
@@ -7407,25 +8236,25 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>0</v>
@@ -7446,25 +8275,25 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>1</v>
@@ -7485,25 +8314,25 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>1</v>
@@ -7524,25 +8353,25 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>1</v>
@@ -7563,25 +8392,25 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I109" s="0" t="n">
         <v>0</v>
@@ -7599,25 +8428,25 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I110" s="0" t="n">
         <v>0</v>
@@ -7635,25 +8464,25 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I111" s="0" t="n">
         <v>0</v>
@@ -7671,25 +8500,25 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I112" s="0" t="n">
         <v>0</v>
@@ -7707,25 +8536,25 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I113" s="0" t="n">
         <v>0</v>
@@ -7743,25 +8572,25 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I114" s="0" t="n">
         <v>3</v>
@@ -7779,25 +8608,25 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I115" s="0" t="n">
         <v>0</v>
@@ -7815,25 +8644,25 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I116" s="0" t="n">
         <v>0</v>
@@ -7851,25 +8680,25 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I117" s="0" t="n">
         <v>0</v>
@@ -7887,25 +8716,25 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="I118" s="0" t="n">
         <v>0</v>
@@ -7923,25 +8752,25 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I119" s="0" t="n">
         <v>0</v>
@@ -7959,25 +8788,25 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="I120" s="0" t="n">
         <v>0</v>
@@ -7995,25 +8824,25 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="I121" s="0" t="n">
         <v>1</v>
@@ -8031,25 +8860,25 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="I122" s="0" t="n">
         <v>1</v>
@@ -8067,25 +8896,25 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="I123" s="0" t="n">
         <v>1</v>
@@ -8103,25 +8932,25 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="I124" s="0" t="n">
         <v>1</v>
@@ -8139,25 +8968,25 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="I125" s="0" t="n">
         <v>1</v>
@@ -8175,25 +9004,25 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="I126" s="0" t="n">
         <v>1</v>
@@ -8211,25 +9040,25 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="I127" s="0" t="n">
         <v>1</v>
@@ -8247,25 +9076,25 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="I128" s="0" t="n">
         <v>1</v>
@@ -8283,25 +9112,25 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="I129" s="0" t="n">
         <v>2</v>
@@ -8319,25 +9148,25 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="I130" s="0" t="n">
         <v>3</v>
@@ -8355,25 +9184,25 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="I131" s="0" t="n">
         <v>1</v>
@@ -8391,25 +9220,25 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I132" s="0" t="n">
         <v>0</v>
@@ -8427,25 +9256,25 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I133" s="0" t="n">
         <v>0</v>
@@ -8463,25 +9292,25 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I134" s="0" t="n">
         <v>0</v>
@@ -8499,25 +9328,25 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I135" s="0" t="n">
         <v>0</v>
@@ -8535,25 +9364,25 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I136" s="0" t="n">
         <v>0</v>
@@ -8571,25 +9400,25 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I137" s="0" t="n">
         <v>0</v>
@@ -8607,25 +9436,25 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I138" s="0" t="n">
         <v>0</v>
@@ -8643,25 +9472,25 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I139" s="0" t="n">
         <v>0</v>
@@ -8679,25 +9508,25 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I140" s="0" t="n">
         <v>0</v>
@@ -8715,25 +9544,25 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I141" s="0" t="n">
         <v>0</v>
@@ -8751,25 +9580,25 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I142" s="0" t="n">
         <v>0</v>
@@ -8787,25 +9616,25 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I143" s="0" t="n">
         <v>0</v>
@@ -8823,25 +9652,25 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I144" s="0" t="n">
         <v>0</v>
@@ -8859,25 +9688,25 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I145" s="0" t="n">
         <v>0</v>
@@ -8895,25 +9724,25 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I146" s="0" t="n">
         <v>0</v>
@@ -8931,25 +9760,25 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I147" s="0" t="n">
         <v>0</v>
@@ -8967,25 +9796,25 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I148" s="0" t="n">
         <v>0</v>
@@ -9003,25 +9832,25 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I149" s="0" t="n">
         <v>0</v>
@@ -9039,25 +9868,25 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I150" s="0" t="n">
         <v>0</v>
@@ -9075,25 +9904,25 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I151" s="0" t="n">
         <v>0</v>
@@ -9111,25 +9940,25 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I152" s="0" t="n">
         <v>0</v>
@@ -9147,25 +9976,25 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I153" s="0" t="n">
         <v>0</v>
@@ -9183,25 +10012,25 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="C154" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="B154" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="C154" s="0" t="s">
-        <v>382</v>
-      </c>
       <c r="D154" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I154" s="0" t="n">
         <v>0</v>
@@ -9219,25 +10048,25 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="I155" s="0" t="n">
         <v>1</v>
@@ -9255,25 +10084,25 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="I156" s="0" t="n">
         <v>2</v>
@@ -9291,25 +10120,25 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="I157" s="0" t="n">
         <v>3</v>
@@ -9327,25 +10156,25 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="I158" s="0" t="n">
         <v>1</v>
@@ -9363,25 +10192,25 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I159" s="0" t="n">
         <v>0</v>
@@ -9399,25 +10228,25 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I160" s="0" t="n">
         <v>0</v>
@@ -9435,25 +10264,25 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I161" s="0" t="n">
         <v>0</v>
@@ -9471,25 +10300,25 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I162" s="0" t="n">
         <v>0</v>
@@ -9507,25 +10336,25 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I163" s="0" t="n">
         <v>0</v>
@@ -9543,25 +10372,25 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I164" s="0" t="n">
         <v>0</v>
@@ -9579,25 +10408,25 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I165" s="0" t="n">
         <v>0</v>
@@ -9615,25 +10444,25 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I166" s="0" t="n">
         <v>0</v>
@@ -9651,25 +10480,25 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I167" s="0" t="n">
         <v>0</v>
@@ -9687,25 +10516,25 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I168" s="0" t="n">
         <v>0</v>
@@ -9723,25 +10552,25 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I169" s="0" t="n">
         <v>0</v>
@@ -9759,25 +10588,25 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I170" s="0" t="n">
         <v>0</v>
@@ -9795,25 +10624,25 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I171" s="0" t="n">
         <v>0</v>
@@ -9831,25 +10660,25 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I172" s="0" t="n">
         <v>0</v>
@@ -9867,25 +10696,25 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I173" s="0" t="n">
         <v>0</v>
@@ -9903,25 +10732,25 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I174" s="0" t="n">
         <v>0</v>
@@ -9939,25 +10768,25 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I175" s="0" t="n">
         <v>0</v>
@@ -9975,25 +10804,25 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I176" s="0" t="n">
         <v>0</v>
@@ -10011,25 +10840,25 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>474</v>
+        <v>517</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>475</v>
+        <v>518</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I177" s="0" t="n">
         <v>0</v>
@@ -10047,25 +10876,25 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I178" s="0" t="n">
         <v>0</v>
@@ -10083,25 +10912,25 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>478</v>
+        <v>521</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I179" s="0" t="n">
         <v>0</v>
@@ -10119,25 +10948,25 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>481</v>
+        <v>524</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I180" s="0" t="n">
         <v>0</v>
@@ -10155,25 +10984,25 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>483</v>
+        <v>526</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I181" s="0" t="n">
         <v>0</v>
@@ -10191,25 +11020,25 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I182" s="0" t="n">
         <v>0</v>
@@ -10227,25 +11056,25 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>486</v>
+        <v>529</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I183" s="0" t="n">
         <v>0</v>
@@ -10263,25 +11092,25 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>488</v>
+        <v>531</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>489</v>
+        <v>532</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I184" s="0" t="n">
         <v>0</v>
@@ -10299,25 +11128,25 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I185" s="0" t="n">
         <v>0</v>
@@ -10335,25 +11164,25 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I186" s="0" t="n">
         <v>0</v>
@@ -10371,25 +11200,25 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I187" s="0" t="n">
         <v>0</v>
@@ -10407,25 +11236,25 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I188" s="0" t="n">
         <v>0</v>
@@ -10443,25 +11272,25 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>499</v>
+        <v>542</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I189" s="0" t="n">
         <v>0</v>
@@ -10479,25 +11308,25 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I190" s="0" t="n">
         <v>0</v>
@@ -10515,25 +11344,25 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>502</v>
+        <v>545</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I191" s="0" t="n">
         <v>0</v>
@@ -10551,25 +11380,25 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I192" s="0" t="n">
         <v>0</v>
@@ -10587,25 +11416,25 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I193" s="0" t="n">
         <v>0</v>
@@ -10623,25 +11452,25 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I194" s="0" t="n">
         <v>0</v>
@@ -10659,25 +11488,25 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I195" s="0" t="n">
         <v>0</v>
@@ -10695,25 +11524,25 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>511</v>
+        <v>115</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>512</v>
+        <v>554</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I196" s="0" t="n">
         <v>0</v>
@@ -10731,25 +11560,25 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>513</v>
+        <v>555</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I197" s="0" t="n">
         <v>0</v>
@@ -10767,25 +11596,25 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I198" s="0" t="n">
         <v>0</v>
@@ -10803,25 +11632,25 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>515</v>
+        <v>557</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I199" s="0" t="n">
         <v>0</v>
@@ -10839,25 +11668,25 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>516</v>
+        <v>558</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I200" s="0" t="n">
         <v>0</v>
@@ -10875,25 +11704,25 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I201" s="0" t="n">
         <v>0</v>
@@ -10911,25 +11740,25 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>518</v>
+        <v>560</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I202" s="0" t="n">
         <v>0</v>
@@ -10947,25 +11776,25 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>519</v>
+        <v>561</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I203" s="0" t="n">
         <v>0</v>
@@ -10983,25 +11812,25 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I204" s="0" t="n">
         <v>0</v>
@@ -11019,25 +11848,25 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>521</v>
+        <v>563</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>522</v>
+        <v>564</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I205" s="0" t="n">
         <v>0</v>
@@ -11055,25 +11884,25 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I206" s="0" t="n">
         <v>0</v>
@@ -11091,25 +11920,25 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>525</v>
+        <v>567</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I207" s="0" t="n">
         <v>0</v>
@@ -11127,25 +11956,25 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E208" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I208" s="0" t="n">
         <v>0</v>
@@ -11163,25 +11992,25 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>530</v>
+        <v>572</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I209" s="0" t="n">
         <v>0</v>
@@ -11199,25 +12028,25 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>532</v>
+        <v>574</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I210" s="0" t="n">
         <v>0</v>
@@ -11235,25 +12064,25 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I211" s="0" t="n">
         <v>0</v>
@@ -11271,25 +12100,25 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I212" s="0" t="n">
         <v>0</v>
@@ -11307,25 +12136,25 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="E213" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I213" s="0" t="n">
         <v>0</v>
@@ -11343,25 +12172,25 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>540</v>
+        <v>582</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>541</v>
+        <v>583</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="E214" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I214" s="0" t="n">
         <v>0</v>
@@ -11379,25 +12208,25 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>542</v>
+        <v>584</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>543</v>
+        <v>585</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="E215" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I215" s="0" t="n">
         <v>0</v>
@@ -11415,25 +12244,25 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>544</v>
+        <v>586</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>545</v>
+        <v>587</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="E216" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I216" s="0" t="n">
         <v>0</v>
@@ -11451,25 +12280,25 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>546</v>
+        <v>588</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>547</v>
+        <v>589</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="E217" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I217" s="0" t="n">
         <v>0</v>
@@ -11487,25 +12316,25 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>548</v>
+        <v>590</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>549</v>
+        <v>591</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="E218" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I218" s="0" t="n">
         <v>0</v>
@@ -11523,25 +12352,25 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>551</v>
+        <v>593</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="E219" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I219" s="0" t="n">
         <v>0</v>
@@ -11559,25 +12388,25 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>553</v>
+        <v>595</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>554</v>
+        <v>596</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="E220" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I220" s="0" t="n">
         <v>0</v>
@@ -11595,25 +12424,25 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>555</v>
+        <v>597</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>556</v>
+        <v>598</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="E221" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I221" s="0" t="n">
         <v>0</v>
@@ -11631,25 +12460,25 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>557</v>
+        <v>599</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>558</v>
+        <v>600</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="E222" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G222" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I222" s="0" t="n">
         <v>0</v>
@@ -11667,25 +12496,25 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>559</v>
+        <v>601</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>560</v>
+        <v>602</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="E223" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G223" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I223" s="0" t="n">
         <v>0</v>
@@ -11703,25 +12532,25 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>561</v>
+        <v>603</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>562</v>
+        <v>604</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="E224" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I224" s="0" t="n">
         <v>0</v>
@@ -11739,25 +12568,25 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>563</v>
+        <v>605</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>564</v>
+        <v>606</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="E225" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G225" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I225" s="0" t="n">
         <v>0</v>
@@ -11775,25 +12604,25 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>565</v>
+        <v>607</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>566</v>
+        <v>608</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="E226" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G226" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I226" s="0" t="n">
         <v>0</v>
@@ -11811,25 +12640,25 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>567</v>
+        <v>609</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="E227" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G227" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I227" s="0" t="n">
         <v>0</v>
@@ -11847,25 +12676,25 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>569</v>
+        <v>611</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>570</v>
+        <v>612</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E228" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="I228" s="0" t="n">
         <v>0</v>
@@ -11883,25 +12712,25 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>572</v>
+        <v>614</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>573</v>
+        <v>615</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E229" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G229" s="0" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="I229" s="0" t="n">
         <v>0</v>
@@ -11919,25 +12748,25 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>574</v>
+        <v>616</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>575</v>
+        <v>617</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E230" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="I230" s="0" t="n">
         <v>0</v>
@@ -11955,25 +12784,25 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>576</v>
+        <v>618</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>577</v>
+        <v>619</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E231" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="I231" s="0" t="n">
         <v>0</v>
@@ -11991,25 +12820,25 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>578</v>
+        <v>620</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>579</v>
+        <v>621</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E232" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="I232" s="0" t="n">
         <v>0</v>
@@ -12027,25 +12856,25 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>580</v>
+        <v>622</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>581</v>
+        <v>623</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E233" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>581</v>
+        <v>623</v>
       </c>
       <c r="I233" s="0" t="n">
         <v>0</v>
@@ -12063,25 +12892,25 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>582</v>
+        <v>624</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>583</v>
+        <v>625</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E234" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>581</v>
+        <v>623</v>
       </c>
       <c r="I234" s="0" t="n">
         <v>0</v>
@@ -12099,25 +12928,25 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>584</v>
+        <v>626</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>585</v>
+        <v>627</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E235" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>581</v>
+        <v>623</v>
       </c>
       <c r="I235" s="0" t="n">
         <v>0</v>
@@ -12135,25 +12964,25 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>586</v>
+        <v>628</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E236" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>581</v>
+        <v>623</v>
       </c>
       <c r="I236" s="0" t="n">
         <v>0</v>
@@ -12171,25 +13000,25 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>589</v>
+        <v>631</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E237" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>581</v>
+        <v>623</v>
       </c>
       <c r="I237" s="0" t="n">
         <v>0</v>
@@ -12207,25 +13036,25 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>590</v>
+        <v>632</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>591</v>
+        <v>633</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E238" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>592</v>
+        <v>634</v>
       </c>
       <c r="I238" s="0" t="n">
         <v>0</v>
@@ -12243,25 +13072,25 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E239" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>592</v>
+        <v>634</v>
       </c>
       <c r="I239" s="0" t="n">
         <v>0</v>
@@ -12279,25 +13108,25 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E240" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>592</v>
+        <v>634</v>
       </c>
       <c r="I240" s="0" t="n">
         <v>0</v>
@@ -12315,25 +13144,25 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>598</v>
+        <v>640</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E241" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>592</v>
+        <v>634</v>
       </c>
       <c r="I241" s="0" t="n">
         <v>0</v>
@@ -12351,25 +13180,25 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>599</v>
+        <v>641</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>600</v>
+        <v>642</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E242" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I242" s="0" t="n">
         <v>0</v>
@@ -12387,25 +13216,25 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>602</v>
+        <v>644</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E243" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>581</v>
+        <v>623</v>
       </c>
       <c r="I243" s="0" t="n">
         <v>0</v>
@@ -12423,25 +13252,25 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>603</v>
+        <v>645</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>604</v>
+        <v>646</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E244" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="I244" s="0" t="n">
         <v>0</v>
@@ -12459,25 +13288,25 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>606</v>
+        <v>648</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>607</v>
+        <v>649</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E245" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="I245" s="0" t="n">
         <v>0</v>
@@ -12495,25 +13324,25 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>608</v>
+        <v>650</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="E246" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H246" s="0" t="n">
         <v>0</v>
@@ -12534,25 +13363,25 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>611</v>
+        <v>653</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>612</v>
+        <v>654</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="E247" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H247" s="0" t="n">
         <v>0</v>
@@ -12573,25 +13402,25 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>613</v>
+        <v>655</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="E248" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H248" s="0" t="n">
         <v>1</v>
@@ -12612,25 +13441,25 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>615</v>
+        <v>657</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>616</v>
+        <v>658</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="E249" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H249" s="0" t="n">
         <v>0</v>
@@ -12651,25 +13480,25 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>617</v>
+        <v>659</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="E250" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H250" s="0" t="n">
         <v>0</v>
@@ -12690,25 +13519,25 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>620</v>
+        <v>662</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="E251" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H251" s="0" t="n">
         <v>0</v>
@@ -12729,25 +13558,25 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>621</v>
+        <v>663</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>622</v>
+        <v>664</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="E252" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G252" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H252" s="0" t="n">
         <v>0</v>
@@ -12768,25 +13597,25 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="E253" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G253" s="0" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H253" s="0" t="n">
         <v>0</v>
@@ -12829,7 +13658,7 @@
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
@@ -12843,25 +13672,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>625</v>
+        <v>667</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>626</v>
+        <v>668</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>627</v>
+        <v>669</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>629</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12915,13 +13744,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>630</v>
+        <v>672</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>631</v>
+        <v>673</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12978,16 +13807,16 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>633</v>
+        <v>675</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>634</v>
+        <v>676</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>635</v>
+        <v>677</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>636</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13046,7 +13875,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>637</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Kingdom Hearts II Final Mix.xlsx
+++ b/Kingdom Hearts II Final Mix.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Stats - Terra" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$D$1:$D$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$1:$C$127</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$1:$C$127</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$D$1:$D$253</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Commands!$C$1:$C$127</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="700">
   <si>
     <t xml:space="preserve">World ID</t>
   </si>
@@ -365,6 +365,66 @@
   </si>
   <si>
     <t xml:space="preserve">Palace Gate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntranceHall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrance Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parlor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeastCourtyard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BelleRoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belle’s Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EastWing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The East Wing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ballroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WestHall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The West Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undercroft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SecretPassage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret Passage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WestWing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The West Wing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeastRoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Beast’s Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BallroomBattle</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -2195,7 +2255,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
@@ -2490,12 +2550,12 @@
   <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
+      <selection pane="bottomLeft" activeCell="H68" activeCellId="0" sqref="H68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.76"/>
@@ -2531,7 +2591,7 @@
       </c>
       <c r="I1" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(G2:G1006)</f>
-        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },544: { "worldId": 2, "name": "StationOfSerenity", "display": "Station of Serenity", "areaId": 32, "hideWorld": 1, },545: { "worldId": 2, "name": "StationOfCalling", "display": "Station of Calling", "areaId": 33, "hideWorld": 1, },546: { "worldId": 2, "name": "StationOfAwakening", "display": "Station of Awakening", "areaId": 34, "hideWorld": 1, },517: { "worldId": 2, "name": "SandlotBattlefield", "display": "Sandlot", "areaId": 5, "hideWorld": 0, },521: { "worldId": 2, "name": "CentralStation", "display": "Central Station", "areaId": 9, "hideWorld": 0, },537: { "worldId": 2, "name": "Tower", "display": "The Tower", "areaId": 25, "hideWorld": 1, },541: { "worldId": 2, "name": "StarChamber", "display": "Tower: Star Chamber", "areaId": 29, "hideWorld": 1, },543: { "worldId": 2, "name": "WaywardStairs", "display": "Tower: Wayward Stairs", "areaId": 31, "hideWorld": 1, },550: { "worldId": 2, "name": "WaywardStairs2", "display": "Tower: Wayward Stairs", "areaId": 38, "hideWorld": 1, },542: { "worldId": 2, "name": "MoonChamber", "display": "Tower: Moon Chamber", "areaId": 30, "hideWorld": 1, },551: { "worldId": 2, "name": "WaywardStairs3", "display": "Tower: Wayward Stairs", "areaId": 39, "hideWorld": 1, },539: { "worldId": 2, "name": "SorcererLoft", "display": "Tower: Sorcerer’s Loft", "areaId": 27, "hideWorld": 1, },540: { "worldId": 2, "name": "Wardrobe", "display": "Tower: Wardrobe", "areaId": 28, "hideWorld": 1, },3840: { "worldId": 15, "name": "WorldMap", "display": "World Map", "areaId": 0, "hideWorld": 1, },1024: { "worldId": 4, "name": "VillainVale", "display": "Villain’s Vale", "areaId": 0, "hideWorld": 0, },1034: { "worldId": 4, "name": "Marketplace", "display": "Marketplace", "areaId": 10, "hideWorld": 0, },1033: { "worldId": 4, "name": "Borough", "display": "Borough", "areaId": 9, "hideWorld": 0, },1037: { "worldId": 4, "name": "Merlin", "display": "Merlin’s House", "areaId": 13, "hideWorld": 0, },2048: { "worldId": 8, "name": "BambooGrove", "display": "Bamboo Grove", "areaId": 0, "hideWorld": 0, },2049: { "worldId": 8, "name": "Encampment", "display": "Encampment", "areaId": 1, "hideWorld": 0, },2050: { "worldId": 8, "name": "Checkpoint", "display": "Checkpoint", "areaId": 2, "hideWorld": 0, },2052: { "worldId": 8, "name": "Village", "display": "Village", "areaId": 4, "hideWorld": 0, },2051: { "worldId": 8, "name": "MountainTrail", "display": "Mountain Trail", "areaId": 3, "hideWorld": 0, },2053: { "worldId": 8, "name": "VillageCave", "display": "Village Cave", "areaId": 5, "hideWorld": 0, },2060: { "worldId": 8, "name": "RuinedVillage", "display": "Village", "areaId": 12, "hideWorld": 0, },2054: { "worldId": 8, "name": "Ridge", "display": "Ridge", "areaId": 6, "hideWorld": 0, },2055: { "worldId": 8, "name": "Summit", "display": "Summit", "areaId": 7, "hideWorld": 0, },2056: { "worldId": 8, "name": "ImperialSquare", "display": "Imperial Square", "areaId": 8, "hideWorld": 0, },2057: { "worldId": 8, "name": "PalaceGate", "display": "Palace Gate", "areaId": 9, "hideWorld": 0, },</v>
+        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },544: { "worldId": 2, "name": "StationOfSerenity", "display": "Station of Serenity", "areaId": 32, "hideWorld": 1, },545: { "worldId": 2, "name": "StationOfCalling", "display": "Station of Calling", "areaId": 33, "hideWorld": 1, },546: { "worldId": 2, "name": "StationOfAwakening", "display": "Station of Awakening", "areaId": 34, "hideWorld": 1, },517: { "worldId": 2, "name": "SandlotBattlefield", "display": "Sandlot", "areaId": 5, "hideWorld": 0, },521: { "worldId": 2, "name": "CentralStation", "display": "Central Station", "areaId": 9, "hideWorld": 0, },537: { "worldId": 2, "name": "Tower", "display": "The Tower", "areaId": 25, "hideWorld": 1, },541: { "worldId": 2, "name": "StarChamber", "display": "Tower: Star Chamber", "areaId": 29, "hideWorld": 1, },543: { "worldId": 2, "name": "WaywardStairs", "display": "Tower: Wayward Stairs", "areaId": 31, "hideWorld": 1, },550: { "worldId": 2, "name": "WaywardStairs2", "display": "Tower: Wayward Stairs", "areaId": 38, "hideWorld": 1, },542: { "worldId": 2, "name": "MoonChamber", "display": "Tower: Moon Chamber", "areaId": 30, "hideWorld": 1, },551: { "worldId": 2, "name": "WaywardStairs3", "display": "Tower: Wayward Stairs", "areaId": 39, "hideWorld": 1, },539: { "worldId": 2, "name": "SorcererLoft", "display": "Tower: Sorcerer’s Loft", "areaId": 27, "hideWorld": 1, },540: { "worldId": 2, "name": "Wardrobe", "display": "Tower: Wardrobe", "areaId": 28, "hideWorld": 1, },3840: { "worldId": 15, "name": "WorldMap", "display": "World Map", "areaId": 0, "hideWorld": 1, },1024: { "worldId": 4, "name": "VillainVale", "display": "Villain’s Vale", "areaId": 0, "hideWorld": 0, },1034: { "worldId": 4, "name": "Marketplace", "display": "Marketplace", "areaId": 10, "hideWorld": 0, },1033: { "worldId": 4, "name": "Borough", "display": "Borough", "areaId": 9, "hideWorld": 0, },1037: { "worldId": 4, "name": "Merlin", "display": "Merlin’s House", "areaId": 13, "hideWorld": 0, },2048: { "worldId": 8, "name": "BambooGrove", "display": "Bamboo Grove", "areaId": 0, "hideWorld": 0, },2049: { "worldId": 8, "name": "Encampment", "display": "Encampment", "areaId": 1, "hideWorld": 0, },2050: { "worldId": 8, "name": "Checkpoint", "display": "Checkpoint", "areaId": 2, "hideWorld": 0, },2052: { "worldId": 8, "name": "Village", "display": "Village", "areaId": 4, "hideWorld": 0, },2051: { "worldId": 8, "name": "MountainTrail", "display": "Mountain Trail", "areaId": 3, "hideWorld": 0, },2053: { "worldId": 8, "name": "VillageCave", "display": "Village Cave", "areaId": 5, "hideWorld": 0, },2060: { "worldId": 8, "name": "RuinedVillage", "display": "Village", "areaId": 12, "hideWorld": 0, },2054: { "worldId": 8, "name": "Ridge", "display": "Ridge", "areaId": 6, "hideWorld": 0, },2055: { "worldId": 8, "name": "Summit", "display": "Summit", "areaId": 7, "hideWorld": 0, },2056: { "worldId": 8, "name": "ImperialSquare", "display": "Imperial Square", "areaId": 8, "hideWorld": 0, },2057: { "worldId": 8, "name": "PalaceGate", "display": "Palace Gate", "areaId": 9, "hideWorld": 0, },1280: { "worldId": 5, "name": "EntranceHall", "display": "Entrance Hall", "areaId": 0, "hideWorld": 0, },1281: { "worldId": 5, "name": "Parlor", "display": "Parlor", "areaId": 1, "hideWorld": 0, },1286: { "worldId": 5, "name": "BeastCourtyard", "display": "Courtyard", "areaId": 6, "hideWorld": 0, },1282: { "worldId": 5, "name": "BelleRoom", "display": "Belle’s Room", "areaId": 2, "hideWorld": 0, },1287: { "worldId": 5, "name": "EastWing", "display": "The East Wing", "areaId": 7, "hideWorld": 0, },1284: { "worldId": 5, "name": "Ballroom", "display": "Ballroom", "areaId": 4, "hideWorld": 0, },1288: { "worldId": 5, "name": "WestHall", "display": "The West Hall", "areaId": 8, "hideWorld": 0, },1291: { "worldId": 5, "name": "Undercroft", "display": "Undercroft", "areaId": 11, "hideWorld": 0, },1290: { "worldId": 5, "name": "Dungeon", "display": "Dungeon", "areaId": 10, "hideWorld": 0, },1292: { "worldId": 5, "name": "SecretPassage", "display": "Secret Passage", "areaId": 12, "hideWorld": 0, },1289: { "worldId": 5, "name": "WestWing", "display": "The West Wing", "areaId": 9, "hideWorld": 0, },1283: { "worldId": 5, "name": "BeastRoom", "display": "The Beast’s Room", "areaId": 3, "hideWorld": 0, },1285: { "worldId": 5, "name": "BallroomBattle", "display": "Ballroom", "areaId": 5, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,79 +3872,326 @@
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <f aca="false">B53+C53*256</f>
-        <v>0</v>
+        <v>1280</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A53,": { ""worldId"": ",C53,", ""name"": """,D53,""", ""display"": """,E53,""", ""areaId"": ",B53,", ""hideWorld"": ",F53,", },")</f>
+        <v>1280: { "worldId": 5, "name": "EntranceHall", "display": "Entrance Hall", "areaId": 0, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <f aca="false">B54+C54*256</f>
-        <v>0</v>
+        <v>1281</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A54,": { ""worldId"": ",C54,", ""name"": """,D54,""", ""display"": """,E54,""", ""areaId"": ",B54,", ""hideWorld"": ",F54,", },")</f>
+        <v>1281: { "worldId": 5, "name": "Parlor", "display": "Parlor", "areaId": 1, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <f aca="false">B55+C55*256</f>
-        <v>0</v>
+        <v>1286</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A55,": { ""worldId"": ",C55,", ""name"": """,D55,""", ""display"": """,E55,""", ""areaId"": ",B55,", ""hideWorld"": ",F55,", },")</f>
+        <v>1286: { "worldId": 5, "name": "BeastCourtyard", "display": "Courtyard", "areaId": 6, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <f aca="false">B56+C56*256</f>
-        <v>0</v>
+        <v>1282</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A56,": { ""worldId"": ",C56,", ""name"": """,D56,""", ""display"": """,E56,""", ""areaId"": ",B56,", ""hideWorld"": ",F56,", },")</f>
+        <v>1282: { "worldId": 5, "name": "BelleRoom", "display": "Belle’s Room", "areaId": 2, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <f aca="false">B57+C57*256</f>
-        <v>0</v>
+        <v>1287</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A57,": { ""worldId"": ",C57,", ""name"": """,D57,""", ""display"": """,E57,""", ""areaId"": ",B57,", ""hideWorld"": ",F57,", },")</f>
+        <v>1287: { "worldId": 5, "name": "EastWing", "display": "The East Wing", "areaId": 7, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <f aca="false">B58+C58*256</f>
-        <v>0</v>
+        <v>1284</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A58,": { ""worldId"": ",C58,", ""name"": """,D58,""", ""display"": """,E58,""", ""areaId"": ",B58,", ""hideWorld"": ",F58,", },")</f>
+        <v>1284: { "worldId": 5, "name": "Ballroom", "display": "Ballroom", "areaId": 4, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <f aca="false">B59+C59*256</f>
-        <v>0</v>
+        <v>1288</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A59,": { ""worldId"": ",C59,", ""name"": """,D59,""", ""display"": """,E59,""", ""areaId"": ",B59,", ""hideWorld"": ",F59,", },")</f>
+        <v>1288: { "worldId": 5, "name": "WestHall", "display": "The West Hall", "areaId": 8, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <f aca="false">B60+C60*256</f>
-        <v>0</v>
+        <v>1291</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A60,": { ""worldId"": ",C60,", ""name"": """,D60,""", ""display"": """,E60,""", ""areaId"": ",B60,", ""hideWorld"": ",F60,", },")</f>
+        <v>1291: { "worldId": 5, "name": "Undercroft", "display": "Undercroft", "areaId": 11, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <f aca="false">B61+C61*256</f>
-        <v>0</v>
+        <v>1290</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A61,": { ""worldId"": ",C61,", ""name"": """,D61,""", ""display"": """,E61,""", ""areaId"": ",B61,", ""hideWorld"": ",F61,", },")</f>
+        <v>1290: { "worldId": 5, "name": "Dungeon", "display": "Dungeon", "areaId": 10, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <f aca="false">B62+C62*256</f>
-        <v>0</v>
+        <v>1292</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A62,": { ""worldId"": ",C62,", ""name"": """,D62,""", ""display"": """,E62,""", ""areaId"": ",B62,", ""hideWorld"": ",F62,", },")</f>
+        <v>1292: { "worldId": 5, "name": "SecretPassage", "display": "Secret Passage", "areaId": 12, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <f aca="false">B63+C63*256</f>
-        <v>0</v>
+        <v>1289</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A63,": { ""worldId"": ",C63,", ""name"": """,D63,""", ""display"": """,E63,""", ""areaId"": ",B63,", ""hideWorld"": ",F63,", },")</f>
+        <v>1289: { "worldId": 5, "name": "WestWing", "display": "The West Wing", "areaId": 9, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <f aca="false">B64+C64*256</f>
-        <v>0</v>
+        <v>1283</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A64,": { ""worldId"": ",C64,", ""name"": """,D64,""", ""display"": """,E64,""", ""areaId"": ",B64,", ""hideWorld"": ",F64,", },")</f>
+        <v>1283: { "worldId": 5, "name": "BeastRoom", "display": "The Beast’s Room", "areaId": 3, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <f aca="false">B65+C65*256</f>
-        <v>0</v>
+        <v>1285</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A65,": { ""worldId"": ",C65,", ""name"": """,D65,""", ""display"": """,E65,""", ""areaId"": ",B65,", ""hideWorld"": ",F65,", },")</f>
+        <v>1285: { "worldId": 5, "name": "BallroomBattle", "display": "Ballroom", "areaId": 5, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3930,14 +4237,14 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3961,10 +4268,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A2,": { ""id"": ",A2,", ""name"": """,B2,""" },")</f>
@@ -3973,10 +4280,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A3,": { ""id"": ",A3,", ""name"": """,B3,""" },")</f>
@@ -3985,10 +4292,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A4,": { ""id"": ",A4,", ""name"": """,B4,""" },")</f>
@@ -3997,10 +4304,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C5" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A5,": { ""id"": ",A5,", ""name"": """,B5,""" },")</f>
@@ -4009,10 +4316,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C6" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A6,": { ""id"": ",A6,", ""name"": """,B6,""" },")</f>
@@ -4021,10 +4328,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C7" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A7,": { ""id"": ",A7,", ""name"": """,B7,""" },")</f>
@@ -4033,10 +4340,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C8" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A8,": { ""id"": ",A8,", ""name"": """,B8,""" },")</f>
@@ -4045,10 +4352,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A9,": { ""id"": ",A9,", ""name"": """,B9,""" },")</f>
@@ -4057,10 +4364,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C10" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A10,": { ""id"": ",A10,", ""name"": """,B10,""" },")</f>
@@ -4069,10 +4376,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A11,": { ""id"": ",A11,", ""name"": """,B11,""" },")</f>
@@ -4081,10 +4388,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A12,": { ""id"": ",A12,", ""name"": """,B12,""" },")</f>
@@ -4157,7 +4464,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.77"/>
@@ -4174,37 +4481,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -4219,28 +4526,28 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
@@ -4258,25 +4565,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
@@ -4297,25 +4604,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
@@ -4336,25 +4643,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
@@ -4375,25 +4682,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
@@ -4414,25 +4721,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
@@ -4453,25 +4760,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -4492,25 +4799,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -4531,25 +4838,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -4570,25 +4877,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -4609,25 +4916,25 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>147</v>
-      </c>
       <c r="D12" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -4648,25 +4955,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -4687,25 +4994,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -4726,25 +5033,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -4765,25 +5072,25 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
@@ -4804,25 +5111,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -4843,25 +5150,25 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -4882,25 +5189,25 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -4921,25 +5228,25 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -4960,25 +5267,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
@@ -4999,25 +5306,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>0</v>
@@ -5038,25 +5345,25 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0</v>
@@ -5077,25 +5384,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
@@ -5116,25 +5423,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
@@ -5155,25 +5462,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
@@ -5194,25 +5501,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
@@ -5233,25 +5540,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
@@ -5272,25 +5579,25 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0</v>
@@ -5311,25 +5618,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0</v>
@@ -5350,25 +5657,25 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
@@ -5389,25 +5696,25 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0</v>
@@ -5428,25 +5735,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
@@ -5467,25 +5774,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
@@ -5506,25 +5813,25 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
@@ -5545,25 +5852,25 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
@@ -5584,25 +5891,25 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1</v>
@@ -5623,25 +5930,25 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>0</v>
@@ -5662,25 +5969,25 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1</v>
@@ -5701,25 +6008,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
@@ -5740,25 +6047,25 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
@@ -5779,25 +6086,25 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>0</v>
@@ -5818,25 +6125,25 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>217</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
@@ -5857,25 +6164,25 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0</v>
@@ -5896,25 +6203,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
@@ -5935,25 +6242,25 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>224</v>
-      </c>
       <c r="D46" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0</v>
@@ -5974,25 +6281,25 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
@@ -6013,25 +6320,25 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
@@ -6052,25 +6359,25 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
@@ -6091,25 +6398,25 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
@@ -6130,25 +6437,25 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>1</v>
@@ -6169,25 +6476,25 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1</v>
@@ -6208,25 +6515,25 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1</v>
@@ -6247,25 +6554,25 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>0</v>
@@ -6286,25 +6593,25 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>0</v>
@@ -6325,25 +6632,25 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>0</v>
@@ -6364,25 +6671,25 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
@@ -6403,25 +6710,25 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0</v>
@@ -6442,25 +6749,25 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>0</v>
@@ -6481,25 +6788,25 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>0</v>
@@ -6520,25 +6827,25 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>0</v>
@@ -6559,25 +6866,25 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0</v>
@@ -6598,25 +6905,25 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>0</v>
@@ -6637,25 +6944,25 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>0</v>
@@ -6676,25 +6983,25 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>0</v>
@@ -6715,25 +7022,25 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>0</v>
@@ -6754,25 +7061,25 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>0</v>
@@ -6793,25 +7100,25 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>0</v>
@@ -6832,25 +7139,25 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>0</v>
@@ -6871,25 +7178,25 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>0</v>
@@ -6910,25 +7217,25 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>0</v>
@@ -6949,25 +7256,25 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>0</v>
@@ -6988,25 +7295,25 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>0</v>
@@ -7027,25 +7334,25 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>0</v>
@@ -7066,25 +7373,25 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>1</v>
@@ -7105,25 +7412,25 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>1</v>
@@ -7144,25 +7451,25 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>1</v>
@@ -7183,25 +7490,25 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>1</v>
@@ -7222,25 +7529,25 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>1</v>
@@ -7261,25 +7568,25 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>1</v>
@@ -7300,25 +7607,25 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>1</v>
@@ -7339,25 +7646,25 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>1</v>
@@ -7378,25 +7685,25 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>1</v>
@@ -7417,25 +7724,25 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>1</v>
@@ -7456,25 +7763,25 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>1</v>
@@ -7495,25 +7802,25 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D86" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>308</v>
-      </c>
       <c r="E86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>1</v>
@@ -7534,25 +7841,25 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>1</v>
@@ -7573,25 +7880,25 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>1</v>
@@ -7612,25 +7919,25 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>1</v>
@@ -7651,25 +7958,25 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>1</v>
@@ -7690,25 +7997,25 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>1</v>
@@ -7729,25 +8036,25 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>1</v>
@@ -7768,25 +8075,25 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>1</v>
@@ -7807,25 +8114,25 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>0</v>
@@ -7846,25 +8153,25 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>0</v>
@@ -7885,25 +8192,25 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>0</v>
@@ -7924,25 +8231,25 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>1</v>
@@ -7963,25 +8270,25 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>1</v>
@@ -8002,25 +8309,25 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>1</v>
@@ -8041,25 +8348,25 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>1</v>
@@ -8080,25 +8387,25 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>1</v>
@@ -8119,25 +8426,25 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>1</v>
@@ -8158,25 +8465,25 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>0</v>
@@ -8197,25 +8504,25 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>0</v>
@@ -8236,25 +8543,25 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>0</v>
@@ -8275,25 +8582,25 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>1</v>
@@ -8314,25 +8621,25 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>1</v>
@@ -8353,25 +8660,25 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>1</v>
@@ -8392,25 +8699,25 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I109" s="0" t="n">
         <v>0</v>
@@ -8428,25 +8735,25 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I110" s="0" t="n">
         <v>0</v>
@@ -8464,25 +8771,25 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I111" s="0" t="n">
         <v>0</v>
@@ -8500,25 +8807,25 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I112" s="0" t="n">
         <v>0</v>
@@ -8536,25 +8843,25 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I113" s="0" t="n">
         <v>0</v>
@@ -8572,25 +8879,25 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I114" s="0" t="n">
         <v>3</v>
@@ -8608,25 +8915,25 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I115" s="0" t="n">
         <v>0</v>
@@ -8644,25 +8951,25 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I116" s="0" t="n">
         <v>0</v>
@@ -8680,25 +8987,25 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I117" s="0" t="n">
         <v>0</v>
@@ -8716,25 +9023,25 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="I118" s="0" t="n">
         <v>0</v>
@@ -8752,25 +9059,25 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I119" s="0" t="n">
         <v>0</v>
@@ -8788,25 +9095,25 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="I120" s="0" t="n">
         <v>0</v>
@@ -8824,25 +9131,25 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="I121" s="0" t="n">
         <v>1</v>
@@ -8860,25 +9167,25 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="I122" s="0" t="n">
         <v>1</v>
@@ -8896,25 +9203,25 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="I123" s="0" t="n">
         <v>1</v>
@@ -8932,25 +9239,25 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="I124" s="0" t="n">
         <v>1</v>
@@ -8968,25 +9275,25 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="I125" s="0" t="n">
         <v>1</v>
@@ -9004,25 +9311,25 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="I126" s="0" t="n">
         <v>1</v>
@@ -9040,25 +9347,25 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="I127" s="0" t="n">
         <v>1</v>
@@ -9076,25 +9383,25 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="I128" s="0" t="n">
         <v>1</v>
@@ -9112,25 +9419,25 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="I129" s="0" t="n">
         <v>2</v>
@@ -9148,25 +9455,25 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="I130" s="0" t="n">
         <v>3</v>
@@ -9184,25 +9491,25 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C131" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="D131" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G131" s="0" t="s">
         <v>422</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="E131" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F131" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="G131" s="0" t="s">
-        <v>402</v>
       </c>
       <c r="I131" s="0" t="n">
         <v>1</v>
@@ -9220,25 +9527,25 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I132" s="0" t="n">
         <v>0</v>
@@ -9256,25 +9563,25 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I133" s="0" t="n">
         <v>0</v>
@@ -9292,25 +9599,25 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I134" s="0" t="n">
         <v>0</v>
@@ -9328,25 +9635,25 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I135" s="0" t="n">
         <v>0</v>
@@ -9364,25 +9671,25 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I136" s="0" t="n">
         <v>0</v>
@@ -9400,25 +9707,25 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I137" s="0" t="n">
         <v>0</v>
@@ -9436,25 +9743,25 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I138" s="0" t="n">
         <v>0</v>
@@ -9472,25 +9779,25 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I139" s="0" t="n">
         <v>0</v>
@@ -9508,25 +9815,25 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I140" s="0" t="n">
         <v>0</v>
@@ -9544,25 +9851,25 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I141" s="0" t="n">
         <v>0</v>
@@ -9580,25 +9887,25 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="B142" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="C142" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="C142" s="0" t="s">
-        <v>425</v>
-      </c>
       <c r="D142" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I142" s="0" t="n">
         <v>0</v>
@@ -9616,25 +9923,25 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I143" s="0" t="n">
         <v>0</v>
@@ -9652,25 +9959,25 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I144" s="0" t="n">
         <v>0</v>
@@ -9688,25 +9995,25 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I145" s="0" t="n">
         <v>0</v>
@@ -9724,25 +10031,25 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I146" s="0" t="n">
         <v>0</v>
@@ -9760,25 +10067,25 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I147" s="0" t="n">
         <v>0</v>
@@ -9796,25 +10103,25 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I148" s="0" t="n">
         <v>0</v>
@@ -9832,25 +10139,25 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I149" s="0" t="n">
         <v>0</v>
@@ -9868,25 +10175,25 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I150" s="0" t="n">
         <v>0</v>
@@ -9904,25 +10211,25 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I151" s="0" t="n">
         <v>0</v>
@@ -9940,25 +10247,25 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I152" s="0" t="n">
         <v>0</v>
@@ -9976,25 +10283,25 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I153" s="0" t="n">
         <v>0</v>
@@ -10012,25 +10319,25 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I154" s="0" t="n">
         <v>0</v>
@@ -10048,25 +10355,25 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="I155" s="0" t="n">
         <v>1</v>
@@ -10084,25 +10391,25 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="I156" s="0" t="n">
         <v>2</v>
@@ -10120,25 +10427,25 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="I157" s="0" t="n">
         <v>3</v>
@@ -10156,25 +10463,25 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="I158" s="0" t="n">
         <v>1</v>
@@ -10192,25 +10499,25 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I159" s="0" t="n">
         <v>0</v>
@@ -10228,25 +10535,25 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I160" s="0" t="n">
         <v>0</v>
@@ -10264,25 +10571,25 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I161" s="0" t="n">
         <v>0</v>
@@ -10300,25 +10607,25 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I162" s="0" t="n">
         <v>0</v>
@@ -10336,25 +10643,25 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I163" s="0" t="n">
         <v>0</v>
@@ -10372,25 +10679,25 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I164" s="0" t="n">
         <v>0</v>
@@ -10408,25 +10715,25 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="B165" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D165" s="0" t="s">
         <v>492</v>
-      </c>
-      <c r="C165" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D165" s="0" t="s">
-        <v>472</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I165" s="0" t="n">
         <v>0</v>
@@ -10444,25 +10751,25 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I166" s="0" t="n">
         <v>0</v>
@@ -10480,25 +10787,25 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I167" s="0" t="n">
         <v>0</v>
@@ -10516,25 +10823,25 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I168" s="0" t="n">
         <v>0</v>
@@ -10552,25 +10859,25 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I169" s="0" t="n">
         <v>0</v>
@@ -10588,25 +10895,25 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I170" s="0" t="n">
         <v>0</v>
@@ -10624,25 +10931,25 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I171" s="0" t="n">
         <v>0</v>
@@ -10660,25 +10967,25 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I172" s="0" t="n">
         <v>0</v>
@@ -10696,25 +11003,25 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I173" s="0" t="n">
         <v>0</v>
@@ -10732,25 +11039,25 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I174" s="0" t="n">
         <v>0</v>
@@ -10768,25 +11075,25 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I175" s="0" t="n">
         <v>0</v>
@@ -10804,25 +11111,25 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I176" s="0" t="n">
         <v>0</v>
@@ -10840,25 +11147,25 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I177" s="0" t="n">
         <v>0</v>
@@ -10876,25 +11183,25 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I178" s="0" t="n">
         <v>0</v>
@@ -10912,25 +11219,25 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I179" s="0" t="n">
         <v>0</v>
@@ -10948,25 +11255,25 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I180" s="0" t="n">
         <v>0</v>
@@ -10984,25 +11291,25 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I181" s="0" t="n">
         <v>0</v>
@@ -11020,25 +11327,25 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I182" s="0" t="n">
         <v>0</v>
@@ -11056,25 +11363,25 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="B183" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="C183" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="C183" s="0" t="s">
-        <v>510</v>
-      </c>
       <c r="D183" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I183" s="0" t="n">
         <v>0</v>
@@ -11092,25 +11399,25 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I184" s="0" t="n">
         <v>0</v>
@@ -11128,25 +11435,25 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I185" s="0" t="n">
         <v>0</v>
@@ -11164,25 +11471,25 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I186" s="0" t="n">
         <v>0</v>
@@ -11200,25 +11507,25 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I187" s="0" t="n">
         <v>0</v>
@@ -11236,25 +11543,25 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I188" s="0" t="n">
         <v>0</v>
@@ -11272,25 +11579,25 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I189" s="0" t="n">
         <v>0</v>
@@ -11308,25 +11615,25 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I190" s="0" t="n">
         <v>0</v>
@@ -11344,25 +11651,25 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I191" s="0" t="n">
         <v>0</v>
@@ -11380,25 +11687,25 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I192" s="0" t="n">
         <v>0</v>
@@ -11416,25 +11723,25 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I193" s="0" t="n">
         <v>0</v>
@@ -11452,25 +11759,25 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I194" s="0" t="n">
         <v>0</v>
@@ -11488,25 +11795,25 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I195" s="0" t="n">
         <v>0</v>
@@ -11524,25 +11831,25 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I196" s="0" t="n">
         <v>0</v>
@@ -11560,25 +11867,25 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I197" s="0" t="n">
         <v>0</v>
@@ -11596,25 +11903,25 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I198" s="0" t="n">
         <v>0</v>
@@ -11632,25 +11939,25 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I199" s="0" t="n">
         <v>0</v>
@@ -11668,25 +11975,25 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I200" s="0" t="n">
         <v>0</v>
@@ -11704,25 +12011,25 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I201" s="0" t="n">
         <v>0</v>
@@ -11740,25 +12047,25 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I202" s="0" t="n">
         <v>0</v>
@@ -11776,25 +12083,25 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I203" s="0" t="n">
         <v>0</v>
@@ -11812,25 +12119,25 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I204" s="0" t="n">
         <v>0</v>
@@ -11848,25 +12155,25 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I205" s="0" t="n">
         <v>0</v>
@@ -11884,25 +12191,25 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I206" s="0" t="n">
         <v>0</v>
@@ -11920,25 +12227,25 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="B207" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="C207" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="C207" s="0" t="s">
-        <v>548</v>
-      </c>
       <c r="D207" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I207" s="0" t="n">
         <v>0</v>
@@ -11956,25 +12263,25 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E208" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I208" s="0" t="n">
         <v>0</v>
@@ -11992,25 +12299,25 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I209" s="0" t="n">
         <v>0</v>
@@ -12028,25 +12335,25 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I210" s="0" t="n">
         <v>0</v>
@@ -12064,25 +12371,25 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I211" s="0" t="n">
         <v>0</v>
@@ -12100,25 +12407,25 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>579</v>
+        <v>599</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I212" s="0" t="n">
         <v>0</v>
@@ -12136,25 +12443,25 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="E213" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I213" s="0" t="n">
         <v>0</v>
@@ -12172,25 +12479,25 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="E214" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I214" s="0" t="n">
         <v>0</v>
@@ -12208,25 +12515,25 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="E215" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I215" s="0" t="n">
         <v>0</v>
@@ -12244,25 +12551,25 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="E216" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I216" s="0" t="n">
         <v>0</v>
@@ -12280,25 +12587,25 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="E217" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I217" s="0" t="n">
         <v>0</v>
@@ -12316,25 +12623,25 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="E218" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I218" s="0" t="n">
         <v>0</v>
@@ -12352,25 +12659,25 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="E219" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I219" s="0" t="n">
         <v>0</v>
@@ -12388,25 +12695,25 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="E220" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I220" s="0" t="n">
         <v>0</v>
@@ -12424,25 +12731,25 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="E221" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I221" s="0" t="n">
         <v>0</v>
@@ -12460,25 +12767,25 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="E222" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G222" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I222" s="0" t="n">
         <v>0</v>
@@ -12496,25 +12803,25 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="E223" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G223" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I223" s="0" t="n">
         <v>0</v>
@@ -12532,25 +12839,25 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="E224" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I224" s="0" t="n">
         <v>0</v>
@@ -12568,25 +12875,25 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="E225" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G225" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I225" s="0" t="n">
         <v>0</v>
@@ -12604,25 +12911,25 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="E226" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G226" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I226" s="0" t="n">
         <v>0</v>
@@ -12640,25 +12947,25 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="E227" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G227" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I227" s="0" t="n">
         <v>0</v>
@@ -12676,25 +12983,25 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E228" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="I228" s="0" t="n">
         <v>0</v>
@@ -12712,25 +13019,25 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E229" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G229" s="0" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="I229" s="0" t="n">
         <v>0</v>
@@ -12748,25 +13055,25 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E230" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="I230" s="0" t="n">
         <v>0</v>
@@ -12784,25 +13091,25 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E231" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="I231" s="0" t="n">
         <v>0</v>
@@ -12820,25 +13127,25 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E232" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="I232" s="0" t="n">
         <v>0</v>
@@ -12856,25 +13163,25 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E233" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="I233" s="0" t="n">
         <v>0</v>
@@ -12892,25 +13199,25 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E234" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="I234" s="0" t="n">
         <v>0</v>
@@ -12928,25 +13235,25 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E235" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="I235" s="0" t="n">
         <v>0</v>
@@ -12964,25 +13271,25 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>628</v>
+        <v>648</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E236" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="I236" s="0" t="n">
         <v>0</v>
@@ -13000,25 +13307,25 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="C237" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="B237" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="C237" s="0" t="s">
-        <v>610</v>
-      </c>
       <c r="D237" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E237" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="I237" s="0" t="n">
         <v>0</v>
@@ -13036,25 +13343,25 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E238" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="I238" s="0" t="n">
         <v>0</v>
@@ -13072,25 +13379,25 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E239" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="I239" s="0" t="n">
         <v>0</v>
@@ -13108,25 +13415,25 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E240" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="I240" s="0" t="n">
         <v>0</v>
@@ -13144,25 +13451,25 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E241" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="I241" s="0" t="n">
         <v>0</v>
@@ -13180,25 +13487,25 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E242" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I242" s="0" t="n">
         <v>0</v>
@@ -13216,25 +13523,25 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="D243" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="E243" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F243" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G243" s="0" t="s">
         <v>643</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="C243" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="D243" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="E243" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F243" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="G243" s="0" t="s">
-        <v>623</v>
       </c>
       <c r="I243" s="0" t="n">
         <v>0</v>
@@ -13252,25 +13559,25 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E244" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="I244" s="0" t="n">
         <v>0</v>
@@ -13288,25 +13595,25 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E245" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="I245" s="0" t="n">
         <v>0</v>
@@ -13324,25 +13631,25 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="E246" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H246" s="0" t="n">
         <v>0</v>
@@ -13363,25 +13670,25 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="E247" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H247" s="0" t="n">
         <v>0</v>
@@ -13402,25 +13709,25 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="E248" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H248" s="0" t="n">
         <v>1</v>
@@ -13441,25 +13748,25 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="E249" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H249" s="0" t="n">
         <v>0</v>
@@ -13480,25 +13787,25 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>659</v>
+        <v>679</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="E250" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H250" s="0" t="n">
         <v>0</v>
@@ -13519,25 +13826,25 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>661</v>
+        <v>681</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="E251" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H251" s="0" t="n">
         <v>0</v>
@@ -13558,25 +13865,25 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>663</v>
+        <v>683</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="E252" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G252" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H252" s="0" t="n">
         <v>0</v>
@@ -13597,25 +13904,25 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>665</v>
+        <v>685</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>666</v>
+        <v>686</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="E253" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G253" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H253" s="0" t="n">
         <v>0</v>
@@ -13635,7 +13942,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D253"/>
+  <autoFilter ref="A1:C127"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -13658,7 +13965,7 @@
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
@@ -13672,25 +13979,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>668</v>
+        <v>688</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>669</v>
+        <v>689</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>671</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13744,13 +14051,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>672</v>
+        <v>692</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>673</v>
+        <v>693</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>674</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13807,16 +14114,16 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>676</v>
+        <v>696</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>677</v>
+        <v>697</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13875,7 +14182,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Kingdom Hearts II Final Mix.xlsx
+++ b/Kingdom Hearts II Final Mix.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Stats - Terra" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$1:$C$127</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$D$1:$D$253</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$D$1:$D$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$1:$C$127</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Commands!$C$1:$C$127</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="704">
   <si>
     <t xml:space="preserve">World ID</t>
   </si>
@@ -425,6 +425,18 @@
   </si>
   <si>
     <t xml:space="preserve">BallroomBattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hundred Acre Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoohHouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pooh Bear’s House</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -2255,7 +2267,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
@@ -2552,10 +2564,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H68" activeCellId="0" sqref="H68"/>
+      <selection pane="bottomLeft" activeCell="G67" activeCellId="0" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.76"/>
@@ -2591,7 +2603,7 @@
       </c>
       <c r="I1" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(G2:G1006)</f>
-        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },544: { "worldId": 2, "name": "StationOfSerenity", "display": "Station of Serenity", "areaId": 32, "hideWorld": 1, },545: { "worldId": 2, "name": "StationOfCalling", "display": "Station of Calling", "areaId": 33, "hideWorld": 1, },546: { "worldId": 2, "name": "StationOfAwakening", "display": "Station of Awakening", "areaId": 34, "hideWorld": 1, },517: { "worldId": 2, "name": "SandlotBattlefield", "display": "Sandlot", "areaId": 5, "hideWorld": 0, },521: { "worldId": 2, "name": "CentralStation", "display": "Central Station", "areaId": 9, "hideWorld": 0, },537: { "worldId": 2, "name": "Tower", "display": "The Tower", "areaId": 25, "hideWorld": 1, },541: { "worldId": 2, "name": "StarChamber", "display": "Tower: Star Chamber", "areaId": 29, "hideWorld": 1, },543: { "worldId": 2, "name": "WaywardStairs", "display": "Tower: Wayward Stairs", "areaId": 31, "hideWorld": 1, },550: { "worldId": 2, "name": "WaywardStairs2", "display": "Tower: Wayward Stairs", "areaId": 38, "hideWorld": 1, },542: { "worldId": 2, "name": "MoonChamber", "display": "Tower: Moon Chamber", "areaId": 30, "hideWorld": 1, },551: { "worldId": 2, "name": "WaywardStairs3", "display": "Tower: Wayward Stairs", "areaId": 39, "hideWorld": 1, },539: { "worldId": 2, "name": "SorcererLoft", "display": "Tower: Sorcerer’s Loft", "areaId": 27, "hideWorld": 1, },540: { "worldId": 2, "name": "Wardrobe", "display": "Tower: Wardrobe", "areaId": 28, "hideWorld": 1, },3840: { "worldId": 15, "name": "WorldMap", "display": "World Map", "areaId": 0, "hideWorld": 1, },1024: { "worldId": 4, "name": "VillainVale", "display": "Villain’s Vale", "areaId": 0, "hideWorld": 0, },1034: { "worldId": 4, "name": "Marketplace", "display": "Marketplace", "areaId": 10, "hideWorld": 0, },1033: { "worldId": 4, "name": "Borough", "display": "Borough", "areaId": 9, "hideWorld": 0, },1037: { "worldId": 4, "name": "Merlin", "display": "Merlin’s House", "areaId": 13, "hideWorld": 0, },2048: { "worldId": 8, "name": "BambooGrove", "display": "Bamboo Grove", "areaId": 0, "hideWorld": 0, },2049: { "worldId": 8, "name": "Encampment", "display": "Encampment", "areaId": 1, "hideWorld": 0, },2050: { "worldId": 8, "name": "Checkpoint", "display": "Checkpoint", "areaId": 2, "hideWorld": 0, },2052: { "worldId": 8, "name": "Village", "display": "Village", "areaId": 4, "hideWorld": 0, },2051: { "worldId": 8, "name": "MountainTrail", "display": "Mountain Trail", "areaId": 3, "hideWorld": 0, },2053: { "worldId": 8, "name": "VillageCave", "display": "Village Cave", "areaId": 5, "hideWorld": 0, },2060: { "worldId": 8, "name": "RuinedVillage", "display": "Village", "areaId": 12, "hideWorld": 0, },2054: { "worldId": 8, "name": "Ridge", "display": "Ridge", "areaId": 6, "hideWorld": 0, },2055: { "worldId": 8, "name": "Summit", "display": "Summit", "areaId": 7, "hideWorld": 0, },2056: { "worldId": 8, "name": "ImperialSquare", "display": "Imperial Square", "areaId": 8, "hideWorld": 0, },2057: { "worldId": 8, "name": "PalaceGate", "display": "Palace Gate", "areaId": 9, "hideWorld": 0, },1280: { "worldId": 5, "name": "EntranceHall", "display": "Entrance Hall", "areaId": 0, "hideWorld": 0, },1281: { "worldId": 5, "name": "Parlor", "display": "Parlor", "areaId": 1, "hideWorld": 0, },1286: { "worldId": 5, "name": "BeastCourtyard", "display": "Courtyard", "areaId": 6, "hideWorld": 0, },1282: { "worldId": 5, "name": "BelleRoom", "display": "Belle’s Room", "areaId": 2, "hideWorld": 0, },1287: { "worldId": 5, "name": "EastWing", "display": "The East Wing", "areaId": 7, "hideWorld": 0, },1284: { "worldId": 5, "name": "Ballroom", "display": "Ballroom", "areaId": 4, "hideWorld": 0, },1288: { "worldId": 5, "name": "WestHall", "display": "The West Hall", "areaId": 8, "hideWorld": 0, },1291: { "worldId": 5, "name": "Undercroft", "display": "Undercroft", "areaId": 11, "hideWorld": 0, },1290: { "worldId": 5, "name": "Dungeon", "display": "Dungeon", "areaId": 10, "hideWorld": 0, },1292: { "worldId": 5, "name": "SecretPassage", "display": "Secret Passage", "areaId": 12, "hideWorld": 0, },1289: { "worldId": 5, "name": "WestWing", "display": "The West Wing", "areaId": 9, "hideWorld": 0, },1283: { "worldId": 5, "name": "BeastRoom", "display": "The Beast’s Room", "areaId": 3, "hideWorld": 0, },1285: { "worldId": 5, "name": "BallroomBattle", "display": "Ballroom", "areaId": 5, "hideWorld": 0, },</v>
+        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },544: { "worldId": 2, "name": "StationOfSerenity", "display": "Station of Serenity", "areaId": 32, "hideWorld": 1, },545: { "worldId": 2, "name": "StationOfCalling", "display": "Station of Calling", "areaId": 33, "hideWorld": 1, },546: { "worldId": 2, "name": "StationOfAwakening", "display": "Station of Awakening", "areaId": 34, "hideWorld": 1, },517: { "worldId": 2, "name": "SandlotBattlefield", "display": "Sandlot", "areaId": 5, "hideWorld": 0, },521: { "worldId": 2, "name": "CentralStation", "display": "Central Station", "areaId": 9, "hideWorld": 0, },537: { "worldId": 2, "name": "Tower", "display": "The Tower", "areaId": 25, "hideWorld": 1, },541: { "worldId": 2, "name": "StarChamber", "display": "Tower: Star Chamber", "areaId": 29, "hideWorld": 1, },543: { "worldId": 2, "name": "WaywardStairs", "display": "Tower: Wayward Stairs", "areaId": 31, "hideWorld": 1, },550: { "worldId": 2, "name": "WaywardStairs2", "display": "Tower: Wayward Stairs", "areaId": 38, "hideWorld": 1, },542: { "worldId": 2, "name": "MoonChamber", "display": "Tower: Moon Chamber", "areaId": 30, "hideWorld": 1, },551: { "worldId": 2, "name": "WaywardStairs3", "display": "Tower: Wayward Stairs", "areaId": 39, "hideWorld": 1, },539: { "worldId": 2, "name": "SorcererLoft", "display": "Tower: Sorcerer’s Loft", "areaId": 27, "hideWorld": 1, },540: { "worldId": 2, "name": "Wardrobe", "display": "Tower: Wardrobe", "areaId": 28, "hideWorld": 1, },3840: { "worldId": 15, "name": "WorldMap", "display": "World Map", "areaId": 0, "hideWorld": 1, },1024: { "worldId": 4, "name": "VillainVale", "display": "Villain’s Vale", "areaId": 0, "hideWorld": 0, },1034: { "worldId": 4, "name": "Marketplace", "display": "Marketplace", "areaId": 10, "hideWorld": 0, },1033: { "worldId": 4, "name": "Borough", "display": "Borough", "areaId": 9, "hideWorld": 0, },1037: { "worldId": 4, "name": "Merlin", "display": "Merlin’s House", "areaId": 13, "hideWorld": 0, },2048: { "worldId": 8, "name": "BambooGrove", "display": "Bamboo Grove", "areaId": 0, "hideWorld": 0, },2049: { "worldId": 8, "name": "Encampment", "display": "Encampment", "areaId": 1, "hideWorld": 0, },2050: { "worldId": 8, "name": "Checkpoint", "display": "Checkpoint", "areaId": 2, "hideWorld": 0, },2052: { "worldId": 8, "name": "Village", "display": "Village", "areaId": 4, "hideWorld": 0, },2051: { "worldId": 8, "name": "MountainTrail", "display": "Mountain Trail", "areaId": 3, "hideWorld": 0, },2053: { "worldId": 8, "name": "VillageCave", "display": "Village Cave", "areaId": 5, "hideWorld": 0, },2060: { "worldId": 8, "name": "RuinedVillage", "display": "Village", "areaId": 12, "hideWorld": 0, },2054: { "worldId": 8, "name": "Ridge", "display": "Ridge", "areaId": 6, "hideWorld": 0, },2055: { "worldId": 8, "name": "Summit", "display": "Summit", "areaId": 7, "hideWorld": 0, },2056: { "worldId": 8, "name": "ImperialSquare", "display": "Imperial Square", "areaId": 8, "hideWorld": 0, },2057: { "worldId": 8, "name": "PalaceGate", "display": "Palace Gate", "areaId": 9, "hideWorld": 0, },1280: { "worldId": 5, "name": "EntranceHall", "display": "Entrance Hall", "areaId": 0, "hideWorld": 0, },1281: { "worldId": 5, "name": "Parlor", "display": "Parlor", "areaId": 1, "hideWorld": 0, },1286: { "worldId": 5, "name": "BeastCourtyard", "display": "Courtyard", "areaId": 6, "hideWorld": 0, },1282: { "worldId": 5, "name": "BelleRoom", "display": "Belle’s Room", "areaId": 2, "hideWorld": 0, },1287: { "worldId": 5, "name": "EastWing", "display": "The East Wing", "areaId": 7, "hideWorld": 0, },1284: { "worldId": 5, "name": "Ballroom", "display": "Ballroom", "areaId": 4, "hideWorld": 0, },1288: { "worldId": 5, "name": "WestHall", "display": "The West Hall", "areaId": 8, "hideWorld": 0, },1291: { "worldId": 5, "name": "Undercroft", "display": "Undercroft", "areaId": 11, "hideWorld": 0, },1290: { "worldId": 5, "name": "Dungeon", "display": "Dungeon", "areaId": 10, "hideWorld": 0, },1292: { "worldId": 5, "name": "SecretPassage", "display": "Secret Passage", "areaId": 12, "hideWorld": 0, },1289: { "worldId": 5, "name": "WestWing", "display": "The West Wing", "areaId": 9, "hideWorld": 0, },1283: { "worldId": 5, "name": "BeastRoom", "display": "The Beast’s Room", "areaId": 3, "hideWorld": 0, },1285: { "worldId": 5, "name": "BallroomBattle", "display": "Ballroom", "areaId": 5, "hideWorld": 0, },2304: { "worldId": 9, "name": "Book", "display": "The Hundred Acre Wood", "areaId": 0, "hideWorld": 1, },2306: { "worldId": 9, "name": "PoohHouse", "display": "Pooh Bear’s House", "areaId": 2, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4197,13 +4209,51 @@
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <f aca="false">B66+C66*256</f>
-        <v>0</v>
+        <v>2304</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A66,": { ""worldId"": ",C66,", ""name"": """,D66,""", ""display"": """,E66,""", ""areaId"": ",B66,", ""hideWorld"": ",F66,", },")</f>
+        <v>2304: { "worldId": 9, "name": "Book", "display": "The Hundred Acre Wood", "areaId": 0, "hideWorld": 1, },</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <f aca="false">B67+C67*256</f>
-        <v>0</v>
+        <v>2306</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A67,": { ""worldId"": ",C67,", ""name"": """,D67,""", ""display"": """,E67,""", ""areaId"": ",B67,", ""hideWorld"": ",F67,", },")</f>
+        <v>2306: { "worldId": 9, "name": "PoohHouse", "display": "Pooh Bear’s House", "areaId": 2, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,14 +4287,14 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4268,10 +4318,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A2,": { ""id"": ",A2,", ""name"": """,B2,""" },")</f>
@@ -4280,10 +4330,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A3,": { ""id"": ",A3,", ""name"": """,B3,""" },")</f>
@@ -4292,10 +4342,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A4,": { ""id"": ",A4,", ""name"": """,B4,""" },")</f>
@@ -4304,10 +4354,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C5" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A5,": { ""id"": ",A5,", ""name"": """,B5,""" },")</f>
@@ -4316,10 +4366,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C6" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A6,": { ""id"": ",A6,", ""name"": """,B6,""" },")</f>
@@ -4328,10 +4378,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C7" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A7,": { ""id"": ",A7,", ""name"": """,B7,""" },")</f>
@@ -4340,10 +4390,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C8" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A8,": { ""id"": ",A8,", ""name"": """,B8,""" },")</f>
@@ -4352,10 +4402,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A9,": { ""id"": ",A9,", ""name"": """,B9,""" },")</f>
@@ -4364,10 +4414,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C10" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A10,": { ""id"": ",A10,", ""name"": """,B10,""" },")</f>
@@ -4376,10 +4426,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A11,": { ""id"": ",A11,", ""name"": """,B11,""" },")</f>
@@ -4388,10 +4438,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A12,": { ""id"": ",A12,", ""name"": """,B12,""" },")</f>
@@ -4464,7 +4514,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.77"/>
@@ -4481,37 +4531,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -4526,28 +4576,28 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
@@ -4565,25 +4615,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
@@ -4604,25 +4654,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>167</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
@@ -4643,25 +4693,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
@@ -4682,25 +4732,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
@@ -4721,25 +4771,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
@@ -4760,25 +4810,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -4799,25 +4849,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -4838,25 +4888,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -4877,25 +4927,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -4916,25 +4966,25 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -4955,25 +5005,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -4994,25 +5044,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -5033,25 +5083,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -5072,25 +5122,25 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
@@ -5111,25 +5161,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>167</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -5150,25 +5200,25 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -5189,25 +5239,25 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -5228,25 +5278,25 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -5267,25 +5317,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
@@ -5306,25 +5356,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>0</v>
@@ -5345,25 +5395,25 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0</v>
@@ -5384,25 +5434,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
@@ -5423,25 +5473,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
@@ -5462,25 +5512,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
@@ -5501,25 +5551,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
@@ -5540,25 +5590,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
@@ -5579,25 +5629,25 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0</v>
@@ -5618,25 +5668,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0</v>
@@ -5657,25 +5707,25 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
@@ -5696,25 +5746,25 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0</v>
@@ -5735,25 +5785,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
@@ -5774,25 +5824,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
@@ -5813,25 +5863,25 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
@@ -5852,25 +5902,25 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C36" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
@@ -5891,25 +5941,25 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1</v>
@@ -5930,25 +5980,25 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>0</v>
@@ -5969,25 +6019,25 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C39" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1</v>
@@ -6008,25 +6058,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C40" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
@@ -6047,25 +6097,25 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C41" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
@@ -6086,25 +6136,25 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="0" t="s">
         <v>255</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>251</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>0</v>
@@ -6125,25 +6175,25 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>241</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>237</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
@@ -6164,25 +6214,25 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C44" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0</v>
@@ -6203,25 +6253,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
@@ -6242,25 +6292,25 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0</v>
@@ -6281,25 +6331,25 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B47" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>263</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
@@ -6320,25 +6370,25 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
@@ -6359,25 +6409,25 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
@@ -6398,25 +6448,25 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C50" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D50" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
@@ -6437,25 +6487,25 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C51" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>1</v>
@@ -6476,25 +6526,25 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C52" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D52" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1</v>
@@ -6515,25 +6565,25 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C53" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1</v>
@@ -6554,25 +6604,25 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C54" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>241</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>237</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>0</v>
@@ -6593,25 +6643,25 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C55" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D55" s="0" t="s">
         <v>241</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>237</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>0</v>
@@ -6632,25 +6682,25 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C56" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>241</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>237</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>0</v>
@@ -6671,25 +6721,25 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C57" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
@@ -6710,25 +6760,25 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C58" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0</v>
@@ -6749,25 +6799,25 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B59" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>293</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>289</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>0</v>
@@ -6788,25 +6838,25 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C60" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>0</v>
@@ -6827,25 +6877,25 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C61" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>0</v>
@@ -6866,25 +6916,25 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C62" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D62" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0</v>
@@ -6905,25 +6955,25 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C63" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D63" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>0</v>
@@ -6944,25 +6994,25 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B64" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" s="0" t="s">
         <v>304</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="E64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>300</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>0</v>
@@ -6983,25 +7033,25 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C65" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65" s="0" t="s">
         <v>241</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>237</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>0</v>
@@ -7022,25 +7072,25 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C66" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D66" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>0</v>
@@ -7061,25 +7111,25 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C67" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D67" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>0</v>
@@ -7100,25 +7150,25 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>0</v>
@@ -7139,25 +7189,25 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C69" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D69" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>0</v>
@@ -7178,25 +7228,25 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C70" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D70" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E70" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>0</v>
@@ -7217,25 +7267,25 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>0</v>
@@ -7256,25 +7306,25 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C72" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D72" s="0" t="s">
         <v>241</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>237</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>0</v>
@@ -7295,25 +7345,25 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C73" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D73" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>0</v>
@@ -7334,25 +7384,25 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>0</v>
@@ -7373,25 +7423,25 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>1</v>
@@ -7412,25 +7462,25 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>1</v>
@@ -7451,25 +7501,25 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B77" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D77" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>328</v>
-      </c>
       <c r="E77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>1</v>
@@ -7490,25 +7540,25 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>1</v>
@@ -7529,25 +7579,25 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>1</v>
@@ -7568,25 +7618,25 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>1</v>
@@ -7607,25 +7657,25 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>1</v>
@@ -7646,25 +7696,25 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>1</v>
@@ -7685,25 +7735,25 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>1</v>
@@ -7724,25 +7774,25 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>1</v>
@@ -7763,25 +7813,25 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>1</v>
@@ -7802,25 +7852,25 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>1</v>
@@ -7841,25 +7891,25 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>1</v>
@@ -7880,25 +7930,25 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>1</v>
@@ -7919,25 +7969,25 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>1</v>
@@ -7958,25 +8008,25 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>1</v>
@@ -7997,25 +8047,25 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>1</v>
@@ -8036,25 +8086,25 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B92" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="G92" s="0" t="s">
         <v>360</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="E92" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="G92" s="0" t="s">
-        <v>356</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>1</v>
@@ -8075,25 +8125,25 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>1</v>
@@ -8114,25 +8164,25 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>0</v>
@@ -8153,25 +8203,25 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>0</v>
@@ -8192,25 +8242,25 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="D96" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="G96" s="0" t="s">
         <v>370</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="E96" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>366</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>0</v>
@@ -8231,25 +8281,25 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>1</v>
@@ -8270,25 +8320,25 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>1</v>
@@ -8309,25 +8359,25 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B99" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="G99" s="0" t="s">
         <v>376</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="E99" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="G99" s="0" t="s">
-        <v>372</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>1</v>
@@ -8348,25 +8398,25 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>1</v>
@@ -8387,25 +8437,25 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>1</v>
@@ -8426,25 +8476,25 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B102" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="G102" s="0" t="s">
         <v>382</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="E102" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="G102" s="0" t="s">
-        <v>378</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>1</v>
@@ -8465,25 +8515,25 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>0</v>
@@ -8504,25 +8554,25 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>0</v>
@@ -8543,25 +8593,25 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>0</v>
@@ -8582,25 +8632,25 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>1</v>
@@ -8621,25 +8671,25 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>1</v>
@@ -8660,25 +8710,25 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B108" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="G108" s="0" t="s">
         <v>394</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="E108" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="G108" s="0" t="s">
-        <v>390</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>1</v>
@@ -8699,25 +8749,25 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I109" s="0" t="n">
         <v>0</v>
@@ -8735,25 +8785,25 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I110" s="0" t="n">
         <v>0</v>
@@ -8771,25 +8821,25 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I111" s="0" t="n">
         <v>0</v>
@@ -8807,25 +8857,25 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I112" s="0" t="n">
         <v>0</v>
@@ -8843,25 +8893,25 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I113" s="0" t="n">
         <v>0</v>
@@ -8879,25 +8929,25 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I114" s="0" t="n">
         <v>3</v>
@@ -8915,25 +8965,25 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I115" s="0" t="n">
         <v>0</v>
@@ -8951,25 +9001,25 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I116" s="0" t="n">
         <v>0</v>
@@ -8987,25 +9037,25 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I117" s="0" t="n">
         <v>0</v>
@@ -9023,25 +9073,25 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="I118" s="0" t="n">
         <v>0</v>
@@ -9059,25 +9109,25 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I119" s="0" t="n">
         <v>0</v>
@@ -9095,25 +9145,25 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="I120" s="0" t="n">
         <v>0</v>
@@ -9131,25 +9181,25 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I121" s="0" t="n">
         <v>1</v>
@@ -9167,25 +9217,25 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I122" s="0" t="n">
         <v>1</v>
@@ -9203,25 +9253,25 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C123" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="D123" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="G123" s="0" t="s">
         <v>426</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="E123" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F123" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="G123" s="0" t="s">
-        <v>422</v>
       </c>
       <c r="I123" s="0" t="n">
         <v>1</v>
@@ -9239,25 +9289,25 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I124" s="0" t="n">
         <v>1</v>
@@ -9275,25 +9325,25 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I125" s="0" t="n">
         <v>1</v>
@@ -9311,25 +9361,25 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I126" s="0" t="n">
         <v>1</v>
@@ -9347,25 +9397,25 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I127" s="0" t="n">
         <v>1</v>
@@ -9383,25 +9433,25 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I128" s="0" t="n">
         <v>1</v>
@@ -9419,25 +9469,25 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I129" s="0" t="n">
         <v>2</v>
@@ -9455,25 +9505,25 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I130" s="0" t="n">
         <v>3</v>
@@ -9491,25 +9541,25 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I131" s="0" t="n">
         <v>1</v>
@@ -9527,25 +9577,25 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I132" s="0" t="n">
         <v>0</v>
@@ -9563,25 +9613,25 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I133" s="0" t="n">
         <v>0</v>
@@ -9599,25 +9649,25 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B134" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="C134" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="C134" s="0" t="s">
-        <v>445</v>
-      </c>
       <c r="D134" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I134" s="0" t="n">
         <v>0</v>
@@ -9635,25 +9685,25 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I135" s="0" t="n">
         <v>0</v>
@@ -9671,25 +9721,25 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I136" s="0" t="n">
         <v>0</v>
@@ -9707,25 +9757,25 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I137" s="0" t="n">
         <v>0</v>
@@ -9743,25 +9793,25 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I138" s="0" t="n">
         <v>0</v>
@@ -9779,25 +9829,25 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I139" s="0" t="n">
         <v>0</v>
@@ -9815,25 +9865,25 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I140" s="0" t="n">
         <v>0</v>
@@ -9851,25 +9901,25 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I141" s="0" t="n">
         <v>0</v>
@@ -9887,25 +9937,25 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I142" s="0" t="n">
         <v>0</v>
@@ -9923,25 +9973,25 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I143" s="0" t="n">
         <v>0</v>
@@ -9959,25 +10009,25 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I144" s="0" t="n">
         <v>0</v>
@@ -9995,25 +10045,25 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I145" s="0" t="n">
         <v>0</v>
@@ -10031,25 +10081,25 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I146" s="0" t="n">
         <v>0</v>
@@ -10067,25 +10117,25 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I147" s="0" t="n">
         <v>0</v>
@@ -10103,25 +10153,25 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I148" s="0" t="n">
         <v>0</v>
@@ -10139,25 +10189,25 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I149" s="0" t="n">
         <v>0</v>
@@ -10175,25 +10225,25 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I150" s="0" t="n">
         <v>0</v>
@@ -10211,25 +10261,25 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I151" s="0" t="n">
         <v>0</v>
@@ -10247,25 +10297,25 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I152" s="0" t="n">
         <v>0</v>
@@ -10283,25 +10333,25 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I153" s="0" t="n">
         <v>0</v>
@@ -10319,25 +10369,25 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I154" s="0" t="n">
         <v>0</v>
@@ -10355,25 +10405,25 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="I155" s="0" t="n">
         <v>1</v>
@@ -10391,25 +10441,25 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="I156" s="0" t="n">
         <v>2</v>
@@ -10427,25 +10477,25 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B157" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D157" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="C157" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>492</v>
-      </c>
       <c r="E157" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="I157" s="0" t="n">
         <v>3</v>
@@ -10463,25 +10513,25 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="I158" s="0" t="n">
         <v>1</v>
@@ -10499,25 +10549,25 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I159" s="0" t="n">
         <v>0</v>
@@ -10535,25 +10585,25 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I160" s="0" t="n">
         <v>0</v>
@@ -10571,25 +10621,25 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I161" s="0" t="n">
         <v>0</v>
@@ -10607,25 +10657,25 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I162" s="0" t="n">
         <v>0</v>
@@ -10643,25 +10693,25 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I163" s="0" t="n">
         <v>0</v>
@@ -10679,25 +10729,25 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I164" s="0" t="n">
         <v>0</v>
@@ -10715,25 +10765,25 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I165" s="0" t="n">
         <v>0</v>
@@ -10751,25 +10801,25 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I166" s="0" t="n">
         <v>0</v>
@@ -10787,25 +10837,25 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I167" s="0" t="n">
         <v>0</v>
@@ -10823,25 +10873,25 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I168" s="0" t="n">
         <v>0</v>
@@ -10859,25 +10909,25 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I169" s="0" t="n">
         <v>0</v>
@@ -10895,25 +10945,25 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B170" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C170" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="C170" s="0" t="s">
-        <v>519</v>
-      </c>
       <c r="D170" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I170" s="0" t="n">
         <v>0</v>
@@ -10931,25 +10981,25 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I171" s="0" t="n">
         <v>0</v>
@@ -10967,25 +11017,25 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I172" s="0" t="n">
         <v>0</v>
@@ -11003,25 +11053,25 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I173" s="0" t="n">
         <v>0</v>
@@ -11039,25 +11089,25 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I174" s="0" t="n">
         <v>0</v>
@@ -11075,25 +11125,25 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B175" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="C175" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="C175" s="0" t="s">
-        <v>530</v>
-      </c>
       <c r="D175" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I175" s="0" t="n">
         <v>0</v>
@@ -11111,25 +11161,25 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I176" s="0" t="n">
         <v>0</v>
@@ -11147,25 +11197,25 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I177" s="0" t="n">
         <v>0</v>
@@ -11183,25 +11233,25 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I178" s="0" t="n">
         <v>0</v>
@@ -11219,25 +11269,25 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I179" s="0" t="n">
         <v>0</v>
@@ -11255,25 +11305,25 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I180" s="0" t="n">
         <v>0</v>
@@ -11291,25 +11341,25 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I181" s="0" t="n">
         <v>0</v>
@@ -11327,25 +11377,25 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I182" s="0" t="n">
         <v>0</v>
@@ -11363,25 +11413,25 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I183" s="0" t="n">
         <v>0</v>
@@ -11399,25 +11449,25 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I184" s="0" t="n">
         <v>0</v>
@@ -11435,25 +11485,25 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I185" s="0" t="n">
         <v>0</v>
@@ -11471,25 +11521,25 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I186" s="0" t="n">
         <v>0</v>
@@ -11507,25 +11557,25 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I187" s="0" t="n">
         <v>0</v>
@@ -11543,25 +11593,25 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I188" s="0" t="n">
         <v>0</v>
@@ -11579,25 +11629,25 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I189" s="0" t="n">
         <v>0</v>
@@ -11615,25 +11665,25 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I190" s="0" t="n">
         <v>0</v>
@@ -11651,25 +11701,25 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I191" s="0" t="n">
         <v>0</v>
@@ -11687,25 +11737,25 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I192" s="0" t="n">
         <v>0</v>
@@ -11723,25 +11773,25 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I193" s="0" t="n">
         <v>0</v>
@@ -11759,25 +11809,25 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I194" s="0" t="n">
         <v>0</v>
@@ -11795,25 +11845,25 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="C195" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B195" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="C195" s="0" t="s">
-        <v>568</v>
-      </c>
       <c r="D195" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I195" s="0" t="n">
         <v>0</v>
@@ -11831,25 +11881,25 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I196" s="0" t="n">
         <v>0</v>
@@ -11867,25 +11917,25 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I197" s="0" t="n">
         <v>0</v>
@@ -11903,25 +11953,25 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I198" s="0" t="n">
         <v>0</v>
@@ -11939,25 +11989,25 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I199" s="0" t="n">
         <v>0</v>
@@ -11975,25 +12025,25 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I200" s="0" t="n">
         <v>0</v>
@@ -12011,25 +12061,25 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I201" s="0" t="n">
         <v>0</v>
@@ -12047,25 +12097,25 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I202" s="0" t="n">
         <v>0</v>
@@ -12083,25 +12133,25 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I203" s="0" t="n">
         <v>0</v>
@@ -12119,25 +12169,25 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I204" s="0" t="n">
         <v>0</v>
@@ -12155,25 +12205,25 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I205" s="0" t="n">
         <v>0</v>
@@ -12191,25 +12241,25 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I206" s="0" t="n">
         <v>0</v>
@@ -12227,25 +12277,25 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I207" s="0" t="n">
         <v>0</v>
@@ -12263,25 +12313,25 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E208" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I208" s="0" t="n">
         <v>0</v>
@@ -12299,25 +12349,25 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I209" s="0" t="n">
         <v>0</v>
@@ -12335,25 +12385,25 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I210" s="0" t="n">
         <v>0</v>
@@ -12371,25 +12421,25 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B211" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C211" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="C211" s="0" t="s">
-        <v>593</v>
-      </c>
       <c r="D211" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I211" s="0" t="n">
         <v>0</v>
@@ -12407,25 +12457,25 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I212" s="0" t="n">
         <v>0</v>
@@ -12443,25 +12493,25 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E213" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I213" s="0" t="n">
         <v>0</v>
@@ -12479,25 +12529,25 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E214" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I214" s="0" t="n">
         <v>0</v>
@@ -12515,25 +12565,25 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E215" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I215" s="0" t="n">
         <v>0</v>
@@ -12551,25 +12601,25 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E216" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I216" s="0" t="n">
         <v>0</v>
@@ -12587,25 +12637,25 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E217" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I217" s="0" t="n">
         <v>0</v>
@@ -12623,25 +12673,25 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E218" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I218" s="0" t="n">
         <v>0</v>
@@ -12659,25 +12709,25 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E219" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I219" s="0" t="n">
         <v>0</v>
@@ -12695,25 +12745,25 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E220" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I220" s="0" t="n">
         <v>0</v>
@@ -12731,25 +12781,25 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B221" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="C221" s="0" t="s">
         <v>618</v>
       </c>
-      <c r="C221" s="0" t="s">
-        <v>614</v>
-      </c>
       <c r="D221" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E221" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I221" s="0" t="n">
         <v>0</v>
@@ -12767,25 +12817,25 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E222" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G222" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I222" s="0" t="n">
         <v>0</v>
@@ -12803,25 +12853,25 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E223" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G223" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I223" s="0" t="n">
         <v>0</v>
@@ -12839,25 +12889,25 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E224" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I224" s="0" t="n">
         <v>0</v>
@@ -12875,25 +12925,25 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E225" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G225" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I225" s="0" t="n">
         <v>0</v>
@@ -12911,25 +12961,25 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E226" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G226" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I226" s="0" t="n">
         <v>0</v>
@@ -12947,25 +12997,25 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E227" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G227" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I227" s="0" t="n">
         <v>0</v>
@@ -12983,25 +13033,25 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E228" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="I228" s="0" t="n">
         <v>0</v>
@@ -13019,25 +13069,25 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="C229" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="B229" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>630</v>
-      </c>
       <c r="D229" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E229" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G229" s="0" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="I229" s="0" t="n">
         <v>0</v>
@@ -13055,25 +13105,25 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B230" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="E230" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F230" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="G230" s="0" t="s">
         <v>637</v>
-      </c>
-      <c r="C230" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="D230" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="E230" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F230" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="G230" s="0" t="s">
-        <v>633</v>
       </c>
       <c r="I230" s="0" t="n">
         <v>0</v>
@@ -13091,25 +13141,25 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E231" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="I231" s="0" t="n">
         <v>0</v>
@@ -13127,25 +13177,25 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E232" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="I232" s="0" t="n">
         <v>0</v>
@@ -13163,25 +13213,25 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E233" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="I233" s="0" t="n">
         <v>0</v>
@@ -13199,25 +13249,25 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E234" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="I234" s="0" t="n">
         <v>0</v>
@@ -13235,25 +13285,25 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B235" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="D235" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="E235" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G235" s="0" t="s">
         <v>647</v>
-      </c>
-      <c r="C235" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="D235" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="E235" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F235" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="G235" s="0" t="s">
-        <v>643</v>
       </c>
       <c r="I235" s="0" t="n">
         <v>0</v>
@@ -13271,25 +13321,25 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E236" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="I236" s="0" t="n">
         <v>0</v>
@@ -13307,25 +13357,25 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E237" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="I237" s="0" t="n">
         <v>0</v>
@@ -13343,25 +13393,25 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E238" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="I238" s="0" t="n">
         <v>0</v>
@@ -13379,25 +13429,25 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E239" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="I239" s="0" t="n">
         <v>0</v>
@@ -13415,25 +13465,25 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B240" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="E240" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="G240" s="0" t="s">
         <v>658</v>
-      </c>
-      <c r="C240" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="D240" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="E240" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F240" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="G240" s="0" t="s">
-        <v>654</v>
       </c>
       <c r="I240" s="0" t="n">
         <v>0</v>
@@ -13451,25 +13501,25 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E241" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="I241" s="0" t="n">
         <v>0</v>
@@ -13487,25 +13537,25 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E242" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I242" s="0" t="n">
         <v>0</v>
@@ -13523,25 +13573,25 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E243" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="I243" s="0" t="n">
         <v>0</v>
@@ -13559,25 +13609,25 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E244" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="I244" s="0" t="n">
         <v>0</v>
@@ -13595,25 +13645,25 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E245" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="I245" s="0" t="n">
         <v>0</v>
@@ -13631,25 +13681,25 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E246" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H246" s="0" t="n">
         <v>0</v>
@@ -13670,25 +13720,25 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E247" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H247" s="0" t="n">
         <v>0</v>
@@ -13709,25 +13759,25 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B248" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="C248" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="C248" s="0" t="s">
-        <v>672</v>
-      </c>
       <c r="D248" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E248" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H248" s="0" t="n">
         <v>1</v>
@@ -13748,25 +13798,25 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E249" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H249" s="0" t="n">
         <v>0</v>
@@ -13787,25 +13837,25 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E250" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H250" s="0" t="n">
         <v>0</v>
@@ -13826,25 +13876,25 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E251" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H251" s="0" t="n">
         <v>0</v>
@@ -13865,25 +13915,25 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E252" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G252" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H252" s="0" t="n">
         <v>0</v>
@@ -13904,25 +13954,25 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E253" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G253" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H253" s="0" t="n">
         <v>0</v>
@@ -13942,7 +13992,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C127"/>
+  <autoFilter ref="D1:D253"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -13965,7 +14015,7 @@
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
@@ -13979,25 +14029,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14051,13 +14101,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14114,16 +14164,16 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14182,7 +14232,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Kingdom Hearts II Final Mix.xlsx
+++ b/Kingdom Hearts II Final Mix.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Stats - Terra" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$D$1:$D$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$1:$C$127</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$1:$C$127</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$D$1:$D$253</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Commands!$C$1:$C$127</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="708">
   <si>
     <t xml:space="preserve">World ID</t>
   </si>
@@ -437,6 +437,18 @@
   </si>
   <si>
     <t xml:space="preserve">Pooh Bear’s House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HadesChamber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hades’ Chamber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ValleyOfTheDead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valley of the Dead</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -2267,7 +2279,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
@@ -2562,12 +2574,12 @@
   <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G67" activeCellId="0" sqref="G67"/>
+      <selection pane="bottomLeft" activeCell="C70" activeCellId="0" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.76"/>
@@ -2603,7 +2615,7 @@
       </c>
       <c r="I1" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(G2:G1006)</f>
-        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },544: { "worldId": 2, "name": "StationOfSerenity", "display": "Station of Serenity", "areaId": 32, "hideWorld": 1, },545: { "worldId": 2, "name": "StationOfCalling", "display": "Station of Calling", "areaId": 33, "hideWorld": 1, },546: { "worldId": 2, "name": "StationOfAwakening", "display": "Station of Awakening", "areaId": 34, "hideWorld": 1, },517: { "worldId": 2, "name": "SandlotBattlefield", "display": "Sandlot", "areaId": 5, "hideWorld": 0, },521: { "worldId": 2, "name": "CentralStation", "display": "Central Station", "areaId": 9, "hideWorld": 0, },537: { "worldId": 2, "name": "Tower", "display": "The Tower", "areaId": 25, "hideWorld": 1, },541: { "worldId": 2, "name": "StarChamber", "display": "Tower: Star Chamber", "areaId": 29, "hideWorld": 1, },543: { "worldId": 2, "name": "WaywardStairs", "display": "Tower: Wayward Stairs", "areaId": 31, "hideWorld": 1, },550: { "worldId": 2, "name": "WaywardStairs2", "display": "Tower: Wayward Stairs", "areaId": 38, "hideWorld": 1, },542: { "worldId": 2, "name": "MoonChamber", "display": "Tower: Moon Chamber", "areaId": 30, "hideWorld": 1, },551: { "worldId": 2, "name": "WaywardStairs3", "display": "Tower: Wayward Stairs", "areaId": 39, "hideWorld": 1, },539: { "worldId": 2, "name": "SorcererLoft", "display": "Tower: Sorcerer’s Loft", "areaId": 27, "hideWorld": 1, },540: { "worldId": 2, "name": "Wardrobe", "display": "Tower: Wardrobe", "areaId": 28, "hideWorld": 1, },3840: { "worldId": 15, "name": "WorldMap", "display": "World Map", "areaId": 0, "hideWorld": 1, },1024: { "worldId": 4, "name": "VillainVale", "display": "Villain’s Vale", "areaId": 0, "hideWorld": 0, },1034: { "worldId": 4, "name": "Marketplace", "display": "Marketplace", "areaId": 10, "hideWorld": 0, },1033: { "worldId": 4, "name": "Borough", "display": "Borough", "areaId": 9, "hideWorld": 0, },1037: { "worldId": 4, "name": "Merlin", "display": "Merlin’s House", "areaId": 13, "hideWorld": 0, },2048: { "worldId": 8, "name": "BambooGrove", "display": "Bamboo Grove", "areaId": 0, "hideWorld": 0, },2049: { "worldId": 8, "name": "Encampment", "display": "Encampment", "areaId": 1, "hideWorld": 0, },2050: { "worldId": 8, "name": "Checkpoint", "display": "Checkpoint", "areaId": 2, "hideWorld": 0, },2052: { "worldId": 8, "name": "Village", "display": "Village", "areaId": 4, "hideWorld": 0, },2051: { "worldId": 8, "name": "MountainTrail", "display": "Mountain Trail", "areaId": 3, "hideWorld": 0, },2053: { "worldId": 8, "name": "VillageCave", "display": "Village Cave", "areaId": 5, "hideWorld": 0, },2060: { "worldId": 8, "name": "RuinedVillage", "display": "Village", "areaId": 12, "hideWorld": 0, },2054: { "worldId": 8, "name": "Ridge", "display": "Ridge", "areaId": 6, "hideWorld": 0, },2055: { "worldId": 8, "name": "Summit", "display": "Summit", "areaId": 7, "hideWorld": 0, },2056: { "worldId": 8, "name": "ImperialSquare", "display": "Imperial Square", "areaId": 8, "hideWorld": 0, },2057: { "worldId": 8, "name": "PalaceGate", "display": "Palace Gate", "areaId": 9, "hideWorld": 0, },1280: { "worldId": 5, "name": "EntranceHall", "display": "Entrance Hall", "areaId": 0, "hideWorld": 0, },1281: { "worldId": 5, "name": "Parlor", "display": "Parlor", "areaId": 1, "hideWorld": 0, },1286: { "worldId": 5, "name": "BeastCourtyard", "display": "Courtyard", "areaId": 6, "hideWorld": 0, },1282: { "worldId": 5, "name": "BelleRoom", "display": "Belle’s Room", "areaId": 2, "hideWorld": 0, },1287: { "worldId": 5, "name": "EastWing", "display": "The East Wing", "areaId": 7, "hideWorld": 0, },1284: { "worldId": 5, "name": "Ballroom", "display": "Ballroom", "areaId": 4, "hideWorld": 0, },1288: { "worldId": 5, "name": "WestHall", "display": "The West Hall", "areaId": 8, "hideWorld": 0, },1291: { "worldId": 5, "name": "Undercroft", "display": "Undercroft", "areaId": 11, "hideWorld": 0, },1290: { "worldId": 5, "name": "Dungeon", "display": "Dungeon", "areaId": 10, "hideWorld": 0, },1292: { "worldId": 5, "name": "SecretPassage", "display": "Secret Passage", "areaId": 12, "hideWorld": 0, },1289: { "worldId": 5, "name": "WestWing", "display": "The West Wing", "areaId": 9, "hideWorld": 0, },1283: { "worldId": 5, "name": "BeastRoom", "display": "The Beast’s Room", "areaId": 3, "hideWorld": 0, },1285: { "worldId": 5, "name": "BallroomBattle", "display": "Ballroom", "areaId": 5, "hideWorld": 0, },2304: { "worldId": 9, "name": "Book", "display": "The Hundred Acre Wood", "areaId": 0, "hideWorld": 1, },2306: { "worldId": 9, "name": "PoohHouse", "display": "Pooh Bear’s House", "areaId": 2, "hideWorld": 0, },</v>
+        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },544: { "worldId": 2, "name": "StationOfSerenity", "display": "Station of Serenity", "areaId": 32, "hideWorld": 1, },545: { "worldId": 2, "name": "StationOfCalling", "display": "Station of Calling", "areaId": 33, "hideWorld": 1, },546: { "worldId": 2, "name": "StationOfAwakening", "display": "Station of Awakening", "areaId": 34, "hideWorld": 1, },517: { "worldId": 2, "name": "SandlotBattlefield", "display": "Sandlot", "areaId": 5, "hideWorld": 0, },521: { "worldId": 2, "name": "CentralStation", "display": "Central Station", "areaId": 9, "hideWorld": 0, },537: { "worldId": 2, "name": "Tower", "display": "The Tower", "areaId": 25, "hideWorld": 1, },541: { "worldId": 2, "name": "StarChamber", "display": "Tower: Star Chamber", "areaId": 29, "hideWorld": 1, },543: { "worldId": 2, "name": "WaywardStairs", "display": "Tower: Wayward Stairs", "areaId": 31, "hideWorld": 1, },550: { "worldId": 2, "name": "WaywardStairs2", "display": "Tower: Wayward Stairs", "areaId": 38, "hideWorld": 1, },542: { "worldId": 2, "name": "MoonChamber", "display": "Tower: Moon Chamber", "areaId": 30, "hideWorld": 1, },551: { "worldId": 2, "name": "WaywardStairs3", "display": "Tower: Wayward Stairs", "areaId": 39, "hideWorld": 1, },539: { "worldId": 2, "name": "SorcererLoft", "display": "Tower: Sorcerer’s Loft", "areaId": 27, "hideWorld": 1, },540: { "worldId": 2, "name": "Wardrobe", "display": "Tower: Wardrobe", "areaId": 28, "hideWorld": 1, },3840: { "worldId": 15, "name": "WorldMap", "display": "World Map", "areaId": 0, "hideWorld": 1, },1024: { "worldId": 4, "name": "VillainVale", "display": "Villain’s Vale", "areaId": 0, "hideWorld": 0, },1034: { "worldId": 4, "name": "Marketplace", "display": "Marketplace", "areaId": 10, "hideWorld": 0, },1033: { "worldId": 4, "name": "Borough", "display": "Borough", "areaId": 9, "hideWorld": 0, },1037: { "worldId": 4, "name": "Merlin", "display": "Merlin’s House", "areaId": 13, "hideWorld": 0, },2048: { "worldId": 8, "name": "BambooGrove", "display": "Bamboo Grove", "areaId": 0, "hideWorld": 0, },2049: { "worldId": 8, "name": "Encampment", "display": "Encampment", "areaId": 1, "hideWorld": 0, },2050: { "worldId": 8, "name": "Checkpoint", "display": "Checkpoint", "areaId": 2, "hideWorld": 0, },2052: { "worldId": 8, "name": "Village", "display": "Village", "areaId": 4, "hideWorld": 0, },2051: { "worldId": 8, "name": "MountainTrail", "display": "Mountain Trail", "areaId": 3, "hideWorld": 0, },2053: { "worldId": 8, "name": "VillageCave", "display": "Village Cave", "areaId": 5, "hideWorld": 0, },2060: { "worldId": 8, "name": "RuinedVillage", "display": "Village", "areaId": 12, "hideWorld": 0, },2054: { "worldId": 8, "name": "Ridge", "display": "Ridge", "areaId": 6, "hideWorld": 0, },2055: { "worldId": 8, "name": "Summit", "display": "Summit", "areaId": 7, "hideWorld": 0, },2056: { "worldId": 8, "name": "ImperialSquare", "display": "Imperial Square", "areaId": 8, "hideWorld": 0, },2057: { "worldId": 8, "name": "PalaceGate", "display": "Palace Gate", "areaId": 9, "hideWorld": 0, },1280: { "worldId": 5, "name": "EntranceHall", "display": "Entrance Hall", "areaId": 0, "hideWorld": 0, },1281: { "worldId": 5, "name": "Parlor", "display": "Parlor", "areaId": 1, "hideWorld": 0, },1286: { "worldId": 5, "name": "BeastCourtyard", "display": "Courtyard", "areaId": 6, "hideWorld": 0, },1282: { "worldId": 5, "name": "BelleRoom", "display": "Belle’s Room", "areaId": 2, "hideWorld": 0, },1287: { "worldId": 5, "name": "EastWing", "display": "The East Wing", "areaId": 7, "hideWorld": 0, },1284: { "worldId": 5, "name": "Ballroom", "display": "Ballroom", "areaId": 4, "hideWorld": 0, },1288: { "worldId": 5, "name": "WestHall", "display": "The West Hall", "areaId": 8, "hideWorld": 0, },1291: { "worldId": 5, "name": "Undercroft", "display": "Undercroft", "areaId": 11, "hideWorld": 0, },1290: { "worldId": 5, "name": "Dungeon", "display": "Dungeon", "areaId": 10, "hideWorld": 0, },1292: { "worldId": 5, "name": "SecretPassage", "display": "Secret Passage", "areaId": 12, "hideWorld": 0, },1289: { "worldId": 5, "name": "WestWing", "display": "The West Wing", "areaId": 9, "hideWorld": 0, },1283: { "worldId": 5, "name": "BeastRoom", "display": "The Beast’s Room", "areaId": 3, "hideWorld": 0, },1285: { "worldId": 5, "name": "BallroomBattle", "display": "Ballroom", "areaId": 5, "hideWorld": 0, },2304: { "worldId": 9, "name": "Book", "display": "The Hundred Acre Wood", "areaId": 0, "hideWorld": 1, },2306: { "worldId": 9, "name": "PoohHouse", "display": "Pooh Bear’s House", "areaId": 2, "hideWorld": 0, },1542: { "worldId": 6, "name": "HadesChamber", "display": "Hades’ Chamber", "areaId": 6, "hideWorld": 0, },1541: { "worldId": 6, "name": "ValleyOfTheDead", "display": "Valley of the Dead", "areaId": 5, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4259,6 +4271,98 @@
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <f aca="false">B68+C68*256</f>
+        <v>1542</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A68,": { ""worldId"": ",C68,", ""name"": """,D68,""", ""display"": """,E68,""", ""areaId"": ",B68,", ""hideWorld"": ",F68,", },")</f>
+        <v>1542: { "worldId": 6, "name": "HadesChamber", "display": "Hades’ Chamber", "areaId": 6, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <f aca="false">B69+C69*256</f>
+        <v>1541</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A69,": { ""worldId"": ",C69,", ""name"": """,D69,""", ""display"": """,E69,""", ""areaId"": ",B69,", ""hideWorld"": ",F69,", },")</f>
+        <v>1541: { "worldId": 6, "name": "ValleyOfTheDead", "display": "Valley of the Dead", "areaId": 5, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <f aca="false">B70+C70*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <f aca="false">B71+C71*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <f aca="false">B72+C72*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <f aca="false">B73+C73*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <f aca="false">B74+C74*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <f aca="false">B75+C75*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <f aca="false">B76+C76*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <f aca="false">B77+C77*256</f>
         <v>0</v>
       </c>
     </row>
@@ -4287,14 +4391,14 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4318,10 +4422,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A2,": { ""id"": ",A2,", ""name"": """,B2,""" },")</f>
@@ -4330,10 +4434,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A3,": { ""id"": ",A3,", ""name"": """,B3,""" },")</f>
@@ -4342,10 +4446,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A4,": { ""id"": ",A4,", ""name"": """,B4,""" },")</f>
@@ -4354,10 +4458,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C5" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A5,": { ""id"": ",A5,", ""name"": """,B5,""" },")</f>
@@ -4366,10 +4470,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C6" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A6,": { ""id"": ",A6,", ""name"": """,B6,""" },")</f>
@@ -4378,10 +4482,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C7" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A7,": { ""id"": ",A7,", ""name"": """,B7,""" },")</f>
@@ -4390,10 +4494,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C8" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A8,": { ""id"": ",A8,", ""name"": """,B8,""" },")</f>
@@ -4402,10 +4506,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A9,": { ""id"": ",A9,", ""name"": """,B9,""" },")</f>
@@ -4414,10 +4518,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C10" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A10,": { ""id"": ",A10,", ""name"": """,B10,""" },")</f>
@@ -4426,10 +4530,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A11,": { ""id"": ",A11,", ""name"": """,B11,""" },")</f>
@@ -4438,10 +4542,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A12,": { ""id"": ",A12,", ""name"": """,B12,""" },")</f>
@@ -4514,7 +4618,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.77"/>
@@ -4531,37 +4635,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -4576,28 +4680,28 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
@@ -4615,25 +4719,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
@@ -4654,25 +4758,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>171</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
@@ -4693,25 +4797,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
@@ -4732,25 +4836,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
@@ -4771,25 +4875,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
@@ -4810,25 +4914,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -4849,25 +4953,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -4888,25 +4992,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -4927,25 +5031,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -4966,25 +5070,25 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -5005,25 +5109,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -5044,25 +5148,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -5083,25 +5187,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -5122,25 +5226,25 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
@@ -5161,25 +5265,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>171</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -5200,25 +5304,25 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -5239,25 +5343,25 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -5278,25 +5382,25 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -5317,25 +5421,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
@@ -5356,25 +5460,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>0</v>
@@ -5395,25 +5499,25 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0</v>
@@ -5434,25 +5538,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
@@ -5473,25 +5577,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
@@ -5512,25 +5616,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
@@ -5551,25 +5655,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
@@ -5590,25 +5694,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
@@ -5629,25 +5733,25 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0</v>
@@ -5668,25 +5772,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0</v>
@@ -5707,25 +5811,25 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
@@ -5746,25 +5850,25 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0</v>
@@ -5785,25 +5889,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
@@ -5824,25 +5928,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
@@ -5863,25 +5967,25 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
@@ -5902,25 +6006,25 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C36" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
@@ -5941,25 +6045,25 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1</v>
@@ -5980,25 +6084,25 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>0</v>
@@ -6019,25 +6123,25 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C39" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D39" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1</v>
@@ -6058,25 +6162,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C40" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
@@ -6097,25 +6201,25 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C41" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
@@ -6136,25 +6240,25 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>255</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>0</v>
@@ -6175,25 +6279,25 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>241</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
@@ -6214,25 +6318,25 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C44" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0</v>
@@ -6253,25 +6357,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
@@ -6292,25 +6396,25 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0</v>
@@ -6331,25 +6435,25 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B47" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>267</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
@@ -6370,25 +6474,25 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
@@ -6409,25 +6513,25 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
@@ -6448,25 +6552,25 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C50" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
@@ -6487,25 +6591,25 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C51" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>1</v>
@@ -6526,25 +6630,25 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C52" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D52" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1</v>
@@ -6565,25 +6669,25 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C53" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D53" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1</v>
@@ -6604,25 +6708,25 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C54" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>241</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>0</v>
@@ -6643,25 +6747,25 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C55" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>241</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>0</v>
@@ -6682,25 +6786,25 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C56" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>241</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>0</v>
@@ -6721,25 +6825,25 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C57" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
@@ -6760,25 +6864,25 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C58" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0</v>
@@ -6799,25 +6903,25 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B59" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>293</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>0</v>
@@ -6838,25 +6942,25 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C60" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>0</v>
@@ -6877,25 +6981,25 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C61" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>0</v>
@@ -6916,25 +7020,25 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C62" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D62" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0</v>
@@ -6955,25 +7059,25 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C63" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>0</v>
@@ -6994,25 +7098,25 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B64" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G64" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>304</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>0</v>
@@ -7033,25 +7137,25 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C65" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D65" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>241</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>0</v>
@@ -7072,25 +7176,25 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C66" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D66" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>0</v>
@@ -7111,25 +7215,25 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C67" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D67" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>0</v>
@@ -7150,25 +7254,25 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>0</v>
@@ -7189,25 +7293,25 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C69" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D69" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>0</v>
@@ -7228,25 +7332,25 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C70" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D70" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E70" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>0</v>
@@ -7267,25 +7371,25 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>0</v>
@@ -7306,25 +7410,25 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C72" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D72" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>241</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>0</v>
@@ -7345,25 +7449,25 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C73" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>0</v>
@@ -7384,25 +7488,25 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>0</v>
@@ -7423,25 +7527,25 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>1</v>
@@ -7462,25 +7566,25 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>1</v>
@@ -7501,25 +7605,25 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B77" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D77" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>332</v>
-      </c>
       <c r="E77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>1</v>
@@ -7540,25 +7644,25 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>1</v>
@@ -7579,25 +7683,25 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>1</v>
@@ -7618,25 +7722,25 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>1</v>
@@ -7657,25 +7761,25 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>1</v>
@@ -7696,25 +7800,25 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>1</v>
@@ -7735,25 +7839,25 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>1</v>
@@ -7774,25 +7878,25 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>1</v>
@@ -7813,25 +7917,25 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>1</v>
@@ -7852,25 +7956,25 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>1</v>
@@ -7891,25 +7995,25 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>1</v>
@@ -7930,25 +8034,25 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>1</v>
@@ -7969,25 +8073,25 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>1</v>
@@ -8008,25 +8112,25 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>1</v>
@@ -8047,25 +8151,25 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>1</v>
@@ -8086,25 +8190,25 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B92" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G92" s="0" t="s">
         <v>364</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="E92" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="G92" s="0" t="s">
-        <v>360</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>1</v>
@@ -8125,25 +8229,25 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>1</v>
@@ -8164,25 +8268,25 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>0</v>
@@ -8203,25 +8307,25 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>0</v>
@@ -8242,25 +8346,25 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="D96" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G96" s="0" t="s">
         <v>374</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="E96" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>370</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>0</v>
@@ -8281,25 +8385,25 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>1</v>
@@ -8320,25 +8424,25 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>1</v>
@@ -8359,25 +8463,25 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B99" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G99" s="0" t="s">
         <v>380</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="E99" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="G99" s="0" t="s">
-        <v>376</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>1</v>
@@ -8398,25 +8502,25 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>1</v>
@@ -8437,25 +8541,25 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>1</v>
@@ -8476,25 +8580,25 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B102" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G102" s="0" t="s">
         <v>386</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="E102" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="G102" s="0" t="s">
-        <v>382</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>1</v>
@@ -8515,25 +8619,25 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>0</v>
@@ -8554,25 +8658,25 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>0</v>
@@ -8593,25 +8697,25 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>0</v>
@@ -8632,25 +8736,25 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>1</v>
@@ -8671,25 +8775,25 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>1</v>
@@ -8710,25 +8814,25 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B108" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G108" s="0" t="s">
         <v>398</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="E108" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="G108" s="0" t="s">
-        <v>394</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>1</v>
@@ -8749,25 +8853,25 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I109" s="0" t="n">
         <v>0</v>
@@ -8785,25 +8889,25 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I110" s="0" t="n">
         <v>0</v>
@@ -8821,25 +8925,25 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I111" s="0" t="n">
         <v>0</v>
@@ -8857,25 +8961,25 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I112" s="0" t="n">
         <v>0</v>
@@ -8893,25 +8997,25 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I113" s="0" t="n">
         <v>0</v>
@@ -8929,25 +9033,25 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I114" s="0" t="n">
         <v>3</v>
@@ -8965,25 +9069,25 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I115" s="0" t="n">
         <v>0</v>
@@ -9001,25 +9105,25 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I116" s="0" t="n">
         <v>0</v>
@@ -9037,25 +9141,25 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I117" s="0" t="n">
         <v>0</v>
@@ -9073,25 +9177,25 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I118" s="0" t="n">
         <v>0</v>
@@ -9109,25 +9213,25 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I119" s="0" t="n">
         <v>0</v>
@@ -9145,25 +9249,25 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I120" s="0" t="n">
         <v>0</v>
@@ -9181,25 +9285,25 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I121" s="0" t="n">
         <v>1</v>
@@ -9217,25 +9321,25 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I122" s="0" t="n">
         <v>1</v>
@@ -9253,25 +9357,25 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C123" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="D123" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G123" s="0" t="s">
         <v>430</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="E123" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F123" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="G123" s="0" t="s">
-        <v>426</v>
       </c>
       <c r="I123" s="0" t="n">
         <v>1</v>
@@ -9289,25 +9393,25 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I124" s="0" t="n">
         <v>1</v>
@@ -9325,25 +9429,25 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I125" s="0" t="n">
         <v>1</v>
@@ -9361,25 +9465,25 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I126" s="0" t="n">
         <v>1</v>
@@ -9397,25 +9501,25 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I127" s="0" t="n">
         <v>1</v>
@@ -9433,25 +9537,25 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I128" s="0" t="n">
         <v>1</v>
@@ -9469,25 +9573,25 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I129" s="0" t="n">
         <v>2</v>
@@ -9505,25 +9609,25 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I130" s="0" t="n">
         <v>3</v>
@@ -9541,25 +9645,25 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I131" s="0" t="n">
         <v>1</v>
@@ -9577,25 +9681,25 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I132" s="0" t="n">
         <v>0</v>
@@ -9613,25 +9717,25 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I133" s="0" t="n">
         <v>0</v>
@@ -9649,25 +9753,25 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B134" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="C134" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="C134" s="0" t="s">
-        <v>449</v>
-      </c>
       <c r="D134" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I134" s="0" t="n">
         <v>0</v>
@@ -9685,25 +9789,25 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I135" s="0" t="n">
         <v>0</v>
@@ -9721,25 +9825,25 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I136" s="0" t="n">
         <v>0</v>
@@ -9757,25 +9861,25 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I137" s="0" t="n">
         <v>0</v>
@@ -9793,25 +9897,25 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I138" s="0" t="n">
         <v>0</v>
@@ -9829,25 +9933,25 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I139" s="0" t="n">
         <v>0</v>
@@ -9865,25 +9969,25 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I140" s="0" t="n">
         <v>0</v>
@@ -9901,25 +10005,25 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I141" s="0" t="n">
         <v>0</v>
@@ -9937,25 +10041,25 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I142" s="0" t="n">
         <v>0</v>
@@ -9973,25 +10077,25 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I143" s="0" t="n">
         <v>0</v>
@@ -10009,25 +10113,25 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I144" s="0" t="n">
         <v>0</v>
@@ -10045,25 +10149,25 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I145" s="0" t="n">
         <v>0</v>
@@ -10081,25 +10185,25 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I146" s="0" t="n">
         <v>0</v>
@@ -10117,25 +10221,25 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I147" s="0" t="n">
         <v>0</v>
@@ -10153,25 +10257,25 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I148" s="0" t="n">
         <v>0</v>
@@ -10189,25 +10293,25 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I149" s="0" t="n">
         <v>0</v>
@@ -10225,25 +10329,25 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I150" s="0" t="n">
         <v>0</v>
@@ -10261,25 +10365,25 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I151" s="0" t="n">
         <v>0</v>
@@ -10297,25 +10401,25 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I152" s="0" t="n">
         <v>0</v>
@@ -10333,25 +10437,25 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I153" s="0" t="n">
         <v>0</v>
@@ -10369,25 +10473,25 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I154" s="0" t="n">
         <v>0</v>
@@ -10405,25 +10509,25 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="I155" s="0" t="n">
         <v>1</v>
@@ -10441,25 +10545,25 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="I156" s="0" t="n">
         <v>2</v>
@@ -10477,25 +10581,25 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B157" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D157" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="C157" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>496</v>
-      </c>
       <c r="E157" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="I157" s="0" t="n">
         <v>3</v>
@@ -10513,25 +10617,25 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="I158" s="0" t="n">
         <v>1</v>
@@ -10549,25 +10653,25 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I159" s="0" t="n">
         <v>0</v>
@@ -10585,25 +10689,25 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I160" s="0" t="n">
         <v>0</v>
@@ -10621,25 +10725,25 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I161" s="0" t="n">
         <v>0</v>
@@ -10657,25 +10761,25 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I162" s="0" t="n">
         <v>0</v>
@@ -10693,25 +10797,25 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I163" s="0" t="n">
         <v>0</v>
@@ -10729,25 +10833,25 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I164" s="0" t="n">
         <v>0</v>
@@ -10765,25 +10869,25 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I165" s="0" t="n">
         <v>0</v>
@@ -10801,25 +10905,25 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I166" s="0" t="n">
         <v>0</v>
@@ -10837,25 +10941,25 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I167" s="0" t="n">
         <v>0</v>
@@ -10873,25 +10977,25 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I168" s="0" t="n">
         <v>0</v>
@@ -10909,25 +11013,25 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I169" s="0" t="n">
         <v>0</v>
@@ -10945,25 +11049,25 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B170" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="C170" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="C170" s="0" t="s">
-        <v>523</v>
-      </c>
       <c r="D170" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I170" s="0" t="n">
         <v>0</v>
@@ -10981,25 +11085,25 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I171" s="0" t="n">
         <v>0</v>
@@ -11017,25 +11121,25 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I172" s="0" t="n">
         <v>0</v>
@@ -11053,25 +11157,25 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I173" s="0" t="n">
         <v>0</v>
@@ -11089,25 +11193,25 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I174" s="0" t="n">
         <v>0</v>
@@ -11125,25 +11229,25 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B175" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="C175" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="C175" s="0" t="s">
-        <v>534</v>
-      </c>
       <c r="D175" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I175" s="0" t="n">
         <v>0</v>
@@ -11161,25 +11265,25 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I176" s="0" t="n">
         <v>0</v>
@@ -11197,25 +11301,25 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I177" s="0" t="n">
         <v>0</v>
@@ -11233,25 +11337,25 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I178" s="0" t="n">
         <v>0</v>
@@ -11269,25 +11373,25 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I179" s="0" t="n">
         <v>0</v>
@@ -11305,25 +11409,25 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I180" s="0" t="n">
         <v>0</v>
@@ -11341,25 +11445,25 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I181" s="0" t="n">
         <v>0</v>
@@ -11377,25 +11481,25 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I182" s="0" t="n">
         <v>0</v>
@@ -11413,25 +11517,25 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I183" s="0" t="n">
         <v>0</v>
@@ -11449,25 +11553,25 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I184" s="0" t="n">
         <v>0</v>
@@ -11485,25 +11589,25 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I185" s="0" t="n">
         <v>0</v>
@@ -11521,25 +11625,25 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I186" s="0" t="n">
         <v>0</v>
@@ -11557,25 +11661,25 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I187" s="0" t="n">
         <v>0</v>
@@ -11593,25 +11697,25 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I188" s="0" t="n">
         <v>0</v>
@@ -11629,25 +11733,25 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I189" s="0" t="n">
         <v>0</v>
@@ -11665,25 +11769,25 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I190" s="0" t="n">
         <v>0</v>
@@ -11701,25 +11805,25 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I191" s="0" t="n">
         <v>0</v>
@@ -11737,25 +11841,25 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I192" s="0" t="n">
         <v>0</v>
@@ -11773,25 +11877,25 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I193" s="0" t="n">
         <v>0</v>
@@ -11809,25 +11913,25 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I194" s="0" t="n">
         <v>0</v>
@@ -11845,25 +11949,25 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="C195" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="B195" s="0" t="s">
-        <v>577</v>
-      </c>
-      <c r="C195" s="0" t="s">
-        <v>572</v>
-      </c>
       <c r="D195" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I195" s="0" t="n">
         <v>0</v>
@@ -11881,25 +11985,25 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I196" s="0" t="n">
         <v>0</v>
@@ -11917,25 +12021,25 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I197" s="0" t="n">
         <v>0</v>
@@ -11953,25 +12057,25 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I198" s="0" t="n">
         <v>0</v>
@@ -11989,25 +12093,25 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I199" s="0" t="n">
         <v>0</v>
@@ -12025,25 +12129,25 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I200" s="0" t="n">
         <v>0</v>
@@ -12061,25 +12165,25 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I201" s="0" t="n">
         <v>0</v>
@@ -12097,25 +12201,25 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I202" s="0" t="n">
         <v>0</v>
@@ -12133,25 +12237,25 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I203" s="0" t="n">
         <v>0</v>
@@ -12169,25 +12273,25 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I204" s="0" t="n">
         <v>0</v>
@@ -12205,25 +12309,25 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I205" s="0" t="n">
         <v>0</v>
@@ -12241,25 +12345,25 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I206" s="0" t="n">
         <v>0</v>
@@ -12277,25 +12381,25 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I207" s="0" t="n">
         <v>0</v>
@@ -12313,25 +12417,25 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E208" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I208" s="0" t="n">
         <v>0</v>
@@ -12349,25 +12453,25 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I209" s="0" t="n">
         <v>0</v>
@@ -12385,25 +12489,25 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I210" s="0" t="n">
         <v>0</v>
@@ -12421,25 +12525,25 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B211" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="C211" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="C211" s="0" t="s">
-        <v>597</v>
-      </c>
       <c r="D211" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I211" s="0" t="n">
         <v>0</v>
@@ -12457,25 +12561,25 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I212" s="0" t="n">
         <v>0</v>
@@ -12493,25 +12597,25 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E213" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I213" s="0" t="n">
         <v>0</v>
@@ -12529,25 +12633,25 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E214" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I214" s="0" t="n">
         <v>0</v>
@@ -12565,25 +12669,25 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E215" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I215" s="0" t="n">
         <v>0</v>
@@ -12601,25 +12705,25 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E216" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I216" s="0" t="n">
         <v>0</v>
@@ -12637,25 +12741,25 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E217" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I217" s="0" t="n">
         <v>0</v>
@@ -12673,25 +12777,25 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E218" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I218" s="0" t="n">
         <v>0</v>
@@ -12709,25 +12813,25 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E219" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I219" s="0" t="n">
         <v>0</v>
@@ -12745,25 +12849,25 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E220" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I220" s="0" t="n">
         <v>0</v>
@@ -12781,25 +12885,25 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B221" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="C221" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="C221" s="0" t="s">
-        <v>618</v>
-      </c>
       <c r="D221" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E221" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I221" s="0" t="n">
         <v>0</v>
@@ -12817,25 +12921,25 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E222" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G222" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I222" s="0" t="n">
         <v>0</v>
@@ -12853,25 +12957,25 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E223" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G223" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I223" s="0" t="n">
         <v>0</v>
@@ -12889,25 +12993,25 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E224" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I224" s="0" t="n">
         <v>0</v>
@@ -12925,25 +13029,25 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E225" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G225" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I225" s="0" t="n">
         <v>0</v>
@@ -12961,25 +13065,25 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E226" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G226" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I226" s="0" t="n">
         <v>0</v>
@@ -12997,25 +13101,25 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E227" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G227" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I227" s="0" t="n">
         <v>0</v>
@@ -13033,25 +13137,25 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E228" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="I228" s="0" t="n">
         <v>0</v>
@@ -13069,25 +13173,25 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="C229" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="B229" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>634</v>
-      </c>
       <c r="D229" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E229" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G229" s="0" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="I229" s="0" t="n">
         <v>0</v>
@@ -13105,25 +13209,25 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B230" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="E230" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F230" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G230" s="0" t="s">
         <v>641</v>
-      </c>
-      <c r="C230" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="D230" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="E230" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F230" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="G230" s="0" t="s">
-        <v>637</v>
       </c>
       <c r="I230" s="0" t="n">
         <v>0</v>
@@ -13141,25 +13245,25 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E231" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="I231" s="0" t="n">
         <v>0</v>
@@ -13177,25 +13281,25 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E232" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="I232" s="0" t="n">
         <v>0</v>
@@ -13213,25 +13317,25 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E233" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="I233" s="0" t="n">
         <v>0</v>
@@ -13249,25 +13353,25 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E234" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="I234" s="0" t="n">
         <v>0</v>
@@ -13285,25 +13389,25 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B235" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="D235" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="E235" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="G235" s="0" t="s">
         <v>651</v>
-      </c>
-      <c r="C235" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="D235" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="E235" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F235" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="G235" s="0" t="s">
-        <v>647</v>
       </c>
       <c r="I235" s="0" t="n">
         <v>0</v>
@@ -13321,25 +13425,25 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E236" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="I236" s="0" t="n">
         <v>0</v>
@@ -13357,25 +13461,25 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E237" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="I237" s="0" t="n">
         <v>0</v>
@@ -13393,25 +13497,25 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E238" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="I238" s="0" t="n">
         <v>0</v>
@@ -13429,25 +13533,25 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E239" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="I239" s="0" t="n">
         <v>0</v>
@@ -13465,25 +13569,25 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B240" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="E240" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G240" s="0" t="s">
         <v>662</v>
-      </c>
-      <c r="C240" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="D240" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="E240" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F240" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="G240" s="0" t="s">
-        <v>658</v>
       </c>
       <c r="I240" s="0" t="n">
         <v>0</v>
@@ -13501,25 +13605,25 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E241" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="I241" s="0" t="n">
         <v>0</v>
@@ -13537,25 +13641,25 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E242" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I242" s="0" t="n">
         <v>0</v>
@@ -13573,25 +13677,25 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E243" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="I243" s="0" t="n">
         <v>0</v>
@@ -13609,25 +13713,25 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E244" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="I244" s="0" t="n">
         <v>0</v>
@@ -13645,25 +13749,25 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E245" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="I245" s="0" t="n">
         <v>0</v>
@@ -13681,25 +13785,25 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E246" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H246" s="0" t="n">
         <v>0</v>
@@ -13720,25 +13824,25 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E247" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H247" s="0" t="n">
         <v>0</v>
@@ -13759,25 +13863,25 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B248" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="C248" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="C248" s="0" t="s">
-        <v>676</v>
-      </c>
       <c r="D248" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E248" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H248" s="0" t="n">
         <v>1</v>
@@ -13798,25 +13902,25 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E249" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H249" s="0" t="n">
         <v>0</v>
@@ -13837,25 +13941,25 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E250" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H250" s="0" t="n">
         <v>0</v>
@@ -13876,25 +13980,25 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E251" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H251" s="0" t="n">
         <v>0</v>
@@ -13915,25 +14019,25 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E252" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G252" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H252" s="0" t="n">
         <v>0</v>
@@ -13954,25 +14058,25 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E253" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G253" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H253" s="0" t="n">
         <v>0</v>
@@ -13992,7 +14096,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D253"/>
+  <autoFilter ref="A1:C127"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -14015,7 +14119,7 @@
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
@@ -14029,25 +14133,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14101,13 +14205,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14164,16 +14268,16 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14232,7 +14336,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Kingdom Hearts II Final Mix.xlsx
+++ b/Kingdom Hearts II Final Mix.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Stats - Terra" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$1:$C$127</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$D$1:$D$253</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$D$1:$D$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$1:$C$127</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Commands!$C$1:$C$127</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="728">
   <si>
     <t xml:space="preserve">World ID</t>
   </si>
@@ -449,6 +449,66 @@
   </si>
   <si>
     <t xml:space="preserve">Valley of the Dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CaveOfTheDeadInnerChamber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cave of the Dead: Inner Chamber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CaveOfTheDeadPassage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cave of the Dead: Passage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnderworldEntrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underworld Entrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CaveOfTheDeadEntrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cave of the Dead: Entrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColiseumGates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coliseum Gates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColiseumFoyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coliseum Foyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coliseum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Coliseum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnderworldCavernsEntrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underworld Caverns: Entrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnderworldCavernsLostRoad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underworld Caverns: The Lost Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnderworldCavernsAtrium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underworld Caverns: Atrium</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -2279,7 +2339,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
@@ -2574,12 +2634,12 @@
   <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C70" activeCellId="0" sqref="C70"/>
+      <selection pane="bottomLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.76"/>
@@ -2615,7 +2675,7 @@
       </c>
       <c r="I1" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(G2:G1006)</f>
-        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },544: { "worldId": 2, "name": "StationOfSerenity", "display": "Station of Serenity", "areaId": 32, "hideWorld": 1, },545: { "worldId": 2, "name": "StationOfCalling", "display": "Station of Calling", "areaId": 33, "hideWorld": 1, },546: { "worldId": 2, "name": "StationOfAwakening", "display": "Station of Awakening", "areaId": 34, "hideWorld": 1, },517: { "worldId": 2, "name": "SandlotBattlefield", "display": "Sandlot", "areaId": 5, "hideWorld": 0, },521: { "worldId": 2, "name": "CentralStation", "display": "Central Station", "areaId": 9, "hideWorld": 0, },537: { "worldId": 2, "name": "Tower", "display": "The Tower", "areaId": 25, "hideWorld": 1, },541: { "worldId": 2, "name": "StarChamber", "display": "Tower: Star Chamber", "areaId": 29, "hideWorld": 1, },543: { "worldId": 2, "name": "WaywardStairs", "display": "Tower: Wayward Stairs", "areaId": 31, "hideWorld": 1, },550: { "worldId": 2, "name": "WaywardStairs2", "display": "Tower: Wayward Stairs", "areaId": 38, "hideWorld": 1, },542: { "worldId": 2, "name": "MoonChamber", "display": "Tower: Moon Chamber", "areaId": 30, "hideWorld": 1, },551: { "worldId": 2, "name": "WaywardStairs3", "display": "Tower: Wayward Stairs", "areaId": 39, "hideWorld": 1, },539: { "worldId": 2, "name": "SorcererLoft", "display": "Tower: Sorcerer’s Loft", "areaId": 27, "hideWorld": 1, },540: { "worldId": 2, "name": "Wardrobe", "display": "Tower: Wardrobe", "areaId": 28, "hideWorld": 1, },3840: { "worldId": 15, "name": "WorldMap", "display": "World Map", "areaId": 0, "hideWorld": 1, },1024: { "worldId": 4, "name": "VillainVale", "display": "Villain’s Vale", "areaId": 0, "hideWorld": 0, },1034: { "worldId": 4, "name": "Marketplace", "display": "Marketplace", "areaId": 10, "hideWorld": 0, },1033: { "worldId": 4, "name": "Borough", "display": "Borough", "areaId": 9, "hideWorld": 0, },1037: { "worldId": 4, "name": "Merlin", "display": "Merlin’s House", "areaId": 13, "hideWorld": 0, },2048: { "worldId": 8, "name": "BambooGrove", "display": "Bamboo Grove", "areaId": 0, "hideWorld": 0, },2049: { "worldId": 8, "name": "Encampment", "display": "Encampment", "areaId": 1, "hideWorld": 0, },2050: { "worldId": 8, "name": "Checkpoint", "display": "Checkpoint", "areaId": 2, "hideWorld": 0, },2052: { "worldId": 8, "name": "Village", "display": "Village", "areaId": 4, "hideWorld": 0, },2051: { "worldId": 8, "name": "MountainTrail", "display": "Mountain Trail", "areaId": 3, "hideWorld": 0, },2053: { "worldId": 8, "name": "VillageCave", "display": "Village Cave", "areaId": 5, "hideWorld": 0, },2060: { "worldId": 8, "name": "RuinedVillage", "display": "Village", "areaId": 12, "hideWorld": 0, },2054: { "worldId": 8, "name": "Ridge", "display": "Ridge", "areaId": 6, "hideWorld": 0, },2055: { "worldId": 8, "name": "Summit", "display": "Summit", "areaId": 7, "hideWorld": 0, },2056: { "worldId": 8, "name": "ImperialSquare", "display": "Imperial Square", "areaId": 8, "hideWorld": 0, },2057: { "worldId": 8, "name": "PalaceGate", "display": "Palace Gate", "areaId": 9, "hideWorld": 0, },1280: { "worldId": 5, "name": "EntranceHall", "display": "Entrance Hall", "areaId": 0, "hideWorld": 0, },1281: { "worldId": 5, "name": "Parlor", "display": "Parlor", "areaId": 1, "hideWorld": 0, },1286: { "worldId": 5, "name": "BeastCourtyard", "display": "Courtyard", "areaId": 6, "hideWorld": 0, },1282: { "worldId": 5, "name": "BelleRoom", "display": "Belle’s Room", "areaId": 2, "hideWorld": 0, },1287: { "worldId": 5, "name": "EastWing", "display": "The East Wing", "areaId": 7, "hideWorld": 0, },1284: { "worldId": 5, "name": "Ballroom", "display": "Ballroom", "areaId": 4, "hideWorld": 0, },1288: { "worldId": 5, "name": "WestHall", "display": "The West Hall", "areaId": 8, "hideWorld": 0, },1291: { "worldId": 5, "name": "Undercroft", "display": "Undercroft", "areaId": 11, "hideWorld": 0, },1290: { "worldId": 5, "name": "Dungeon", "display": "Dungeon", "areaId": 10, "hideWorld": 0, },1292: { "worldId": 5, "name": "SecretPassage", "display": "Secret Passage", "areaId": 12, "hideWorld": 0, },1289: { "worldId": 5, "name": "WestWing", "display": "The West Wing", "areaId": 9, "hideWorld": 0, },1283: { "worldId": 5, "name": "BeastRoom", "display": "The Beast’s Room", "areaId": 3, "hideWorld": 0, },1285: { "worldId": 5, "name": "BallroomBattle", "display": "Ballroom", "areaId": 5, "hideWorld": 0, },2304: { "worldId": 9, "name": "Book", "display": "The Hundred Acre Wood", "areaId": 0, "hideWorld": 1, },2306: { "worldId": 9, "name": "PoohHouse", "display": "Pooh Bear’s House", "areaId": 2, "hideWorld": 0, },1542: { "worldId": 6, "name": "HadesChamber", "display": "Hades’ Chamber", "areaId": 6, "hideWorld": 0, },1541: { "worldId": 6, "name": "ValleyOfTheDead", "display": "Valley of the Dead", "areaId": 5, "hideWorld": 0, },</v>
+        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },544: { "worldId": 2, "name": "StationOfSerenity", "display": "Station of Serenity", "areaId": 32, "hideWorld": 1, },545: { "worldId": 2, "name": "StationOfCalling", "display": "Station of Calling", "areaId": 33, "hideWorld": 1, },546: { "worldId": 2, "name": "StationOfAwakening", "display": "Station of Awakening", "areaId": 34, "hideWorld": 1, },517: { "worldId": 2, "name": "SandlotBattlefield", "display": "Sandlot", "areaId": 5, "hideWorld": 0, },521: { "worldId": 2, "name": "CentralStation", "display": "Central Station", "areaId": 9, "hideWorld": 0, },537: { "worldId": 2, "name": "Tower", "display": "The Tower", "areaId": 25, "hideWorld": 1, },541: { "worldId": 2, "name": "StarChamber", "display": "Tower: Star Chamber", "areaId": 29, "hideWorld": 1, },543: { "worldId": 2, "name": "WaywardStairs", "display": "Tower: Wayward Stairs", "areaId": 31, "hideWorld": 1, },550: { "worldId": 2, "name": "WaywardStairs2", "display": "Tower: Wayward Stairs", "areaId": 38, "hideWorld": 1, },542: { "worldId": 2, "name": "MoonChamber", "display": "Tower: Moon Chamber", "areaId": 30, "hideWorld": 1, },551: { "worldId": 2, "name": "WaywardStairs3", "display": "Tower: Wayward Stairs", "areaId": 39, "hideWorld": 1, },539: { "worldId": 2, "name": "SorcererLoft", "display": "Tower: Sorcerer’s Loft", "areaId": 27, "hideWorld": 1, },540: { "worldId": 2, "name": "Wardrobe", "display": "Tower: Wardrobe", "areaId": 28, "hideWorld": 1, },3840: { "worldId": 15, "name": "WorldMap", "display": "World Map", "areaId": 0, "hideWorld": 1, },1024: { "worldId": 4, "name": "VillainVale", "display": "Villain’s Vale", "areaId": 0, "hideWorld": 0, },1034: { "worldId": 4, "name": "Marketplace", "display": "Marketplace", "areaId": 10, "hideWorld": 0, },1033: { "worldId": 4, "name": "Borough", "display": "Borough", "areaId": 9, "hideWorld": 0, },1037: { "worldId": 4, "name": "Merlin", "display": "Merlin’s House", "areaId": 13, "hideWorld": 0, },2048: { "worldId": 8, "name": "BambooGrove", "display": "Bamboo Grove", "areaId": 0, "hideWorld": 0, },2049: { "worldId": 8, "name": "Encampment", "display": "Encampment", "areaId": 1, "hideWorld": 0, },2050: { "worldId": 8, "name": "Checkpoint", "display": "Checkpoint", "areaId": 2, "hideWorld": 0, },2052: { "worldId": 8, "name": "Village", "display": "Village", "areaId": 4, "hideWorld": 0, },2051: { "worldId": 8, "name": "MountainTrail", "display": "Mountain Trail", "areaId": 3, "hideWorld": 0, },2053: { "worldId": 8, "name": "VillageCave", "display": "Village Cave", "areaId": 5, "hideWorld": 0, },2060: { "worldId": 8, "name": "RuinedVillage", "display": "Village", "areaId": 12, "hideWorld": 0, },2054: { "worldId": 8, "name": "Ridge", "display": "Ridge", "areaId": 6, "hideWorld": 0, },2055: { "worldId": 8, "name": "Summit", "display": "Summit", "areaId": 7, "hideWorld": 0, },2056: { "worldId": 8, "name": "ImperialSquare", "display": "Imperial Square", "areaId": 8, "hideWorld": 0, },2057: { "worldId": 8, "name": "PalaceGate", "display": "Palace Gate", "areaId": 9, "hideWorld": 0, },1280: { "worldId": 5, "name": "EntranceHall", "display": "Entrance Hall", "areaId": 0, "hideWorld": 0, },1281: { "worldId": 5, "name": "Parlor", "display": "Parlor", "areaId": 1, "hideWorld": 0, },1286: { "worldId": 5, "name": "BeastCourtyard", "display": "Courtyard", "areaId": 6, "hideWorld": 0, },1282: { "worldId": 5, "name": "BelleRoom", "display": "Belle’s Room", "areaId": 2, "hideWorld": 0, },1287: { "worldId": 5, "name": "EastWing", "display": "The East Wing", "areaId": 7, "hideWorld": 0, },1284: { "worldId": 5, "name": "Ballroom", "display": "Ballroom", "areaId": 4, "hideWorld": 0, },1288: { "worldId": 5, "name": "WestHall", "display": "The West Hall", "areaId": 8, "hideWorld": 0, },1291: { "worldId": 5, "name": "Undercroft", "display": "Undercroft", "areaId": 11, "hideWorld": 0, },1290: { "worldId": 5, "name": "Dungeon", "display": "Dungeon", "areaId": 10, "hideWorld": 0, },1292: { "worldId": 5, "name": "SecretPassage", "display": "Secret Passage", "areaId": 12, "hideWorld": 0, },1289: { "worldId": 5, "name": "WestWing", "display": "The West Wing", "areaId": 9, "hideWorld": 0, },1283: { "worldId": 5, "name": "BeastRoom", "display": "The Beast’s Room", "areaId": 3, "hideWorld": 0, },1285: { "worldId": 5, "name": "BallroomBattle", "display": "Ballroom", "areaId": 5, "hideWorld": 0, },2304: { "worldId": 9, "name": "Book", "display": "The Hundred Acre Wood", "areaId": 0, "hideWorld": 1, },2306: { "worldId": 9, "name": "PoohHouse", "display": "Pooh Bear’s House", "areaId": 2, "hideWorld": 0, },1542: { "worldId": 6, "name": "HadesChamber", "display": "Hades’ Chamber", "areaId": 6, "hideWorld": 0, },1541: { "worldId": 6, "name": "ValleyOfTheDead", "display": "Valley of the Dead", "areaId": 5, "hideWorld": 0, },1546: { "worldId": 6, "name": "CaveOfTheDeadInnerChamber", "display": "Cave of the Dead: Inner Chamber", "areaId": 10, "hideWorld": 0, },1551: { "worldId": 6, "name": "CaveOfTheDeadPassage", "display": "Cave of the Dead: Passage", "areaId": 15, "hideWorld": 0, },1539: { "worldId": 6, "name": "UnderworldEntrance", "display": "Underworld Entrance", "areaId": 3, "hideWorld": 0, },1543: { "worldId": 6, "name": "CaveOfTheDeadEntrance", "display": "Cave of the Dead: Entrance", "areaId": 7, "hideWorld": 0, },1537: { "worldId": 6, "name": "ColiseumGates", "display": "Coliseum Gates", "areaId": 1, "hideWorld": 0, },1540: { "worldId": 6, "name": "ColiseumFoyer", "display": "Coliseum Foyer", "areaId": 4, "hideWorld": 0, },1536: { "worldId": 6, "name": "Coliseum", "display": "The Coliseum", "areaId": 0, "hideWorld": 0, },1547: { "worldId": 6, "name": "UnderworldCavernsEntrance", "display": "Underworld Caverns: Entrance", "areaId": 11, "hideWorld": 0, },1552: { "worldId": 6, "name": "UnderworldCavernsLostRoad", "display": "Underworld Caverns: The Lost Road", "areaId": 16, "hideWorld": 0, },1553: { "worldId": 6, "name": "UnderworldCavernsAtrium", "display": "Underworld Caverns: Atrium", "areaId": 17, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4321,48 +4381,286 @@
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <f aca="false">B70+C70*256</f>
-        <v>0</v>
+        <v>1546</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A70,": { ""worldId"": ",C70,", ""name"": """,D70,""", ""display"": """,E70,""", ""areaId"": ",B70,", ""hideWorld"": ",F70,", },")</f>
+        <v>1546: { "worldId": 6, "name": "CaveOfTheDeadInnerChamber", "display": "Cave of the Dead: Inner Chamber", "areaId": 10, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <f aca="false">B71+C71*256</f>
-        <v>0</v>
+        <v>1551</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A71,": { ""worldId"": ",C71,", ""name"": """,D71,""", ""display"": """,E71,""", ""areaId"": ",B71,", ""hideWorld"": ",F71,", },")</f>
+        <v>1551: { "worldId": 6, "name": "CaveOfTheDeadPassage", "display": "Cave of the Dead: Passage", "areaId": 15, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <f aca="false">B72+C72*256</f>
-        <v>0</v>
+        <v>1539</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A72,": { ""worldId"": ",C72,", ""name"": """,D72,""", ""display"": """,E72,""", ""areaId"": ",B72,", ""hideWorld"": ",F72,", },")</f>
+        <v>1539: { "worldId": 6, "name": "UnderworldEntrance", "display": "Underworld Entrance", "areaId": 3, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <f aca="false">B73+C73*256</f>
-        <v>0</v>
+        <v>1543</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A73,": { ""worldId"": ",C73,", ""name"": """,D73,""", ""display"": """,E73,""", ""areaId"": ",B73,", ""hideWorld"": ",F73,", },")</f>
+        <v>1543: { "worldId": 6, "name": "CaveOfTheDeadEntrance", "display": "Cave of the Dead: Entrance", "areaId": 7, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <f aca="false">B74+C74*256</f>
-        <v>0</v>
+        <v>1537</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A74,": { ""worldId"": ",C74,", ""name"": """,D74,""", ""display"": """,E74,""", ""areaId"": ",B74,", ""hideWorld"": ",F74,", },")</f>
+        <v>1537: { "worldId": 6, "name": "ColiseumGates", "display": "Coliseum Gates", "areaId": 1, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <f aca="false">B75+C75*256</f>
-        <v>0</v>
+        <v>1540</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A75,": { ""worldId"": ",C75,", ""name"": """,D75,""", ""display"": """,E75,""", ""areaId"": ",B75,", ""hideWorld"": ",F75,", },")</f>
+        <v>1540: { "worldId": 6, "name": "ColiseumFoyer", "display": "Coliseum Foyer", "areaId": 4, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <f aca="false">B76+C76*256</f>
-        <v>0</v>
+        <v>1536</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A76,": { ""worldId"": ",C76,", ""name"": """,D76,""", ""display"": """,E76,""", ""areaId"": ",B76,", ""hideWorld"": ",F76,", },")</f>
+        <v>1536: { "worldId": 6, "name": "Coliseum", "display": "The Coliseum", "areaId": 0, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <f aca="false">B77+C77*256</f>
+        <v>1547</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A77,": { ""worldId"": ",C77,", ""name"": """,D77,""", ""display"": """,E77,""", ""areaId"": ",B77,", ""hideWorld"": ",F77,", },")</f>
+        <v>1547: { "worldId": 6, "name": "UnderworldCavernsEntrance", "display": "Underworld Caverns: Entrance", "areaId": 11, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <f aca="false">B78+C78*256</f>
+        <v>1552</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A78,": { ""worldId"": ",C78,", ""name"": """,D78,""", ""display"": """,E78,""", ""areaId"": ",B78,", ""hideWorld"": ",F78,", },")</f>
+        <v>1552: { "worldId": 6, "name": "UnderworldCavernsLostRoad", "display": "Underworld Caverns: The Lost Road", "areaId": 16, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <f aca="false">B79+C79*256</f>
+        <v>1553</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A79,": { ""worldId"": ",C79,", ""name"": """,D79,""", ""display"": """,E79,""", ""areaId"": ",B79,", ""hideWorld"": ",F79,", },")</f>
+        <v>1553: { "worldId": 6, "name": "UnderworldCavernsAtrium", "display": "Underworld Caverns: Atrium", "areaId": 17, "hideWorld": 0, },</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <f aca="false">B80+C80*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <f aca="false">B81+C81*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <f aca="false">B82+C82*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <f aca="false">B83+C83*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <f aca="false">B84+C84*256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <f aca="false">B85+C85*256</f>
         <v>0</v>
       </c>
     </row>
@@ -4391,14 +4689,14 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4422,10 +4720,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A2,": { ""id"": ",A2,", ""name"": """,B2,""" },")</f>
@@ -4434,10 +4732,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A3,": { ""id"": ",A3,", ""name"": """,B3,""" },")</f>
@@ -4446,10 +4744,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A4,": { ""id"": ",A4,", ""name"": """,B4,""" },")</f>
@@ -4458,10 +4756,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C5" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A5,": { ""id"": ",A5,", ""name"": """,B5,""" },")</f>
@@ -4470,10 +4768,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="C6" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A6,": { ""id"": ",A6,", ""name"": """,B6,""" },")</f>
@@ -4482,10 +4780,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C7" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A7,": { ""id"": ",A7,", ""name"": """,B7,""" },")</f>
@@ -4494,10 +4792,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="C8" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A8,": { ""id"": ",A8,", ""name"": """,B8,""" },")</f>
@@ -4506,10 +4804,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A9,": { ""id"": ",A9,", ""name"": """,B9,""" },")</f>
@@ -4518,10 +4816,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="C10" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A10,": { ""id"": ",A10,", ""name"": """,B10,""" },")</f>
@@ -4530,10 +4828,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A11,": { ""id"": ",A11,", ""name"": """,B11,""" },")</f>
@@ -4542,10 +4840,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A12,": { ""id"": ",A12,", ""name"": """,B12,""" },")</f>
@@ -4618,7 +4916,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.77"/>
@@ -4635,37 +4933,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -4680,28 +4978,28 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
@@ -4719,25 +5017,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
@@ -4758,25 +5056,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
@@ -4797,25 +5095,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
@@ -4836,25 +5134,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
@@ -4875,25 +5173,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
@@ -4914,25 +5212,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -4953,25 +5251,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -4992,25 +5290,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -5031,25 +5329,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -5070,25 +5368,25 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="D12" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -5109,25 +5407,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -5148,25 +5446,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -5187,25 +5485,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -5226,25 +5524,25 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
@@ -5265,25 +5563,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -5304,25 +5602,25 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -5343,25 +5641,25 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -5382,25 +5680,25 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -5421,25 +5719,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
@@ -5460,25 +5758,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>0</v>
@@ -5499,25 +5797,25 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0</v>
@@ -5538,25 +5836,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
@@ -5577,25 +5875,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
@@ -5616,25 +5914,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
@@ -5655,25 +5953,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
@@ -5694,25 +5992,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
@@ -5733,25 +6031,25 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0</v>
@@ -5772,25 +6070,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0</v>
@@ -5811,25 +6109,25 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
@@ -5850,25 +6148,25 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0</v>
@@ -5889,25 +6187,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
@@ -5928,25 +6226,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
@@ -5967,25 +6265,25 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
@@ -6006,25 +6304,25 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
@@ -6045,25 +6343,25 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1</v>
@@ -6084,25 +6382,25 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>0</v>
@@ -6123,25 +6421,25 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1</v>
@@ -6162,25 +6460,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
@@ -6201,25 +6499,25 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
@@ -6240,25 +6538,25 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>0</v>
@@ -6279,25 +6577,25 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>245</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
@@ -6318,25 +6616,25 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0</v>
@@ -6357,25 +6655,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
@@ -6396,25 +6694,25 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>252</v>
-      </c>
       <c r="D46" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0</v>
@@ -6435,25 +6733,25 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
@@ -6474,25 +6772,25 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
@@ -6513,25 +6811,25 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
@@ -6552,25 +6850,25 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
@@ -6591,25 +6889,25 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>1</v>
@@ -6630,25 +6928,25 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1</v>
@@ -6669,25 +6967,25 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1</v>
@@ -6708,25 +7006,25 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>0</v>
@@ -6747,25 +7045,25 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>0</v>
@@ -6786,25 +7084,25 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>0</v>
@@ -6825,25 +7123,25 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
@@ -6864,25 +7162,25 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0</v>
@@ -6903,25 +7201,25 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>0</v>
@@ -6942,25 +7240,25 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>0</v>
@@ -6981,25 +7279,25 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>0</v>
@@ -7020,25 +7318,25 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0</v>
@@ -7059,25 +7357,25 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>0</v>
@@ -7098,25 +7396,25 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>0</v>
@@ -7137,25 +7435,25 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>0</v>
@@ -7176,25 +7474,25 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>0</v>
@@ -7215,25 +7513,25 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>0</v>
@@ -7254,25 +7552,25 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>0</v>
@@ -7293,25 +7591,25 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>0</v>
@@ -7332,25 +7630,25 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>0</v>
@@ -7371,25 +7669,25 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>0</v>
@@ -7410,25 +7708,25 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>0</v>
@@ -7449,25 +7747,25 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>0</v>
@@ -7488,25 +7786,25 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>0</v>
@@ -7527,25 +7825,25 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>1</v>
@@ -7566,25 +7864,25 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>1</v>
@@ -7605,25 +7903,25 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>1</v>
@@ -7644,25 +7942,25 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>1</v>
@@ -7683,25 +7981,25 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>1</v>
@@ -7722,25 +8020,25 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>1</v>
@@ -7761,25 +8059,25 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>1</v>
@@ -7800,25 +8098,25 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>1</v>
@@ -7839,25 +8137,25 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>1</v>
@@ -7878,25 +8176,25 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>1</v>
@@ -7917,25 +8215,25 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>1</v>
@@ -7956,25 +8254,25 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D86" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>336</v>
-      </c>
       <c r="E86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>1</v>
@@ -7995,25 +8293,25 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>1</v>
@@ -8034,25 +8332,25 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>1</v>
@@ -8073,25 +8371,25 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>1</v>
@@ -8112,25 +8410,25 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>1</v>
@@ -8151,25 +8449,25 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>1</v>
@@ -8190,25 +8488,25 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>1</v>
@@ -8229,25 +8527,25 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>1</v>
@@ -8268,25 +8566,25 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>0</v>
@@ -8307,25 +8605,25 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>0</v>
@@ -8346,25 +8644,25 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>0</v>
@@ -8385,25 +8683,25 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>1</v>
@@ -8424,25 +8722,25 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>1</v>
@@ -8463,25 +8761,25 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>1</v>
@@ -8502,25 +8800,25 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>1</v>
@@ -8541,25 +8839,25 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>1</v>
@@ -8580,25 +8878,25 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>1</v>
@@ -8619,25 +8917,25 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>0</v>
@@ -8658,25 +8956,25 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>0</v>
@@ -8697,25 +8995,25 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>0</v>
@@ -8736,25 +9034,25 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>1</v>
@@ -8775,25 +9073,25 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>1</v>
@@ -8814,25 +9112,25 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>1</v>
@@ -8853,25 +9151,25 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I109" s="0" t="n">
         <v>0</v>
@@ -8889,25 +9187,25 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I110" s="0" t="n">
         <v>0</v>
@@ -8925,25 +9223,25 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I111" s="0" t="n">
         <v>0</v>
@@ -8961,25 +9259,25 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I112" s="0" t="n">
         <v>0</v>
@@ -8997,25 +9295,25 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I113" s="0" t="n">
         <v>0</v>
@@ -9033,25 +9331,25 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I114" s="0" t="n">
         <v>3</v>
@@ -9069,25 +9367,25 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I115" s="0" t="n">
         <v>0</v>
@@ -9105,25 +9403,25 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I116" s="0" t="n">
         <v>0</v>
@@ -9141,25 +9439,25 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I117" s="0" t="n">
         <v>0</v>
@@ -9177,25 +9475,25 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="I118" s="0" t="n">
         <v>0</v>
@@ -9213,25 +9511,25 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I119" s="0" t="n">
         <v>0</v>
@@ -9249,25 +9547,25 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="I120" s="0" t="n">
         <v>0</v>
@@ -9285,25 +9583,25 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="I121" s="0" t="n">
         <v>1</v>
@@ -9321,25 +9619,25 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="I122" s="0" t="n">
         <v>1</v>
@@ -9357,25 +9655,25 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="I123" s="0" t="n">
         <v>1</v>
@@ -9393,25 +9691,25 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="I124" s="0" t="n">
         <v>1</v>
@@ -9429,25 +9727,25 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="I125" s="0" t="n">
         <v>1</v>
@@ -9465,25 +9763,25 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="I126" s="0" t="n">
         <v>1</v>
@@ -9501,25 +9799,25 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="I127" s="0" t="n">
         <v>1</v>
@@ -9537,25 +9835,25 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="I128" s="0" t="n">
         <v>1</v>
@@ -9573,25 +9871,25 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="I129" s="0" t="n">
         <v>2</v>
@@ -9609,25 +9907,25 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="I130" s="0" t="n">
         <v>3</v>
@@ -9645,25 +9943,25 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C131" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="D131" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G131" s="0" t="s">
         <v>450</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="E131" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F131" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="G131" s="0" t="s">
-        <v>430</v>
       </c>
       <c r="I131" s="0" t="n">
         <v>1</v>
@@ -9681,25 +9979,25 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I132" s="0" t="n">
         <v>0</v>
@@ -9717,25 +10015,25 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I133" s="0" t="n">
         <v>0</v>
@@ -9753,25 +10051,25 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I134" s="0" t="n">
         <v>0</v>
@@ -9789,25 +10087,25 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I135" s="0" t="n">
         <v>0</v>
@@ -9825,25 +10123,25 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I136" s="0" t="n">
         <v>0</v>
@@ -9861,25 +10159,25 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I137" s="0" t="n">
         <v>0</v>
@@ -9897,25 +10195,25 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I138" s="0" t="n">
         <v>0</v>
@@ -9933,25 +10231,25 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I139" s="0" t="n">
         <v>0</v>
@@ -9969,25 +10267,25 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I140" s="0" t="n">
         <v>0</v>
@@ -10005,25 +10303,25 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I141" s="0" t="n">
         <v>0</v>
@@ -10041,25 +10339,25 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="B142" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C142" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="C142" s="0" t="s">
-        <v>453</v>
-      </c>
       <c r="D142" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I142" s="0" t="n">
         <v>0</v>
@@ -10077,25 +10375,25 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I143" s="0" t="n">
         <v>0</v>
@@ -10113,25 +10411,25 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I144" s="0" t="n">
         <v>0</v>
@@ -10149,25 +10447,25 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I145" s="0" t="n">
         <v>0</v>
@@ -10185,25 +10483,25 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I146" s="0" t="n">
         <v>0</v>
@@ -10221,25 +10519,25 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I147" s="0" t="n">
         <v>0</v>
@@ -10257,25 +10555,25 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I148" s="0" t="n">
         <v>0</v>
@@ -10293,25 +10591,25 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I149" s="0" t="n">
         <v>0</v>
@@ -10329,25 +10627,25 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I150" s="0" t="n">
         <v>0</v>
@@ -10365,25 +10663,25 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I151" s="0" t="n">
         <v>0</v>
@@ -10401,25 +10699,25 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I152" s="0" t="n">
         <v>0</v>
@@ -10437,25 +10735,25 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I153" s="0" t="n">
         <v>0</v>
@@ -10473,25 +10771,25 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I154" s="0" t="n">
         <v>0</v>
@@ -10509,25 +10807,25 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="I155" s="0" t="n">
         <v>1</v>
@@ -10545,25 +10843,25 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="I156" s="0" t="n">
         <v>2</v>
@@ -10581,25 +10879,25 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="I157" s="0" t="n">
         <v>3</v>
@@ -10617,25 +10915,25 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="I158" s="0" t="n">
         <v>1</v>
@@ -10653,25 +10951,25 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I159" s="0" t="n">
         <v>0</v>
@@ -10689,25 +10987,25 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I160" s="0" t="n">
         <v>0</v>
@@ -10725,25 +11023,25 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I161" s="0" t="n">
         <v>0</v>
@@ -10761,25 +11059,25 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I162" s="0" t="n">
         <v>0</v>
@@ -10797,25 +11095,25 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I163" s="0" t="n">
         <v>0</v>
@@ -10833,25 +11131,25 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I164" s="0" t="n">
         <v>0</v>
@@ -10869,25 +11167,25 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="B165" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D165" s="0" t="s">
         <v>520</v>
-      </c>
-      <c r="C165" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="D165" s="0" t="s">
-        <v>500</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I165" s="0" t="n">
         <v>0</v>
@@ -10905,25 +11203,25 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I166" s="0" t="n">
         <v>0</v>
@@ -10941,25 +11239,25 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I167" s="0" t="n">
         <v>0</v>
@@ -10977,25 +11275,25 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I168" s="0" t="n">
         <v>0</v>
@@ -11013,25 +11311,25 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I169" s="0" t="n">
         <v>0</v>
@@ -11049,25 +11347,25 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I170" s="0" t="n">
         <v>0</v>
@@ -11085,25 +11383,25 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I171" s="0" t="n">
         <v>0</v>
@@ -11121,25 +11419,25 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I172" s="0" t="n">
         <v>0</v>
@@ -11157,25 +11455,25 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I173" s="0" t="n">
         <v>0</v>
@@ -11193,25 +11491,25 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I174" s="0" t="n">
         <v>0</v>
@@ -11229,25 +11527,25 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I175" s="0" t="n">
         <v>0</v>
@@ -11265,25 +11563,25 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I176" s="0" t="n">
         <v>0</v>
@@ -11301,25 +11599,25 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I177" s="0" t="n">
         <v>0</v>
@@ -11337,25 +11635,25 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I178" s="0" t="n">
         <v>0</v>
@@ -11373,25 +11671,25 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I179" s="0" t="n">
         <v>0</v>
@@ -11409,25 +11707,25 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I180" s="0" t="n">
         <v>0</v>
@@ -11445,25 +11743,25 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I181" s="0" t="n">
         <v>0</v>
@@ -11481,25 +11779,25 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I182" s="0" t="n">
         <v>0</v>
@@ -11517,25 +11815,25 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="B183" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="C183" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="C183" s="0" t="s">
-        <v>538</v>
-      </c>
       <c r="D183" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I183" s="0" t="n">
         <v>0</v>
@@ -11553,25 +11851,25 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I184" s="0" t="n">
         <v>0</v>
@@ -11589,25 +11887,25 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I185" s="0" t="n">
         <v>0</v>
@@ -11625,25 +11923,25 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I186" s="0" t="n">
         <v>0</v>
@@ -11661,25 +11959,25 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I187" s="0" t="n">
         <v>0</v>
@@ -11697,25 +11995,25 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I188" s="0" t="n">
         <v>0</v>
@@ -11733,25 +12031,25 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I189" s="0" t="n">
         <v>0</v>
@@ -11769,25 +12067,25 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I190" s="0" t="n">
         <v>0</v>
@@ -11805,25 +12103,25 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I191" s="0" t="n">
         <v>0</v>
@@ -11841,25 +12139,25 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I192" s="0" t="n">
         <v>0</v>
@@ -11877,25 +12175,25 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I193" s="0" t="n">
         <v>0</v>
@@ -11913,25 +12211,25 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>579</v>
+        <v>599</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I194" s="0" t="n">
         <v>0</v>
@@ -11949,25 +12247,25 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I195" s="0" t="n">
         <v>0</v>
@@ -11985,25 +12283,25 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I196" s="0" t="n">
         <v>0</v>
@@ -12021,25 +12319,25 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I197" s="0" t="n">
         <v>0</v>
@@ -12057,25 +12355,25 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I198" s="0" t="n">
         <v>0</v>
@@ -12093,25 +12391,25 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I199" s="0" t="n">
         <v>0</v>
@@ -12129,25 +12427,25 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I200" s="0" t="n">
         <v>0</v>
@@ -12165,25 +12463,25 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I201" s="0" t="n">
         <v>0</v>
@@ -12201,25 +12499,25 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I202" s="0" t="n">
         <v>0</v>
@@ -12237,25 +12535,25 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I203" s="0" t="n">
         <v>0</v>
@@ -12273,25 +12571,25 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I204" s="0" t="n">
         <v>0</v>
@@ -12309,25 +12607,25 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I205" s="0" t="n">
         <v>0</v>
@@ -12345,25 +12643,25 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I206" s="0" t="n">
         <v>0</v>
@@ -12381,25 +12679,25 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="B207" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="C207" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="C207" s="0" t="s">
-        <v>576</v>
-      </c>
       <c r="D207" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I207" s="0" t="n">
         <v>0</v>
@@ -12417,25 +12715,25 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E208" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I208" s="0" t="n">
         <v>0</v>
@@ -12453,25 +12751,25 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I209" s="0" t="n">
         <v>0</v>
@@ -12489,25 +12787,25 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I210" s="0" t="n">
         <v>0</v>
@@ -12525,25 +12823,25 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I211" s="0" t="n">
         <v>0</v>
@@ -12561,25 +12859,25 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I212" s="0" t="n">
         <v>0</v>
@@ -12597,25 +12895,25 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="E213" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I213" s="0" t="n">
         <v>0</v>
@@ -12633,25 +12931,25 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="E214" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I214" s="0" t="n">
         <v>0</v>
@@ -12669,25 +12967,25 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="E215" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I215" s="0" t="n">
         <v>0</v>
@@ -12705,25 +13003,25 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="E216" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I216" s="0" t="n">
         <v>0</v>
@@ -12741,25 +13039,25 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="E217" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I217" s="0" t="n">
         <v>0</v>
@@ -12777,25 +13075,25 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="E218" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I218" s="0" t="n">
         <v>0</v>
@@ -12813,25 +13111,25 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="E219" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I219" s="0" t="n">
         <v>0</v>
@@ -12849,25 +13147,25 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="E220" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I220" s="0" t="n">
         <v>0</v>
@@ -12885,25 +13183,25 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="E221" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I221" s="0" t="n">
         <v>0</v>
@@ -12921,25 +13219,25 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>628</v>
+        <v>648</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="E222" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G222" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I222" s="0" t="n">
         <v>0</v>
@@ -12957,25 +13255,25 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="E223" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G223" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I223" s="0" t="n">
         <v>0</v>
@@ -12993,25 +13291,25 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="E224" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I224" s="0" t="n">
         <v>0</v>
@@ -13029,25 +13327,25 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="E225" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G225" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I225" s="0" t="n">
         <v>0</v>
@@ -13065,25 +13363,25 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="E226" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G226" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I226" s="0" t="n">
         <v>0</v>
@@ -13101,25 +13399,25 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="E227" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G227" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I227" s="0" t="n">
         <v>0</v>
@@ -13137,25 +13435,25 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E228" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="I228" s="0" t="n">
         <v>0</v>
@@ -13173,25 +13471,25 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E229" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G229" s="0" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="I229" s="0" t="n">
         <v>0</v>
@@ -13209,25 +13507,25 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E230" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="I230" s="0" t="n">
         <v>0</v>
@@ -13245,25 +13543,25 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E231" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="I231" s="0" t="n">
         <v>0</v>
@@ -13281,25 +13579,25 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E232" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="I232" s="0" t="n">
         <v>0</v>
@@ -13317,25 +13615,25 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E233" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="I233" s="0" t="n">
         <v>0</v>
@@ -13353,25 +13651,25 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E234" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="I234" s="0" t="n">
         <v>0</v>
@@ -13389,25 +13687,25 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E235" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="I235" s="0" t="n">
         <v>0</v>
@@ -13425,25 +13723,25 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E236" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="I236" s="0" t="n">
         <v>0</v>
@@ -13461,25 +13759,25 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="C237" s="0" t="s">
         <v>658</v>
       </c>
-      <c r="B237" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="C237" s="0" t="s">
-        <v>638</v>
-      </c>
       <c r="D237" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E237" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="I237" s="0" t="n">
         <v>0</v>
@@ -13497,25 +13795,25 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>661</v>
+        <v>681</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E238" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
       <c r="I238" s="0" t="n">
         <v>0</v>
@@ -13533,25 +13831,25 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>663</v>
+        <v>683</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E239" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
       <c r="I239" s="0" t="n">
         <v>0</v>
@@ -13569,25 +13867,25 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>665</v>
+        <v>685</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>666</v>
+        <v>686</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E240" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
       <c r="I240" s="0" t="n">
         <v>0</v>
@@ -13605,25 +13903,25 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>668</v>
+        <v>688</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E241" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
       <c r="I241" s="0" t="n">
         <v>0</v>
@@ -13641,25 +13939,25 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>669</v>
+        <v>689</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E242" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I242" s="0" t="n">
         <v>0</v>
@@ -13677,25 +13975,25 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="D243" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="E243" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F243" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G243" s="0" t="s">
         <v>671</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="C243" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="D243" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="E243" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F243" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="G243" s="0" t="s">
-        <v>651</v>
       </c>
       <c r="I243" s="0" t="n">
         <v>0</v>
@@ -13713,25 +14011,25 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>673</v>
+        <v>693</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>674</v>
+        <v>694</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E244" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="I244" s="0" t="n">
         <v>0</v>
@@ -13749,25 +14047,25 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>676</v>
+        <v>696</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>677</v>
+        <v>697</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E245" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="I245" s="0" t="n">
         <v>0</v>
@@ -13785,25 +14083,25 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="E246" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H246" s="0" t="n">
         <v>0</v>
@@ -13824,25 +14122,25 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>681</v>
+        <v>701</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>682</v>
+        <v>702</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="E247" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H247" s="0" t="n">
         <v>0</v>
@@ -13863,25 +14161,25 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>684</v>
+        <v>704</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="E248" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H248" s="0" t="n">
         <v>1</v>
@@ -13902,25 +14200,25 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>686</v>
+        <v>706</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="E249" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H249" s="0" t="n">
         <v>0</v>
@@ -13941,25 +14239,25 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>687</v>
+        <v>707</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>688</v>
+        <v>708</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="E250" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H250" s="0" t="n">
         <v>0</v>
@@ -13980,25 +14278,25 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>689</v>
+        <v>709</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="E251" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H251" s="0" t="n">
         <v>0</v>
@@ -14019,25 +14317,25 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>691</v>
+        <v>711</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>692</v>
+        <v>712</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="E252" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G252" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H252" s="0" t="n">
         <v>0</v>
@@ -14058,25 +14356,25 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>694</v>
+        <v>714</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="E253" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G253" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H253" s="0" t="n">
         <v>0</v>
@@ -14096,7 +14394,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C127"/>
+  <autoFilter ref="D1:D253"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -14119,7 +14417,7 @@
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
@@ -14133,25 +14431,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>697</v>
+        <v>717</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>698</v>
+        <v>718</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>699</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14205,13 +14503,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>702</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14268,16 +14566,16 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>703</v>
+        <v>723</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>705</v>
+        <v>725</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>706</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14336,7 +14634,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>707</v>
+        <v>727</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Kingdom Hearts II Final Mix.xlsx
+++ b/Kingdom Hearts II Final Mix.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Stats - Terra" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$D$1:$D$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$1:$C$127</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$1:$C$127</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$D$1:$D$253</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Commands!$C$1:$C$127</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="730">
   <si>
     <t xml:space="preserve">World ID</t>
   </si>
@@ -509,6 +509,12 @@
   </si>
   <si>
     <t xml:space="preserve">Underworld Caverns: Atrium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnderworldLock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lock</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -2339,7 +2345,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
@@ -2636,10 +2642,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.76"/>
@@ -2675,7 +2681,7 @@
       </c>
       <c r="I1" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(G2:G1006)</f>
-        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },544: { "worldId": 2, "name": "StationOfSerenity", "display": "Station of Serenity", "areaId": 32, "hideWorld": 1, },545: { "worldId": 2, "name": "StationOfCalling", "display": "Station of Calling", "areaId": 33, "hideWorld": 1, },546: { "worldId": 2, "name": "StationOfAwakening", "display": "Station of Awakening", "areaId": 34, "hideWorld": 1, },517: { "worldId": 2, "name": "SandlotBattlefield", "display": "Sandlot", "areaId": 5, "hideWorld": 0, },521: { "worldId": 2, "name": "CentralStation", "display": "Central Station", "areaId": 9, "hideWorld": 0, },537: { "worldId": 2, "name": "Tower", "display": "The Tower", "areaId": 25, "hideWorld": 1, },541: { "worldId": 2, "name": "StarChamber", "display": "Tower: Star Chamber", "areaId": 29, "hideWorld": 1, },543: { "worldId": 2, "name": "WaywardStairs", "display": "Tower: Wayward Stairs", "areaId": 31, "hideWorld": 1, },550: { "worldId": 2, "name": "WaywardStairs2", "display": "Tower: Wayward Stairs", "areaId": 38, "hideWorld": 1, },542: { "worldId": 2, "name": "MoonChamber", "display": "Tower: Moon Chamber", "areaId": 30, "hideWorld": 1, },551: { "worldId": 2, "name": "WaywardStairs3", "display": "Tower: Wayward Stairs", "areaId": 39, "hideWorld": 1, },539: { "worldId": 2, "name": "SorcererLoft", "display": "Tower: Sorcerer’s Loft", "areaId": 27, "hideWorld": 1, },540: { "worldId": 2, "name": "Wardrobe", "display": "Tower: Wardrobe", "areaId": 28, "hideWorld": 1, },3840: { "worldId": 15, "name": "WorldMap", "display": "World Map", "areaId": 0, "hideWorld": 1, },1024: { "worldId": 4, "name": "VillainVale", "display": "Villain’s Vale", "areaId": 0, "hideWorld": 0, },1034: { "worldId": 4, "name": "Marketplace", "display": "Marketplace", "areaId": 10, "hideWorld": 0, },1033: { "worldId": 4, "name": "Borough", "display": "Borough", "areaId": 9, "hideWorld": 0, },1037: { "worldId": 4, "name": "Merlin", "display": "Merlin’s House", "areaId": 13, "hideWorld": 0, },2048: { "worldId": 8, "name": "BambooGrove", "display": "Bamboo Grove", "areaId": 0, "hideWorld": 0, },2049: { "worldId": 8, "name": "Encampment", "display": "Encampment", "areaId": 1, "hideWorld": 0, },2050: { "worldId": 8, "name": "Checkpoint", "display": "Checkpoint", "areaId": 2, "hideWorld": 0, },2052: { "worldId": 8, "name": "Village", "display": "Village", "areaId": 4, "hideWorld": 0, },2051: { "worldId": 8, "name": "MountainTrail", "display": "Mountain Trail", "areaId": 3, "hideWorld": 0, },2053: { "worldId": 8, "name": "VillageCave", "display": "Village Cave", "areaId": 5, "hideWorld": 0, },2060: { "worldId": 8, "name": "RuinedVillage", "display": "Village", "areaId": 12, "hideWorld": 0, },2054: { "worldId": 8, "name": "Ridge", "display": "Ridge", "areaId": 6, "hideWorld": 0, },2055: { "worldId": 8, "name": "Summit", "display": "Summit", "areaId": 7, "hideWorld": 0, },2056: { "worldId": 8, "name": "ImperialSquare", "display": "Imperial Square", "areaId": 8, "hideWorld": 0, },2057: { "worldId": 8, "name": "PalaceGate", "display": "Palace Gate", "areaId": 9, "hideWorld": 0, },1280: { "worldId": 5, "name": "EntranceHall", "display": "Entrance Hall", "areaId": 0, "hideWorld": 0, },1281: { "worldId": 5, "name": "Parlor", "display": "Parlor", "areaId": 1, "hideWorld": 0, },1286: { "worldId": 5, "name": "BeastCourtyard", "display": "Courtyard", "areaId": 6, "hideWorld": 0, },1282: { "worldId": 5, "name": "BelleRoom", "display": "Belle’s Room", "areaId": 2, "hideWorld": 0, },1287: { "worldId": 5, "name": "EastWing", "display": "The East Wing", "areaId": 7, "hideWorld": 0, },1284: { "worldId": 5, "name": "Ballroom", "display": "Ballroom", "areaId": 4, "hideWorld": 0, },1288: { "worldId": 5, "name": "WestHall", "display": "The West Hall", "areaId": 8, "hideWorld": 0, },1291: { "worldId": 5, "name": "Undercroft", "display": "Undercroft", "areaId": 11, "hideWorld": 0, },1290: { "worldId": 5, "name": "Dungeon", "display": "Dungeon", "areaId": 10, "hideWorld": 0, },1292: { "worldId": 5, "name": "SecretPassage", "display": "Secret Passage", "areaId": 12, "hideWorld": 0, },1289: { "worldId": 5, "name": "WestWing", "display": "The West Wing", "areaId": 9, "hideWorld": 0, },1283: { "worldId": 5, "name": "BeastRoom", "display": "The Beast’s Room", "areaId": 3, "hideWorld": 0, },1285: { "worldId": 5, "name": "BallroomBattle", "display": "Ballroom", "areaId": 5, "hideWorld": 0, },2304: { "worldId": 9, "name": "Book", "display": "The Hundred Acre Wood", "areaId": 0, "hideWorld": 1, },2306: { "worldId": 9, "name": "PoohHouse", "display": "Pooh Bear’s House", "areaId": 2, "hideWorld": 0, },1542: { "worldId": 6, "name": "HadesChamber", "display": "Hades’ Chamber", "areaId": 6, "hideWorld": 0, },1541: { "worldId": 6, "name": "ValleyOfTheDead", "display": "Valley of the Dead", "areaId": 5, "hideWorld": 0, },1546: { "worldId": 6, "name": "CaveOfTheDeadInnerChamber", "display": "Cave of the Dead: Inner Chamber", "areaId": 10, "hideWorld": 0, },1551: { "worldId": 6, "name": "CaveOfTheDeadPassage", "display": "Cave of the Dead: Passage", "areaId": 15, "hideWorld": 0, },1539: { "worldId": 6, "name": "UnderworldEntrance", "display": "Underworld Entrance", "areaId": 3, "hideWorld": 0, },1543: { "worldId": 6, "name": "CaveOfTheDeadEntrance", "display": "Cave of the Dead: Entrance", "areaId": 7, "hideWorld": 0, },1537: { "worldId": 6, "name": "ColiseumGates", "display": "Coliseum Gates", "areaId": 1, "hideWorld": 0, },1540: { "worldId": 6, "name": "ColiseumFoyer", "display": "Coliseum Foyer", "areaId": 4, "hideWorld": 0, },1536: { "worldId": 6, "name": "Coliseum", "display": "The Coliseum", "areaId": 0, "hideWorld": 0, },1547: { "worldId": 6, "name": "UnderworldCavernsEntrance", "display": "Underworld Caverns: Entrance", "areaId": 11, "hideWorld": 0, },1552: { "worldId": 6, "name": "UnderworldCavernsLostRoad", "display": "Underworld Caverns: The Lost Road", "areaId": 16, "hideWorld": 0, },1553: { "worldId": 6, "name": "UnderworldCavernsAtrium", "display": "Underworld Caverns: Atrium", "areaId": 17, "hideWorld": 0, },</v>
+        <v>65535: { "worldId": 255, "name": "Title", "display": "On the title screen…", "areaId": 255, "hideWorld": 1, },523: { "worldId": 2, "name": "SunsetStation", "display": "Sunset Station", "areaId": 11, "hideWorld": 0, },522: { "worldId": 2, "name": "SunsetTerrace", "display": "Sunset Terrace", "areaId": 10, "hideWorld": 0, },548: { "worldId": 2, "name": "Tunnelway", "display": "Tunnelway", "areaId": 36, "hideWorld": 0, },524: { "worldId": 2, "name": "SunsetHill", "display": "Sunset Hill", "areaId": 12, "hideWorld": 0, },520: { "worldId": 2, "name": "StationPlaza", "display": "Station Plaza", "areaId": 8, "hideWorld": 0, },518: { "worldId": 2, "name": "StationHeights", "display": "Market Street: Station Heights", "areaId": 6, "hideWorld": 0, },515: { "worldId": 2, "name": "BackAlley", "display": "Back Alley", "areaId": 3, "hideWorld": 0, },514: { "worldId": 2, "name": "UsualSpot", "display": "The Usual Spot", "areaId": 2, "hideWorld": 0, },516: { "worldId": 2, "name": "Sandlot", "display": "Sandlot", "areaId": 4, "hideWorld": 0, },519: { "worldId": 2, "name": "TramCommon", "display": "Market Street: Tram Common", "areaId": 7, "hideWorld": 0, },525: { "worldId": 2, "name": "Woods", "display": "The Woods", "areaId": 13, "hideWorld": 0, },513: { "worldId": 2, "name": "RoxasRoom", "display": "Roxas’s Room", "areaId": 1, "hideWorld": 0, },526: { "worldId": 2, "name": "Courtyard", "display": "Mansion: Courtyard", "areaId": 14, "hideWorld": 0, },527: { "worldId": 2, "name": "Foyer", "display": "Mansion: Foyer", "areaId": 15, "hideWorld": 0, },530: { "worldId": 2, "name": "WhiteRoom", "display": "Mansion: The White Room", "areaId": 18, "hideWorld": 0, },529: { "worldId": 2, "name": "Library", "display": "Mansion: Library", "areaId": 17, "hideWorld": 0, },533: { "worldId": 2, "name": "ComputerRoom", "display": "Mansion: Computer Room", "areaId": 21, "hideWorld": 0, },531: { "worldId": 2, "name": "BasementHall", "display": "Mansion: Basement Hall", "areaId": 19, "hideWorld": 0, },532: { "worldId": 2, "name": "BasementHallAxel", "display": "Mansion: Basement Hall", "areaId": 20, "hideWorld": 0, },534: { "worldId": 2, "name": "BasementCorridor", "display": "Mansion: Basement Corridor", "areaId": 22, "hideWorld": 0, },535: { "worldId": 2, "name": "PodRoom", "display": "Mansion: Pod Room", "areaId": 23, "hideWorld": 0, },544: { "worldId": 2, "name": "StationOfSerenity", "display": "Station of Serenity", "areaId": 32, "hideWorld": 1, },545: { "worldId": 2, "name": "StationOfCalling", "display": "Station of Calling", "areaId": 33, "hideWorld": 1, },546: { "worldId": 2, "name": "StationOfAwakening", "display": "Station of Awakening", "areaId": 34, "hideWorld": 1, },517: { "worldId": 2, "name": "SandlotBattlefield", "display": "Sandlot", "areaId": 5, "hideWorld": 0, },521: { "worldId": 2, "name": "CentralStation", "display": "Central Station", "areaId": 9, "hideWorld": 0, },537: { "worldId": 2, "name": "Tower", "display": "The Tower", "areaId": 25, "hideWorld": 1, },541: { "worldId": 2, "name": "StarChamber", "display": "Tower: Star Chamber", "areaId": 29, "hideWorld": 1, },543: { "worldId": 2, "name": "WaywardStairs", "display": "Tower: Wayward Stairs", "areaId": 31, "hideWorld": 1, },550: { "worldId": 2, "name": "WaywardStairs2", "display": "Tower: Wayward Stairs", "areaId": 38, "hideWorld": 1, },542: { "worldId": 2, "name": "MoonChamber", "display": "Tower: Moon Chamber", "areaId": 30, "hideWorld": 1, },551: { "worldId": 2, "name": "WaywardStairs3", "display": "Tower: Wayward Stairs", "areaId": 39, "hideWorld": 1, },539: { "worldId": 2, "name": "SorcererLoft", "display": "Tower: Sorcerer’s Loft", "areaId": 27, "hideWorld": 1, },540: { "worldId": 2, "name": "Wardrobe", "display": "Tower: Wardrobe", "areaId": 28, "hideWorld": 1, },3840: { "worldId": 15, "name": "WorldMap", "display": "World Map", "areaId": 0, "hideWorld": 1, },1024: { "worldId": 4, "name": "VillainVale", "display": "Villain’s Vale", "areaId": 0, "hideWorld": 0, },1034: { "worldId": 4, "name": "Marketplace", "display": "Marketplace", "areaId": 10, "hideWorld": 0, },1033: { "worldId": 4, "name": "Borough", "display": "Borough", "areaId": 9, "hideWorld": 0, },1037: { "worldId": 4, "name": "Merlin", "display": "Merlin’s House", "areaId": 13, "hideWorld": 0, },2048: { "worldId": 8, "name": "BambooGrove", "display": "Bamboo Grove", "areaId": 0, "hideWorld": 0, },2049: { "worldId": 8, "name": "Encampment", "display": "Encampment", "areaId": 1, "hideWorld": 0, },2050: { "worldId": 8, "name": "Checkpoint", "display": "Checkpoint", "areaId": 2, "hideWorld": 0, },2052: { "worldId": 8, "name": "Village", "display": "Village", "areaId": 4, "hideWorld": 0, },2051: { "worldId": 8, "name": "MountainTrail", "display": "Mountain Trail", "areaId": 3, "hideWorld": 0, },2053: { "worldId": 8, "name": "VillageCave", "display": "Village Cave", "areaId": 5, "hideWorld": 0, },2060: { "worldId": 8, "name": "RuinedVillage", "display": "Village", "areaId": 12, "hideWorld": 0, },2054: { "worldId": 8, "name": "Ridge", "display": "Ridge", "areaId": 6, "hideWorld": 0, },2055: { "worldId": 8, "name": "Summit", "display": "Summit", "areaId": 7, "hideWorld": 0, },2056: { "worldId": 8, "name": "ImperialSquare", "display": "Imperial Square", "areaId": 8, "hideWorld": 0, },2057: { "worldId": 8, "name": "PalaceGate", "display": "Palace Gate", "areaId": 9, "hideWorld": 0, },1280: { "worldId": 5, "name": "EntranceHall", "display": "Entrance Hall", "areaId": 0, "hideWorld": 0, },1281: { "worldId": 5, "name": "Parlor", "display": "Parlor", "areaId": 1, "hideWorld": 0, },1286: { "worldId": 5, "name": "BeastCourtyard", "display": "Courtyard", "areaId": 6, "hideWorld": 0, },1282: { "worldId": 5, "name": "BelleRoom", "display": "Belle’s Room", "areaId": 2, "hideWorld": 0, },1287: { "worldId": 5, "name": "EastWing", "display": "The East Wing", "areaId": 7, "hideWorld": 0, },1284: { "worldId": 5, "name": "Ballroom", "display": "Ballroom", "areaId": 4, "hideWorld": 0, },1288: { "worldId": 5, "name": "WestHall", "display": "The West Hall", "areaId": 8, "hideWorld": 0, },1291: { "worldId": 5, "name": "Undercroft", "display": "Undercroft", "areaId": 11, "hideWorld": 0, },1290: { "worldId": 5, "name": "Dungeon", "display": "Dungeon", "areaId": 10, "hideWorld": 0, },1292: { "worldId": 5, "name": "SecretPassage", "display": "Secret Passage", "areaId": 12, "hideWorld": 0, },1289: { "worldId": 5, "name": "WestWing", "display": "The West Wing", "areaId": 9, "hideWorld": 0, },1283: { "worldId": 5, "name": "BeastRoom", "display": "The Beast’s Room", "areaId": 3, "hideWorld": 0, },1285: { "worldId": 5, "name": "BallroomBattle", "display": "Ballroom", "areaId": 5, "hideWorld": 0, },2304: { "worldId": 9, "name": "Book", "display": "The Hundred Acre Wood", "areaId": 0, "hideWorld": 1, },2306: { "worldId": 9, "name": "PoohHouse", "display": "Pooh Bear’s House", "areaId": 2, "hideWorld": 0, },1542: { "worldId": 6, "name": "HadesChamber", "display": "Hades’ Chamber", "areaId": 6, "hideWorld": 0, },1541: { "worldId": 6, "name": "ValleyOfTheDead", "display": "Valley of the Dead", "areaId": 5, "hideWorld": 0, },1546: { "worldId": 6, "name": "CaveOfTheDeadInnerChamber", "display": "Cave of the Dead: Inner Chamber", "areaId": 10, "hideWorld": 0, },1551: { "worldId": 6, "name": "CaveOfTheDeadPassage", "display": "Cave of the Dead: Passage", "areaId": 15, "hideWorld": 0, },1539: { "worldId": 6, "name": "UnderworldEntrance", "display": "Underworld Entrance", "areaId": 3, "hideWorld": 0, },1543: { "worldId": 6, "name": "CaveOfTheDeadEntrance", "display": "Cave of the Dead: Entrance", "areaId": 7, "hideWorld": 0, },1537: { "worldId": 6, "name": "ColiseumGates", "display": "Coliseum Gates", "areaId": 1, "hideWorld": 0, },1540: { "worldId": 6, "name": "ColiseumFoyer", "display": "Coliseum Foyer", "areaId": 4, "hideWorld": 0, },1536: { "worldId": 6, "name": "Coliseum", "display": "The Coliseum", "areaId": 0, "hideWorld": 0, },1547: { "worldId": 6, "name": "UnderworldCavernsEntrance", "display": "Underworld Caverns: Entrance", "areaId": 11, "hideWorld": 0, },1552: { "worldId": 6, "name": "UnderworldCavernsLostRoad", "display": "Underworld Caverns: The Lost Road", "areaId": 16, "hideWorld": 0, },1553: { "worldId": 6, "name": "UnderworldCavernsAtrium", "display": "Underworld Caverns: Atrium", "areaId": 17, "hideWorld": 0, },1548: { "worldId": 6, "name": "UnderworldLock", "display": "The Lock", "areaId": 12, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4631,7 +4637,26 @@
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <f aca="false">B80+C80*256</f>
-        <v>0</v>
+        <v>1548</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT( ,A80,": { ""worldId"": ",C80,", ""name"": """,D80,""", ""display"": """,E80,""", ""areaId"": ",B80,", ""hideWorld"": ",F80,", },")</f>
+        <v>1548: { "worldId": 6, "name": "UnderworldLock", "display": "The Lock", "areaId": 12, "hideWorld": 0, },</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4689,14 +4714,14 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4720,10 +4745,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A2,": { ""id"": ",A2,", ""name"": """,B2,""" },")</f>
@@ -4732,10 +4757,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A3,": { ""id"": ",A3,", ""name"": """,B3,""" },")</f>
@@ -4744,10 +4769,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A4,": { ""id"": ",A4,", ""name"": """,B4,""" },")</f>
@@ -4756,10 +4781,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C5" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A5,": { ""id"": ",A5,", ""name"": """,B5,""" },")</f>
@@ -4768,10 +4793,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C6" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A6,": { ""id"": ",A6,", ""name"": """,B6,""" },")</f>
@@ -4780,10 +4805,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C7" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A7,": { ""id"": ",A7,", ""name"": """,B7,""" },")</f>
@@ -4792,10 +4817,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C8" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A8,": { ""id"": ",A8,", ""name"": """,B8,""" },")</f>
@@ -4804,10 +4829,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A9,": { ""id"": ",A9,", ""name"": """,B9,""" },")</f>
@@ -4816,10 +4841,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C10" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A10,": { ""id"": ",A10,", ""name"": """,B10,""" },")</f>
@@ -4828,10 +4853,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A11,": { ""id"": ",A11,", ""name"": """,B11,""" },")</f>
@@ -4840,10 +4865,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT( ,A12,": { ""id"": ",A12,", ""name"": """,B12,""" },")</f>
@@ -4916,7 +4941,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.77"/>
@@ -4933,37 +4958,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -4978,28 +5003,28 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
@@ -5017,25 +5042,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
@@ -5056,25 +5081,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>195</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
@@ -5095,25 +5120,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
@@ -5134,25 +5159,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
@@ -5173,25 +5198,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
@@ -5212,25 +5237,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -5251,25 +5276,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -5290,25 +5315,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -5329,25 +5354,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -5368,25 +5393,25 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -5407,25 +5432,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -5446,25 +5471,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -5485,25 +5510,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -5524,25 +5549,25 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
@@ -5563,25 +5588,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -5602,25 +5627,25 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -5641,25 +5666,25 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -5680,25 +5705,25 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -5719,25 +5744,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
@@ -5758,25 +5783,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>0</v>
@@ -5797,25 +5822,25 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0</v>
@@ -5836,25 +5861,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
@@ -5875,25 +5900,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
@@ -5914,25 +5939,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
@@ -5953,25 +5978,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
@@ -5992,25 +6017,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
@@ -6031,25 +6056,25 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0</v>
@@ -6070,25 +6095,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0</v>
@@ -6109,25 +6134,25 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
@@ -6148,25 +6173,25 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0</v>
@@ -6187,25 +6212,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
@@ -6226,25 +6251,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
@@ -6265,25 +6290,25 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
@@ -6304,25 +6329,25 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="0" t="s">
         <v>268</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>266</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
@@ -6343,25 +6368,25 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1</v>
@@ -6382,25 +6407,25 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>272</v>
-      </c>
       <c r="D38" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>0</v>
@@ -6421,25 +6446,25 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1</v>
@@ -6460,25 +6485,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
@@ -6499,25 +6524,25 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B41" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>281</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>279</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
@@ -6538,25 +6563,25 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>0</v>
@@ -6577,25 +6602,25 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
@@ -6616,25 +6641,25 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0</v>
@@ -6655,25 +6680,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
@@ -6694,25 +6719,25 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="G46" s="0" t="s">
         <v>293</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>291</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0</v>
@@ -6733,25 +6758,25 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
@@ -6772,25 +6797,25 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
@@ -6811,25 +6836,25 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
@@ -6850,25 +6875,25 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
@@ -6889,25 +6914,25 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>1</v>
@@ -6928,25 +6953,25 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1</v>
@@ -6967,25 +6992,25 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1</v>
@@ -7006,25 +7031,25 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>0</v>
@@ -7045,25 +7070,25 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>0</v>
@@ -7084,25 +7109,25 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>0</v>
@@ -7123,25 +7148,25 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
@@ -7162,25 +7187,25 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B58" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>319</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0</v>
@@ -7201,25 +7226,25 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>0</v>
@@ -7240,25 +7265,25 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>0</v>
@@ -7279,25 +7304,25 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>0</v>
@@ -7318,25 +7343,25 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0</v>
@@ -7357,25 +7382,25 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B63" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G63" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="E63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>328</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>0</v>
@@ -7396,25 +7421,25 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>0</v>
@@ -7435,25 +7460,25 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>0</v>
@@ -7474,25 +7499,25 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>0</v>
@@ -7513,25 +7538,25 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>0</v>
@@ -7552,25 +7577,25 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>0</v>
@@ -7591,25 +7616,25 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>0</v>
@@ -7630,25 +7655,25 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>0</v>
@@ -7669,25 +7694,25 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>0</v>
@@ -7708,25 +7733,25 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>0</v>
@@ -7747,25 +7772,25 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>0</v>
@@ -7786,25 +7811,25 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>0</v>
@@ -7825,25 +7850,25 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>1</v>
@@ -7864,25 +7889,25 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B76" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D76" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>356</v>
-      </c>
       <c r="E76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>1</v>
@@ -7903,25 +7928,25 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>1</v>
@@ -7942,25 +7967,25 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>1</v>
@@ -7981,25 +8006,25 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>1</v>
@@ -8020,25 +8045,25 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>1</v>
@@ -8059,25 +8084,25 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>1</v>
@@ -8098,25 +8123,25 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>1</v>
@@ -8137,25 +8162,25 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>1</v>
@@ -8176,25 +8201,25 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>1</v>
@@ -8215,25 +8240,25 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>1</v>
@@ -8254,25 +8279,25 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>1</v>
@@ -8293,25 +8318,25 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>1</v>
@@ -8332,25 +8357,25 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>1</v>
@@ -8371,25 +8396,25 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>1</v>
@@ -8410,25 +8435,25 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>1</v>
@@ -8449,25 +8474,25 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B91" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="G91" s="0" t="s">
         <v>386</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="E91" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="G91" s="0" t="s">
-        <v>384</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>1</v>
@@ -8488,25 +8513,25 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>1</v>
@@ -8527,25 +8552,25 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>1</v>
@@ -8566,25 +8591,25 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>0</v>
@@ -8605,25 +8630,25 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="D95" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G95" s="0" t="s">
         <v>396</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="E95" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="G95" s="0" t="s">
-        <v>394</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>0</v>
@@ -8644,25 +8669,25 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>0</v>
@@ -8683,25 +8708,25 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>1</v>
@@ -8722,25 +8747,25 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B98" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G98" s="0" t="s">
         <v>402</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="E98" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="G98" s="0" t="s">
-        <v>400</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>1</v>
@@ -8761,25 +8786,25 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>1</v>
@@ -8800,25 +8825,25 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>1</v>
@@ -8839,25 +8864,25 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B101" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G101" s="0" t="s">
         <v>408</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="E101" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="G101" s="0" t="s">
-        <v>406</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>1</v>
@@ -8878,25 +8903,25 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>1</v>
@@ -8917,25 +8942,25 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>0</v>
@@ -8956,25 +8981,25 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>0</v>
@@ -8995,25 +9020,25 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>0</v>
@@ -9034,25 +9059,25 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>1</v>
@@ -9073,25 +9098,25 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B107" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G107" s="0" t="s">
         <v>420</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="E107" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F107" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="G107" s="0" t="s">
-        <v>418</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>1</v>
@@ -9112,25 +9137,25 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>1</v>
@@ -9151,25 +9176,25 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I109" s="0" t="n">
         <v>0</v>
@@ -9187,25 +9212,25 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I110" s="0" t="n">
         <v>0</v>
@@ -9223,25 +9248,25 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I111" s="0" t="n">
         <v>0</v>
@@ -9259,25 +9284,25 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I112" s="0" t="n">
         <v>0</v>
@@ -9295,25 +9320,25 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I113" s="0" t="n">
         <v>0</v>
@@ -9331,25 +9356,25 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I114" s="0" t="n">
         <v>3</v>
@@ -9367,25 +9392,25 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I115" s="0" t="n">
         <v>0</v>
@@ -9403,25 +9428,25 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I116" s="0" t="n">
         <v>0</v>
@@ -9439,25 +9464,25 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I117" s="0" t="n">
         <v>0</v>
@@ -9475,25 +9500,25 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I118" s="0" t="n">
         <v>0</v>
@@ -9511,25 +9536,25 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I119" s="0" t="n">
         <v>0</v>
@@ -9547,25 +9572,25 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I120" s="0" t="n">
         <v>0</v>
@@ -9583,25 +9608,25 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I121" s="0" t="n">
         <v>1</v>
@@ -9619,25 +9644,25 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="D122" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G122" s="0" t="s">
         <v>452</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="E122" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>450</v>
       </c>
       <c r="I122" s="0" t="n">
         <v>1</v>
@@ -9655,25 +9680,25 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I123" s="0" t="n">
         <v>1</v>
@@ -9691,25 +9716,25 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I124" s="0" t="n">
         <v>1</v>
@@ -9727,25 +9752,25 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I125" s="0" t="n">
         <v>1</v>
@@ -9763,25 +9788,25 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I126" s="0" t="n">
         <v>1</v>
@@ -9799,25 +9824,25 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I127" s="0" t="n">
         <v>1</v>
@@ -9835,25 +9860,25 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I128" s="0" t="n">
         <v>1</v>
@@ -9871,25 +9896,25 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I129" s="0" t="n">
         <v>2</v>
@@ -9907,25 +9932,25 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I130" s="0" t="n">
         <v>3</v>
@@ -9943,25 +9968,25 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I131" s="0" t="n">
         <v>1</v>
@@ -9979,25 +10004,25 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I132" s="0" t="n">
         <v>0</v>
@@ -10015,25 +10040,25 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B133" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="C133" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="C133" s="0" t="s">
-        <v>473</v>
-      </c>
       <c r="D133" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I133" s="0" t="n">
         <v>0</v>
@@ -10051,25 +10076,25 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I134" s="0" t="n">
         <v>0</v>
@@ -10087,25 +10112,25 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I135" s="0" t="n">
         <v>0</v>
@@ -10123,25 +10148,25 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I136" s="0" t="n">
         <v>0</v>
@@ -10159,25 +10184,25 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I137" s="0" t="n">
         <v>0</v>
@@ -10195,25 +10220,25 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I138" s="0" t="n">
         <v>0</v>
@@ -10231,25 +10256,25 @@
     </row>
     <row r="139" customFormat="fal